--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEBA345C-DB98-4A38-94DF-E16185DCD8E0}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C448BCC-77D1-4A33-AA70-CEF039ACCD98}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="244">
   <si>
     <t>Analysis</t>
   </si>
@@ -189,9 +189,6 @@
     <t>cv__ds_mplgfp_tw_w12.xlsx</t>
   </si>
   <si>
-    <t>6_FMF_UK_A1</t>
-  </si>
-  <si>
     <t>cv__ds_muplgfsflt_w22.xlsx</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>DR &gt; 35%</t>
   </si>
   <si>
-    <t>7_FMF_UK_A2</t>
-  </si>
-  <si>
     <t>cv__ds_muplgfsflt_w36.xlsx</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
     <t>cv__ds_mplgfsflt_w32.xlsx</t>
   </si>
   <si>
-    <t>7_FMF_UK_A4</t>
-  </si>
-  <si>
     <t>cv__ds_mplgfsflt_w36.xlsx</t>
   </si>
   <si>
@@ -754,6 +745,30 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>6_FMF_UK_A1a</t>
+  </si>
+  <si>
+    <t>6_FMF_UK_A1b</t>
+  </si>
+  <si>
+    <t>1:25</t>
+  </si>
+  <si>
+    <t>7_FMF_UK_A2a</t>
+  </si>
+  <si>
+    <t>7_FMF_UK_A2b</t>
+  </si>
+  <si>
+    <t>1:20</t>
+  </si>
+  <si>
+    <t>7_FMF_UK_A4a</t>
+  </si>
+  <si>
+    <t>7_FMF_UK_A4b</t>
   </si>
 </sst>
 </file>
@@ -1008,9 +1023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,6 +1030,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1381,13 +1394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D59CA7-78DE-483F-8DC5-D261426A3AA3}">
-  <dimension ref="A1:AL121"/>
+  <dimension ref="A1:AL124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:Z1048576"/>
+      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1419,7 @@
     <col min="12" max="12" width="33.42578125" customWidth="1"/>
     <col min="13" max="13" width="28.42578125" customWidth="1"/>
     <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="21.42578125" customWidth="1"/>
     <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1420,38 +1433,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -1524,13 +1537,13 @@
         <v>25</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1540,54 +1553,54 @@
       <c r="B3" s="27">
         <v>45337</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>F3&amp;"_"&amp;C3</f>
         <v>1T_PE_5_FMF_UK_A1</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="19">
         <v>1</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="39" t="s">
+      <c r="M3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -1596,19 +1609,19 @@
       <c r="U3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="38" t="s">
+      <c r="V3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3" s="19">
         <v>529</v>
       </c>
-      <c r="Y3" s="34">
+      <c r="Y3" s="19">
         <v>279</v>
       </c>
-      <c r="Z3" s="34">
+      <c r="Z3" s="19">
         <v>128</v>
       </c>
     </row>
@@ -1630,10 +1643,10 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f t="shared" ref="H4:H16" si="0">F4&amp;"_"&amp;C4</f>
+        <f t="shared" ref="H4:H19" si="0">F4&amp;"_"&amp;C4</f>
         <v>1T_PE_5_FMF_UK_A2</v>
       </c>
       <c r="I4" s="19">
@@ -1657,8 +1670,8 @@
       <c r="O4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20" t="s">
-        <v>31</v>
+      <c r="P4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="Q4" s="20" t="s">
         <v>31</v>
@@ -1666,8 +1679,8 @@
       <c r="R4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="20" t="s">
-        <v>31</v>
+      <c r="S4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="T4" s="20" t="s">
         <v>31</v>
@@ -1675,19 +1688,19 @@
       <c r="U4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="20" t="s">
-        <v>31</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="W4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="34">
+      <c r="X4" s="19">
         <v>529</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="Y4" s="19">
         <v>279</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="19">
         <v>128</v>
       </c>
     </row>
@@ -1709,7 +1722,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1736,8 +1749,8 @@
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="20" t="s">
-        <v>31</v>
+      <c r="P5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="Q5" s="20" t="s">
         <v>31</v>
@@ -1745,8 +1758,8 @@
       <c r="R5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="20" t="s">
-        <v>31</v>
+      <c r="S5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="T5" s="20" t="s">
         <v>31</v>
@@ -1754,19 +1767,19 @@
       <c r="U5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="20" t="s">
-        <v>31</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="W5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5" s="19">
         <v>529</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="Y5" s="19">
         <v>279</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="Z5" s="19">
         <v>128</v>
       </c>
     </row>
@@ -1815,8 +1828,8 @@
       <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="20" t="s">
-        <v>31</v>
+      <c r="P6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="Q6" s="20" t="s">
         <v>31</v>
@@ -1824,8 +1837,8 @@
       <c r="R6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="20" t="s">
-        <v>31</v>
+      <c r="S6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="T6" s="20" t="s">
         <v>31</v>
@@ -1833,17 +1846,17 @@
       <c r="U6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="20" t="s">
-        <v>31</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="W6" s="20" t="s">
         <v>31</v>
       </c>
       <c r="X6" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Z6" s="19">
         <v>16</v>
@@ -1894,8 +1907,8 @@
       <c r="O7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="20" t="s">
-        <v>31</v>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="Q7" s="20" t="s">
         <v>31</v>
@@ -1903,8 +1916,8 @@
       <c r="R7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="20" t="s">
-        <v>31</v>
+      <c r="S7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="T7" s="20" t="s">
         <v>31</v>
@@ -1912,17 +1925,17 @@
       <c r="U7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="20" t="s">
-        <v>31</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="W7" s="20" t="s">
         <v>31</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Z7" s="19">
         <v>16</v>
@@ -1974,7 +1987,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>31</v>
@@ -1983,7 +1996,7 @@
         <v>35</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T8" s="16" t="s">
         <v>31</v>
@@ -1992,16 +2005,16 @@
         <v>37</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W8" s="16" t="s">
         <v>31</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Z8" s="15">
         <v>16</v>
@@ -2015,21 +2028,21 @@
         <v>45337</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2T_PE_6_FMF_UK_A1</v>
+        <v>2T_PE_6_FMF_UK_A1a</v>
       </c>
       <c r="I9" s="19">
         <v>2</v>
@@ -2038,13 +2051,13 @@
         <v>28</v>
       </c>
       <c r="K9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>31</v>
@@ -2053,12 +2066,12 @@
         <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="37" t="s">
         <v>37</v>
       </c>
       <c r="S9" s="2" t="s">
@@ -2094,21 +2107,21 @@
         <v>45337</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="D10" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f t="shared" ref="H10" si="1">F10&amp;"_"&amp;C10</f>
-        <v>2T_PE_6_FMF_UK_A2</v>
+        <f t="shared" si="0"/>
+        <v>2T_PE_6_FMF_UK_A1b</v>
       </c>
       <c r="I10" s="19">
         <v>2</v>
@@ -2116,36 +2129,34 @@
       <c r="J10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="31" t="s">
+      <c r="R10" s="37" t="s">
         <v>37</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>31</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="T10" s="2"/>
       <c r="U10" s="31" t="s">
         <v>31</v>
       </c>
@@ -2166,160 +2177,160 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="27">
         <v>45334</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>45337</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="24">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" ref="H11" si="1">F11&amp;"_"&amp;C11</f>
+        <v>2T_PE_6_FMF_UK_A2</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="19">
+        <v>882</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>151</v>
+      </c>
+      <c r="Z11" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>45334</v>
+      </c>
+      <c r="B12" s="28">
+        <v>45337</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="22">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="22">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="6" t="str">
+      <c r="H12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>2T_PE_6_FMF_UK_MFs</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="15">
         <v>2</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="14" t="s">
+      <c r="K12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="30" t="s">
+      <c r="P12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X11" s="15">
+      <c r="S12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="15">
         <v>882</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y12" s="15">
         <v>151</v>
       </c>
-      <c r="Z11" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>45334</v>
-      </c>
-      <c r="B12" s="27">
-        <v>45337</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="24">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3T_PE_30_34_7_FMF_UK_A1</v>
-      </c>
-      <c r="I12" s="19">
-        <v>3</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U12" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X12" s="19">
-        <v>149</v>
-      </c>
-      <c r="Y12" s="19">
-        <v>60</v>
-      </c>
-      <c r="Z12" s="24" t="s">
+      <c r="Z12" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2331,21 +2342,21 @@
         <v>45337</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D13" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3T_PE_35_37_7_FMF_UK_A2</v>
+        <v>3T_PE_30_34_7_FMF_UK_A1</v>
       </c>
       <c r="I13" s="19">
         <v>3</v>
@@ -2354,34 +2365,34 @@
         <v>28</v>
       </c>
       <c r="K13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="20" t="s">
-        <v>31</v>
+        <v>54</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="U13" s="31" t="s">
         <v>31</v>
@@ -2393,10 +2404,10 @@
         <v>31</v>
       </c>
       <c r="X13" s="19">
-        <v>47</v>
-      </c>
-      <c r="Y13" s="24" t="s">
-        <v>31</v>
+        <v>149</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>60</v>
       </c>
       <c r="Z13" s="24" t="s">
         <v>31</v>
@@ -2410,21 +2421,21 @@
         <v>45337</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="D14" s="24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3T_PE_30_34_7_FMF_UK_A3</v>
+        <f t="shared" ref="H14:H15" si="2">F14&amp;"_"&amp;C14</f>
+        <v>3T_PE_35_37_7_FMF_UK_A2a</v>
       </c>
       <c r="I14" s="19">
         <v>3</v>
@@ -2433,7 +2444,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>31</v>
@@ -2441,20 +2452,20 @@
       <c r="M14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="20" t="s">
+      <c r="N14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="P14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>31</v>
+      <c r="P14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="R14" s="31" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="S14" s="20" t="s">
         <v>31</v>
@@ -2472,10 +2483,10 @@
         <v>31</v>
       </c>
       <c r="X14" s="19">
-        <v>149</v>
-      </c>
-      <c r="Y14" s="19">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="Y14" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="Z14" s="24" t="s">
         <v>31</v>
@@ -2489,21 +2500,21 @@
         <v>45337</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="D15" s="24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3T_PE_35_37_7_FMF_UK_A4</v>
+        <f t="shared" si="2"/>
+        <v>3T_PE_35_37_7_FMF_UK_A2b</v>
       </c>
       <c r="I15" s="19">
         <v>3</v>
@@ -2512,7 +2523,7 @@
         <v>28</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>31</v>
@@ -2520,34 +2531,30 @@
       <c r="M15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>31</v>
+      <c r="N15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>241</v>
       </c>
       <c r="Q15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="20" t="s">
+      <c r="R15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="38" t="s">
         <v>31</v>
       </c>
       <c r="T15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="U15" s="31"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
       <c r="X15" s="19">
         <v>47</v>
       </c>
@@ -2559,296 +2566,314 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>45334</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>45337</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="24">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3T_PE_30_34_7_FMF_UK_A3</v>
+      </c>
+      <c r="I16" s="19">
         <v>3</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="6" t="str">
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="19">
+        <v>149</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>45334</v>
+      </c>
+      <c r="B17" s="27">
+        <v>45337</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="24">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3T_PE_35_37_7_FMF_UK_A4a</v>
+      </c>
+      <c r="I17" s="19">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="19">
+        <v>47</v>
+      </c>
+      <c r="Y17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>45334</v>
+      </c>
+      <c r="B18" s="27">
+        <v>45337</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="24">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3T_PE_35_37_7_FMF_UK_A4b</v>
+      </c>
+      <c r="I18" s="19">
+        <v>3</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="31"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="19">
+        <v>47</v>
+      </c>
+      <c r="Y18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>45334</v>
+      </c>
+      <c r="B19" s="28">
+        <v>45337</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="22">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3T_PE_30_34_7_FMF_UK_MFs</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I19" s="15">
         <v>3</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="16" t="s">
+      <c r="P19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X16" s="15">
+      <c r="S19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" s="15">
         <v>149</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Y19" s="15">
         <v>60</v>
       </c>
-      <c r="Z16" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>45343</v>
-      </c>
-      <c r="B17" s="27">
-        <v>45348</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="24">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="str">
-        <f>F17&amp;"_"&amp;C17</f>
-        <v>1T_Triso_1_FMF_DE_A1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="S17" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>45343</v>
-      </c>
-      <c r="B18" s="28">
-        <v>45348</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="22">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="str">
-        <f>F18&amp;"_"&amp;C18</f>
-        <v>1T_Triso_1_FMF_DE_A2</v>
-      </c>
-      <c r="I18" s="15">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U18" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>45343</v>
-      </c>
-      <c r="B19" s="27">
-        <v>45348</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="2" t="str">
-        <f t="shared" ref="H19:H103" si="2">F19&amp;"_"&amp;C19</f>
-        <v>1T_Triso_2_FMF_UK_A1</v>
-      </c>
-      <c r="I19" s="11">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
+      <c r="Z19" s="22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
@@ -2858,19 +2883,19 @@
         <v>45348</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="19">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1T_Triso_2_FMF_UK_A2</v>
+        <f>F20&amp;"_"&amp;C20</f>
+        <v>1T_Triso_1_FMF_DE_A1</v>
       </c>
       <c r="I20" s="19">
         <v>1</v>
@@ -2879,10 +2904,10 @@
         <v>28</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="M20" s="20" t="s">
         <v>31</v>
@@ -2890,23 +2915,23 @@
       <c r="N20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R20" s="31" t="s">
-        <v>91</v>
-      </c>
       <c r="S20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T20" s="20" t="s">
-        <v>31</v>
+        <v>78</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="U20" s="31" t="s">
         <v>31</v>
@@ -2922,75 +2947,75 @@
       <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="28">
         <v>45343</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="28">
         <v>45348</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="19">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="2" t="s">
+      <c r="C21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="22">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="str">
+        <f>F21&amp;"_"&amp;C21</f>
+        <v>1T_Triso_1_FMF_DE_A2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1T_Triso_2_FMF_UK_A3</v>
-      </c>
-      <c r="I21" s="19">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U21" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
+      <c r="P21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
@@ -2999,69 +3024,69 @@
       <c r="B22" s="27">
         <v>45348</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="19">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2" t="s">
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="2" t="str">
+        <f t="shared" ref="H22:H106" si="3">F22&amp;"_"&amp;C22</f>
+        <v>1T_Triso_2_FMF_UK_A1</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1T_Triso_2_FMF_UK_A4</v>
-      </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="18" t="s">
+      <c r="P22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="R22" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="S22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U22" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
+      <c r="V22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
@@ -3071,19 +3096,19 @@
         <v>45348</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D23" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1T_Triso_2_FMF_UK_A5</v>
+        <f t="shared" si="3"/>
+        <v>1T_Triso_2_FMF_UK_A2</v>
       </c>
       <c r="I23" s="19">
         <v>1</v>
@@ -3092,10 +3117,10 @@
         <v>28</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M23" s="20" t="s">
         <v>31</v>
@@ -3104,7 +3129,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P23" s="20" t="s">
         <v>31</v>
@@ -3113,7 +3138,7 @@
         <v>31</v>
       </c>
       <c r="R23" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S23" s="20" t="s">
         <v>31</v>
@@ -3142,19 +3167,19 @@
         <v>45348</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D24" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1T_Triso_2_FMF_UK_A4</v>
+        <f t="shared" si="3"/>
+        <v>1T_Triso_2_FMF_UK_A3</v>
       </c>
       <c r="I24" s="19">
         <v>1</v>
@@ -3163,26 +3188,28 @@
         <v>28</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="N24" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="20" t="s">
         <v>31</v>
       </c>
       <c r="R24" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S24" s="20" t="s">
         <v>31</v>
@@ -3211,19 +3238,19 @@
         <v>45348</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D25" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1T_Triso_2_FMF_UK_A5</v>
+        <f t="shared" si="3"/>
+        <v>1T_Triso_2_FMF_UK_A4</v>
       </c>
       <c r="I25" s="19">
         <v>1</v>
@@ -3232,26 +3259,28 @@
         <v>28</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M25" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="N25" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="20" t="s">
         <v>31</v>
       </c>
       <c r="R25" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S25" s="20" t="s">
         <v>31</v>
@@ -3280,31 +3309,31 @@
         <v>45348</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D26" s="19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1T_Triso_2_FMF_UK_A6</v>
+        <f t="shared" si="3"/>
+        <v>1T_Triso_2_FMF_UK_A5</v>
       </c>
       <c r="I26" s="19">
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M26" s="20" t="s">
         <v>31</v>
@@ -3313,7 +3342,7 @@
         <v>31</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P26" s="20" t="s">
         <v>31</v>
@@ -3322,7 +3351,7 @@
         <v>31</v>
       </c>
       <c r="R26" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S26" s="20" t="s">
         <v>31</v>
@@ -3351,49 +3380,47 @@
         <v>45348</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D27" s="19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>1T_Triso_2_FMF_UK_A7</v>
+        <f t="shared" si="3"/>
+        <v>1T_Triso_2_FMF_UK_A4</v>
       </c>
       <c r="I27" s="19">
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>31</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M27" s="20"/>
       <c r="N27" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="21" t="s">
         <v>31</v>
       </c>
       <c r="R27" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S27" s="20" t="s">
         <v>31</v>
@@ -3422,49 +3449,47 @@
         <v>45348</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="D28" s="19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="2" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_2_FMF_UK_A8_MC</v>
+        <f t="shared" si="3"/>
+        <v>1T_Triso_2_FMF_UK_A5</v>
       </c>
       <c r="I28" s="19">
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R28" s="31" t="s">
-        <v>91</v>
       </c>
       <c r="S28" s="20" t="s">
         <v>31</v>
@@ -3493,49 +3518,49 @@
         <v>45348</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="D29" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="2" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_DC_2_FMF_UK_A8_DC</v>
+        <f t="shared" si="3"/>
+        <v>1T_Triso_2_FMF_UK_A6</v>
       </c>
       <c r="I29" s="19">
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="31" t="s">
-        <v>91</v>
       </c>
       <c r="S29" s="20" t="s">
         <v>31</v>
@@ -3564,31 +3589,31 @@
         <v>45348</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="D30" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="2" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_2_FMF_UK_A9_MC</v>
+        <f t="shared" si="3"/>
+        <v>1T_Triso_2_FMF_UK_A7</v>
       </c>
       <c r="I30" s="19">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M30" s="20" t="s">
         <v>31</v>
@@ -3597,7 +3622,7 @@
         <v>31</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P30" s="20" t="s">
         <v>31</v>
@@ -3606,7 +3631,7 @@
         <v>31</v>
       </c>
       <c r="R30" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S30" s="20" t="s">
         <v>31</v>
@@ -3628,38 +3653,38 @@
       <c r="Z30" s="19"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>45343</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>45348</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D31" s="19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_DC_2_FMF_UK_A9_DC</v>
+      <c r="H31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_2_FMF_UK_A8_MC</v>
       </c>
       <c r="I31" s="19">
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M31" s="20" t="s">
         <v>31</v>
@@ -3667,25 +3692,25 @@
       <c r="N31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R31" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="S31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U31" s="30" t="s">
+      <c r="O31" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" s="31" t="s">
         <v>31</v>
       </c>
       <c r="V31" s="20" t="s">
@@ -3700,46 +3725,46 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
+        <v>45343</v>
+      </c>
+      <c r="B32" s="27">
         <v>45348</v>
       </c>
-      <c r="B32" s="27">
-        <v>45351</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="19">
         <v>2</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="8"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2T_Triso_3_FMF_UK_A1</v>
-      </c>
-      <c r="I32" s="11">
-        <v>2</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N32" s="13" t="s">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_2_FMF_UK_A8_DC</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P32" s="20" t="s">
         <v>31</v>
@@ -3748,7 +3773,7 @@
         <v>31</v>
       </c>
       <c r="R32" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S32" s="20" t="s">
         <v>31</v>
@@ -3756,61 +3781,61 @@
       <c r="T32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="V32" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="W32" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U32" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
+        <v>45343</v>
+      </c>
+      <c r="B33" s="27">
         <v>45348</v>
       </c>
-      <c r="B33" s="27">
-        <v>45351</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="D33" s="19">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2T_Triso_3_FMF_UK_A2</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_2_FMF_UK_A9_MC</v>
       </c>
       <c r="I33" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="N33" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>31</v>
@@ -3819,7 +3844,7 @@
         <v>31</v>
       </c>
       <c r="R33" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S33" s="20" t="s">
         <v>31</v>
@@ -3840,65 +3865,65 @@
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>45343</v>
+      </c>
+      <c r="B34" s="28">
         <v>45348</v>
       </c>
-      <c r="B34" s="27">
-        <v>45351</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="D34" s="19">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2T_Triso_3_FMF_UK_A3</v>
+        <v>180</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_2_FMF_UK_A9_DC</v>
       </c>
       <c r="I34" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="N34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="P34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R34" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="S34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U34" s="31" t="s">
+      <c r="O34" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" s="30" t="s">
         <v>31</v>
       </c>
       <c r="V34" s="20" t="s">
@@ -3911,78 +3936,78 @@
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>45348</v>
       </c>
       <c r="B35" s="27">
         <v>45351</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="19">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
+      <c r="C35" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="11">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>2T_Triso_3_FMF_UK_A1</v>
+      </c>
+      <c r="I35" s="11">
+        <v>2</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2T_Triso_3_FMF_UK_A4</v>
-      </c>
-      <c r="I35" s="19">
-        <v>2</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="18" t="s">
+      <c r="V35" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R35" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="S35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U35" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>45348</v>
       </c>
@@ -3990,19 +4015,19 @@
         <v>45351</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D36" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2T_Triso_3_FMF_UK_A5</v>
+        <f t="shared" si="3"/>
+        <v>2T_Triso_3_FMF_UK_A2</v>
       </c>
       <c r="I36" s="19">
         <v>2</v>
@@ -4011,34 +4036,34 @@
         <v>28</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L36" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="N36" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>127</v>
+      <c r="O36" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="R36" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="U36" s="31" t="s">
         <v>31</v>
@@ -4053,7 +4078,7 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>45348</v>
       </c>
@@ -4061,19 +4086,19 @@
         <v>45351</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D37" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>2T_Triso_3_FMF_UK_A6</v>
+        <f t="shared" si="3"/>
+        <v>2T_Triso_3_FMF_UK_A3</v>
       </c>
       <c r="I37" s="19">
         <v>2</v>
@@ -4082,19 +4107,19 @@
         <v>28</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L37" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="N37" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O37" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P37" s="20" t="s">
         <v>31</v>
@@ -4103,7 +4128,7 @@
         <v>31</v>
       </c>
       <c r="R37" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S37" s="20" t="s">
         <v>31</v>
@@ -4124,7 +4149,7 @@
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>45348</v>
       </c>
@@ -4132,40 +4157,40 @@
         <v>45351</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="D38" s="19">
-        <v>8</v>
-      </c>
-      <c r="E38" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_3_FMF_UK_A7_MC</v>
+        <f t="shared" si="3"/>
+        <v>2T_Triso_3_FMF_UK_A4</v>
       </c>
       <c r="I38" s="19">
         <v>2</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L38" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="N38" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P38" s="20" t="s">
         <v>31</v>
@@ -4174,7 +4199,7 @@
         <v>31</v>
       </c>
       <c r="R38" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S38" s="20" t="s">
         <v>31</v>
@@ -4195,7 +4220,7 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>45348</v>
       </c>
@@ -4203,55 +4228,55 @@
         <v>45351</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="D39" s="19">
-        <v>8</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G39" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_DC_3_FMF_UK_A7_DC</v>
+        <f t="shared" si="3"/>
+        <v>2T_Triso_3_FMF_UK_A5</v>
       </c>
       <c r="I39" s="19">
         <v>2</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L39" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O39" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P39" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="20" t="s">
-        <v>31</v>
+      <c r="O39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="R39" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="S39" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T39" s="20" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="U39" s="31" t="s">
         <v>31</v>
@@ -4266,7 +4291,7 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>45348</v>
       </c>
@@ -4274,40 +4299,40 @@
         <v>45351</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="D40" s="19">
-        <v>9</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_3_FMF_UK_A8_MC</v>
+        <f t="shared" si="3"/>
+        <v>2T_Triso_3_FMF_UK_A6</v>
       </c>
       <c r="I40" s="19">
         <v>2</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L40" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N40" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P40" s="20" t="s">
         <v>31</v>
@@ -4316,7 +4341,7 @@
         <v>31</v>
       </c>
       <c r="R40" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S40" s="20" t="s">
         <v>31</v>
@@ -4337,7 +4362,7 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>45348</v>
       </c>
@@ -4345,40 +4370,40 @@
         <v>45351</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D41" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_DC_3_FMF_UK_A8_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_3_FMF_UK_A7_MC</v>
       </c>
       <c r="I41" s="19">
         <v>2</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L41" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N41" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O41" s="31" t="s">
-        <v>80</v>
+      <c r="O41" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P41" s="20" t="s">
         <v>31</v>
@@ -4387,7 +4412,7 @@
         <v>31</v>
       </c>
       <c r="R41" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S41" s="20" t="s">
         <v>31</v>
@@ -4408,7 +4433,7 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>45348</v>
       </c>
@@ -4416,40 +4441,40 @@
         <v>45351</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D42" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_3_FMF_UK_A9_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_3_FMF_UK_A7_DC</v>
       </c>
       <c r="I42" s="19">
         <v>2</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L42" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O42" s="31" t="s">
-        <v>80</v>
+      <c r="O42" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P42" s="20" t="s">
         <v>31</v>
@@ -4458,7 +4483,7 @@
         <v>31</v>
       </c>
       <c r="R42" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S42" s="20" t="s">
         <v>31</v>
@@ -4479,7 +4504,7 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>45348</v>
       </c>
@@ -4487,40 +4512,40 @@
         <v>45351</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D43" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_DC_3_FMF_UK_A9_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_3_FMF_UK_A8_MC</v>
       </c>
       <c r="I43" s="19">
         <v>2</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L43" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N43" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O43" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P43" s="20" t="s">
         <v>31</v>
@@ -4529,7 +4554,7 @@
         <v>31</v>
       </c>
       <c r="R43" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S43" s="20" t="s">
         <v>31</v>
@@ -4550,7 +4575,7 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>45348</v>
       </c>
@@ -4558,40 +4583,40 @@
         <v>45351</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D44" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_3_FMF_UK_A10_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_3_FMF_UK_A8_DC</v>
       </c>
       <c r="I44" s="19">
         <v>2</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L44" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N44" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O44" s="18" t="s">
-        <v>80</v>
+      <c r="O44" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P44" s="20" t="s">
         <v>31</v>
@@ -4600,7 +4625,7 @@
         <v>31</v>
       </c>
       <c r="R44" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S44" s="20" t="s">
         <v>31</v>
@@ -4621,7 +4646,7 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>45348</v>
       </c>
@@ -4629,40 +4654,40 @@
         <v>45351</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D45" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_DC_3_FMF_UK_A10_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_3_FMF_UK_A9_MC</v>
       </c>
       <c r="I45" s="19">
         <v>2</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L45" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N45" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O45" s="18" t="s">
-        <v>80</v>
+      <c r="O45" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P45" s="20" t="s">
         <v>31</v>
@@ -4671,7 +4696,7 @@
         <v>31</v>
       </c>
       <c r="R45" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S45" s="20" t="s">
         <v>31</v>
@@ -4692,7 +4717,7 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>45348</v>
       </c>
@@ -4700,40 +4725,40 @@
         <v>45351</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D46" s="19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_3_FMF_UK_A11_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_3_FMF_UK_A9_DC</v>
       </c>
       <c r="I46" s="19">
         <v>2</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L46" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N46" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O46" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P46" s="20" t="s">
         <v>31</v>
@@ -4742,7 +4767,7 @@
         <v>31</v>
       </c>
       <c r="R46" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S46" s="20" t="s">
         <v>31</v>
@@ -4763,7 +4788,7 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>45348</v>
       </c>
@@ -4771,40 +4796,40 @@
         <v>45351</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D47" s="19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_DC_3_FMF_UK_A11_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_3_FMF_UK_A10_MC</v>
       </c>
       <c r="I47" s="19">
         <v>2</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L47" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O47" s="31" t="s">
-        <v>80</v>
+      <c r="O47" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P47" s="20" t="s">
         <v>31</v>
@@ -4813,7 +4838,7 @@
         <v>31</v>
       </c>
       <c r="R47" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S47" s="20" t="s">
         <v>31</v>
@@ -4834,7 +4859,7 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>45348</v>
       </c>
@@ -4842,40 +4867,40 @@
         <v>45351</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D48" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_3_FMF_UK_A12_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_3_FMF_UK_A10_DC</v>
       </c>
       <c r="I48" s="19">
         <v>2</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="L48" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" s="20" t="s">
-        <v>80</v>
+        <v>120</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P48" s="20" t="s">
         <v>31</v>
@@ -4883,8 +4908,8 @@
       <c r="Q48" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R48" s="20" t="s">
-        <v>91</v>
+      <c r="R48" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="S48" s="20" t="s">
         <v>31</v>
@@ -4904,59 +4929,58 @@
       <c r="X48" s="19"/>
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
-      <c r="AL48" s="33"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A49" s="28">
+      <c r="A49" s="27">
         <v>45348</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="27">
         <v>45351</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D49" s="19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_DC_3_FMF_UK_A12_DC</v>
+      <c r="H49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_3_FMF_UK_A11_MC</v>
       </c>
       <c r="I49" s="19">
         <v>2</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="L49" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N49" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q49" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R49" s="20" t="s">
-        <v>91</v>
+        <v>122</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q49" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R49" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="S49" s="20" t="s">
         <v>31</v>
@@ -4964,7 +4988,7 @@
       <c r="T49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U49" s="30" t="s">
+      <c r="U49" s="31" t="s">
         <v>31</v>
       </c>
       <c r="V49" s="20" t="s">
@@ -4976,121 +5000,120 @@
       <c r="X49" s="19"/>
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
-      <c r="AL49" s="33"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
-        <v>45356</v>
+        <v>45348</v>
       </c>
       <c r="B50" s="27">
-        <v>45359</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="11">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="8"/>
+        <v>45351</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="19">
+        <v>4</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>12T_Triso_ T21_4_FMF_UK_A1</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R50" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="S50" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T50" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U50" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="V50" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="W50" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_3_FMF_UK_A11_DC</v>
+      </c>
+      <c r="I50" s="19">
+        <v>2</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U50" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
-        <v>45356</v>
+        <v>45348</v>
       </c>
       <c r="B51" s="27">
-        <v>45359</v>
+        <v>45351</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="D51" s="19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="2" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A2</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>133</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_3_FMF_UK_A12_MC</v>
+      </c>
+      <c r="I51" s="19">
+        <v>2</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L51" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N51" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N51" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P51" s="20" t="s">
         <v>31</v>
@@ -5098,8 +5121,8 @@
       <c r="Q51" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R51" s="31" t="s">
-        <v>91</v>
+      <c r="R51" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="S51" s="20" t="s">
         <v>31</v>
@@ -5119,58 +5142,59 @@
       <c r="X51" s="19"/>
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
+      <c r="AL51" s="33"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
-        <v>45356</v>
-      </c>
-      <c r="B52" s="27">
-        <v>45359</v>
+      <c r="A52" s="28">
+        <v>45348</v>
+      </c>
+      <c r="B52" s="28">
+        <v>45351</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="D52" s="19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="2" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="G52" s="5"/>
-      <c r="H52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A3</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>133</v>
+      <c r="H52" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_3_FMF_UK_A12_DC</v>
+      </c>
+      <c r="I52" s="19">
+        <v>2</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L52" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N52" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O52" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="P52" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q52" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R52" s="31" t="s">
-        <v>91</v>
+      <c r="O52" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P52" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="S52" s="20" t="s">
         <v>31</v>
@@ -5178,7 +5202,7 @@
       <c r="T52" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U52" s="31" t="s">
+      <c r="U52" s="30" t="s">
         <v>31</v>
       </c>
       <c r="V52" s="20" t="s">
@@ -5190,6 +5214,7 @@
       <c r="X52" s="19"/>
       <c r="Y52" s="19"/>
       <c r="Z52" s="19"/>
+      <c r="AL52" s="33"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
@@ -5198,69 +5223,69 @@
       <c r="B53" s="27">
         <v>45359</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="19">
-        <v>26</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="5"/>
+      <c r="C53" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="8"/>
       <c r="H53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A4</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O53" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R53" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="S53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U53" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W53" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
+        <f t="shared" si="3"/>
+        <v>12T_Triso_ T21_4_FMF_UK_A1</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R53" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U53" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W53" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
@@ -5270,40 +5295,40 @@
         <v>45359</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D54" s="19">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A5</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A2</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N54" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O54" s="31" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+      <c r="N54" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P54" s="20" t="s">
         <v>31</v>
@@ -5312,7 +5337,7 @@
         <v>31</v>
       </c>
       <c r="R54" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S54" s="20" t="s">
         <v>31</v>
@@ -5341,40 +5366,40 @@
         <v>45359</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D55" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A6</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A3</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="N55" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O55" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P55" s="20" t="s">
         <v>31</v>
@@ -5383,7 +5408,7 @@
         <v>31</v>
       </c>
       <c r="R55" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S55" s="20" t="s">
         <v>31</v>
@@ -5412,40 +5437,40 @@
         <v>45359</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D56" s="19">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A7</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A4</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="N56" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O56" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P56" s="20" t="s">
         <v>31</v>
@@ -5454,7 +5479,7 @@
         <v>31</v>
       </c>
       <c r="R56" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S56" s="20" t="s">
         <v>31</v>
@@ -5483,40 +5508,40 @@
         <v>45359</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D57" s="19">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A8</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A5</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="N57" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O57" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P57" s="20" t="s">
         <v>31</v>
@@ -5525,7 +5550,7 @@
         <v>31</v>
       </c>
       <c r="R57" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S57" s="20" t="s">
         <v>31</v>
@@ -5554,40 +5579,40 @@
         <v>45359</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D58" s="19">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A9</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A6</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N58" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O58" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P58" s="20" t="s">
         <v>31</v>
@@ -5596,7 +5621,7 @@
         <v>31</v>
       </c>
       <c r="R58" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S58" s="20" t="s">
         <v>31</v>
@@ -5625,40 +5650,40 @@
         <v>45359</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D59" s="19">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A10</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A7</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N59" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P59" s="20" t="s">
         <v>31</v>
@@ -5667,7 +5692,7 @@
         <v>31</v>
       </c>
       <c r="R59" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S59" s="20" t="s">
         <v>31</v>
@@ -5696,40 +5721,40 @@
         <v>45359</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D60" s="19">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A11</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A8</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N60" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O60" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P60" s="20" t="s">
         <v>31</v>
@@ -5738,7 +5763,7 @@
         <v>31</v>
       </c>
       <c r="R60" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S60" s="20" t="s">
         <v>31</v>
@@ -5767,40 +5792,40 @@
         <v>45359</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D61" s="19">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A12</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A9</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="N61" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O61" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P61" s="20" t="s">
         <v>31</v>
@@ -5809,7 +5834,7 @@
         <v>31</v>
       </c>
       <c r="R61" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S61" s="20" t="s">
         <v>31</v>
@@ -5838,40 +5863,40 @@
         <v>45359</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D62" s="19">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A13</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A10</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="N62" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P62" s="20" t="s">
         <v>31</v>
@@ -5880,7 +5905,7 @@
         <v>31</v>
       </c>
       <c r="R62" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S62" s="20" t="s">
         <v>31</v>
@@ -5909,40 +5934,40 @@
         <v>45359</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D63" s="19">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A14</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A11</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="N63" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O63" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P63" s="20" t="s">
         <v>31</v>
@@ -5951,7 +5976,7 @@
         <v>31</v>
       </c>
       <c r="R63" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S63" s="20" t="s">
         <v>31</v>
@@ -5980,40 +6005,40 @@
         <v>45359</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D64" s="19">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A15</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A12</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N64" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P64" s="20" t="s">
         <v>31</v>
@@ -6022,7 +6047,7 @@
         <v>31</v>
       </c>
       <c r="R64" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S64" s="20" t="s">
         <v>31</v>
@@ -6051,40 +6076,40 @@
         <v>45359</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D65" s="19">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A16</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A13</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N65" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P65" s="20" t="s">
         <v>31</v>
@@ -6093,7 +6118,7 @@
         <v>31</v>
       </c>
       <c r="R65" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S65" s="20" t="s">
         <v>31</v>
@@ -6122,40 +6147,40 @@
         <v>45359</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D66" s="19">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A17</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A14</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N66" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O66" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P66" s="20" t="s">
         <v>31</v>
@@ -6164,7 +6189,7 @@
         <v>31</v>
       </c>
       <c r="R66" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S66" s="20" t="s">
         <v>31</v>
@@ -6193,40 +6218,40 @@
         <v>45359</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D67" s="19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A18</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A15</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="N67" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O67" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P67" s="20" t="s">
         <v>31</v>
@@ -6235,7 +6260,7 @@
         <v>31</v>
       </c>
       <c r="R67" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S67" s="20" t="s">
         <v>31</v>
@@ -6264,40 +6289,40 @@
         <v>45359</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D68" s="19">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_single_sim_4_FMF_UK_A19</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A16</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N68" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N68" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P68" s="20" t="s">
         <v>31</v>
@@ -6306,7 +6331,7 @@
         <v>31</v>
       </c>
       <c r="R68" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S68" s="20" t="s">
         <v>31</v>
@@ -6335,40 +6360,40 @@
         <v>45359</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="D69" s="19">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="2" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_4_FMF_UK_A20_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A17</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N69" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N69" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O69" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P69" s="20" t="s">
         <v>31</v>
@@ -6377,7 +6402,7 @@
         <v>31</v>
       </c>
       <c r="R69" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S69" s="20" t="s">
         <v>31</v>
@@ -6406,40 +6431,40 @@
         <v>45359</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="D70" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="2" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_sim_MC_4_FMF_UK_A20_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A18</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N70" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N70" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O70" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P70" s="20" t="s">
         <v>31</v>
@@ -6448,7 +6473,7 @@
         <v>31</v>
       </c>
       <c r="R70" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S70" s="20" t="s">
         <v>31</v>
@@ -6477,40 +6502,40 @@
         <v>45359</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="D71" s="19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A21_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_single_sim_4_FMF_UK_A19</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N71" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O71" s="31" t="s">
-        <v>80</v>
+      <c r="O71" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P71" s="20" t="s">
         <v>31</v>
@@ -6519,7 +6544,7 @@
         <v>31</v>
       </c>
       <c r="R71" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S71" s="20" t="s">
         <v>31</v>
@@ -6548,40 +6573,40 @@
         <v>45359</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D72" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="2" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A21_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_4_FMF_UK_A20_MC</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N72" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O72" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P72" s="20" t="s">
         <v>31</v>
@@ -6590,7 +6615,7 @@
         <v>31</v>
       </c>
       <c r="R72" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S72" s="20" t="s">
         <v>31</v>
@@ -6619,40 +6644,40 @@
         <v>45359</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D73" s="19">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="2" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A22_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_4_FMF_UK_A20_DC</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N73" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O73" s="18" t="s">
-        <v>80</v>
+      <c r="O73" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P73" s="20" t="s">
         <v>31</v>
@@ -6661,7 +6686,7 @@
         <v>31</v>
       </c>
       <c r="R73" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S73" s="20" t="s">
         <v>31</v>
@@ -6690,40 +6715,40 @@
         <v>45359</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D74" s="19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A22_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A21_MC</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N74" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O74" s="18" t="s">
-        <v>80</v>
+      <c r="O74" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P74" s="20" t="s">
         <v>31</v>
@@ -6732,7 +6757,7 @@
         <v>31</v>
       </c>
       <c r="R74" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S74" s="20" t="s">
         <v>31</v>
@@ -6761,40 +6786,40 @@
         <v>45359</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D75" s="19">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A23_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A21_DC</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N75" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O75" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P75" s="20" t="s">
         <v>31</v>
@@ -6803,7 +6828,7 @@
         <v>31</v>
       </c>
       <c r="R75" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S75" s="20" t="s">
         <v>31</v>
@@ -6832,40 +6857,40 @@
         <v>45359</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D76" s="19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A23_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A22_MC</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N76" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O76" s="31" t="s">
-        <v>80</v>
+      <c r="O76" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P76" s="20" t="s">
         <v>31</v>
@@ -6874,7 +6899,7 @@
         <v>31</v>
       </c>
       <c r="R76" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S76" s="20" t="s">
         <v>31</v>
@@ -6903,40 +6928,40 @@
         <v>45359</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D77" s="19">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A24_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A22_DC</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N77" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O77" s="31" t="s">
-        <v>80</v>
+      <c r="O77" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P77" s="20" t="s">
         <v>31</v>
@@ -6945,7 +6970,7 @@
         <v>31</v>
       </c>
       <c r="R77" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S77" s="20" t="s">
         <v>31</v>
@@ -6974,40 +6999,40 @@
         <v>45359</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D78" s="19">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A24_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A23_MC</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N78" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O78" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P78" s="20" t="s">
         <v>31</v>
@@ -7016,7 +7041,7 @@
         <v>31</v>
       </c>
       <c r="R78" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S78" s="20" t="s">
         <v>31</v>
@@ -7045,40 +7070,40 @@
         <v>45359</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D79" s="19">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A25_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A23_DC</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N79" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O79" s="18" t="s">
-        <v>80</v>
+      <c r="O79" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P79" s="20" t="s">
         <v>31</v>
@@ -7087,7 +7112,7 @@
         <v>31</v>
       </c>
       <c r="R79" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S79" s="20" t="s">
         <v>31</v>
@@ -7116,40 +7141,40 @@
         <v>45359</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D80" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A25_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A24_MC</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N80" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O80" s="18" t="s">
-        <v>80</v>
+      <c r="O80" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P80" s="20" t="s">
         <v>31</v>
@@ -7158,7 +7183,7 @@
         <v>31</v>
       </c>
       <c r="R80" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S80" s="20" t="s">
         <v>31</v>
@@ -7187,40 +7212,40 @@
         <v>45359</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D81" s="19">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A26_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A24_DC</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N81" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O81" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P81" s="20" t="s">
         <v>31</v>
@@ -7229,7 +7254,7 @@
         <v>31</v>
       </c>
       <c r="R81" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S81" s="20" t="s">
         <v>31</v>
@@ -7258,40 +7283,40 @@
         <v>45359</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D82" s="19">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A26_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A25_MC</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="N82" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O82" s="31" t="s">
-        <v>80</v>
+      <c r="O82" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P82" s="20" t="s">
         <v>31</v>
@@ -7300,7 +7325,7 @@
         <v>31</v>
       </c>
       <c r="R82" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S82" s="20" t="s">
         <v>31</v>
@@ -7329,40 +7354,40 @@
         <v>45359</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D83" s="19">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A27_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A25_DC</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N83" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P83" s="20" t="s">
         <v>31</v>
@@ -7371,7 +7396,7 @@
         <v>31</v>
       </c>
       <c r="R83" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S83" s="20" t="s">
         <v>31</v>
@@ -7400,40 +7425,40 @@
         <v>45359</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D84" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A27_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A26_MC</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N84" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O84" s="18" t="s">
-        <v>80</v>
+      <c r="O84" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P84" s="20" t="s">
         <v>31</v>
@@ -7442,7 +7467,7 @@
         <v>31</v>
       </c>
       <c r="R84" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S84" s="20" t="s">
         <v>31</v>
@@ -7471,40 +7496,40 @@
         <v>45359</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D85" s="19">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A28_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A26_DC</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N85" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O85" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P85" s="20" t="s">
         <v>31</v>
@@ -7513,7 +7538,7 @@
         <v>31</v>
       </c>
       <c r="R85" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S85" s="20" t="s">
         <v>31</v>
@@ -7542,40 +7567,40 @@
         <v>45359</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D86" s="19">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A28_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A27_MC</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N86" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O86" s="31" t="s">
-        <v>80</v>
+      <c r="O86" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P86" s="20" t="s">
         <v>31</v>
@@ -7584,7 +7609,7 @@
         <v>31</v>
       </c>
       <c r="R86" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S86" s="20" t="s">
         <v>31</v>
@@ -7613,40 +7638,40 @@
         <v>45359</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D87" s="19">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A29_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A27_DC</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N87" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O87" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P87" s="20" t="s">
         <v>31</v>
@@ -7655,7 +7680,7 @@
         <v>31</v>
       </c>
       <c r="R87" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S87" s="20" t="s">
         <v>31</v>
@@ -7684,40 +7709,40 @@
         <v>45359</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D88" s="19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A29_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A28_MC</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N88" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O88" s="18" t="s">
-        <v>80</v>
+      <c r="O88" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P88" s="20" t="s">
         <v>31</v>
@@ -7726,7 +7751,7 @@
         <v>31</v>
       </c>
       <c r="R88" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S88" s="20" t="s">
         <v>31</v>
@@ -7755,40 +7780,40 @@
         <v>45359</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D89" s="19">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A30_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A28_DC</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N89" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O89" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P89" s="20" t="s">
         <v>31</v>
@@ -7797,7 +7822,7 @@
         <v>31</v>
       </c>
       <c r="R89" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S89" s="20" t="s">
         <v>31</v>
@@ -7826,40 +7851,40 @@
         <v>45359</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D90" s="19">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A30_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A29_MC</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N90" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O90" s="31" t="s">
-        <v>80</v>
+      <c r="O90" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P90" s="20" t="s">
         <v>31</v>
@@ -7868,7 +7893,7 @@
         <v>31</v>
       </c>
       <c r="R90" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S90" s="20" t="s">
         <v>31</v>
@@ -7897,40 +7922,40 @@
         <v>45359</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D91" s="19">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A31_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A29_DC</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N91" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O91" s="31" t="s">
-        <v>80</v>
+      <c r="O91" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P91" s="20" t="s">
         <v>31</v>
@@ -7939,7 +7964,7 @@
         <v>31</v>
       </c>
       <c r="R91" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S91" s="20" t="s">
         <v>31</v>
@@ -7968,40 +7993,40 @@
         <v>45359</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="D92" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A31_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A30_MC</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N92" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O92" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P92" s="20" t="s">
         <v>31</v>
@@ -8010,7 +8035,7 @@
         <v>31</v>
       </c>
       <c r="R92" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S92" s="20" t="s">
         <v>31</v>
@@ -8039,40 +8064,40 @@
         <v>45359</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D93" s="19">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A32_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A30_DC</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N93" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O93" s="18" t="s">
-        <v>80</v>
+      <c r="O93" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P93" s="20" t="s">
         <v>31</v>
@@ -8081,7 +8106,7 @@
         <v>31</v>
       </c>
       <c r="R93" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S93" s="20" t="s">
         <v>31</v>
@@ -8110,40 +8135,40 @@
         <v>45359</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="D94" s="19">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A32_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A31_MC</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="N94" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O94" s="18" t="s">
-        <v>80</v>
+      <c r="O94" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P94" s="20" t="s">
         <v>31</v>
@@ -8152,7 +8177,7 @@
         <v>31</v>
       </c>
       <c r="R94" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S94" s="20" t="s">
         <v>31</v>
@@ -8181,40 +8206,40 @@
         <v>45359</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D95" s="19">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A33_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A31_DC</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N95" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O95" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P95" s="20" t="s">
         <v>31</v>
@@ -8223,7 +8248,7 @@
         <v>31</v>
       </c>
       <c r="R95" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S95" s="20" t="s">
         <v>31</v>
@@ -8252,40 +8277,40 @@
         <v>45359</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D96" s="19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A33_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A32_MC</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N96" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O96" s="31" t="s">
-        <v>80</v>
+      <c r="O96" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P96" s="20" t="s">
         <v>31</v>
@@ -8294,7 +8319,7 @@
         <v>31</v>
       </c>
       <c r="R96" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S96" s="20" t="s">
         <v>31</v>
@@ -8323,40 +8348,40 @@
         <v>45359</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D97" s="19">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A34_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A32_DC</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N97" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O97" s="31" t="s">
-        <v>80</v>
+      <c r="O97" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P97" s="20" t="s">
         <v>31</v>
@@ -8365,7 +8390,7 @@
         <v>31</v>
       </c>
       <c r="R97" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S97" s="20" t="s">
         <v>31</v>
@@ -8394,40 +8419,40 @@
         <v>45359</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D98" s="19">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A34_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A33_MC</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N98" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O98" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P98" s="20" t="s">
         <v>31</v>
@@ -8436,7 +8461,7 @@
         <v>31</v>
       </c>
       <c r="R98" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S98" s="20" t="s">
         <v>31</v>
@@ -8465,40 +8490,40 @@
         <v>45359</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D99" s="19">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A35_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A33_DC</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N99" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O99" s="18" t="s">
-        <v>80</v>
+      <c r="O99" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P99" s="20" t="s">
         <v>31</v>
@@ -8507,7 +8532,7 @@
         <v>31</v>
       </c>
       <c r="R99" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S99" s="20" t="s">
         <v>31</v>
@@ -8536,40 +8561,40 @@
         <v>45359</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D100" s="19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A35_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A34_MC</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N100" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O100" s="18" t="s">
-        <v>80</v>
+      <c r="O100" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="P100" s="20" t="s">
         <v>31</v>
@@ -8578,7 +8603,7 @@
         <v>31</v>
       </c>
       <c r="R100" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S100" s="20" t="s">
         <v>31</v>
@@ -8607,40 +8632,40 @@
         <v>45359</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D101" s="19">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A36_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A34_DC</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N101" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O101" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P101" s="20" t="s">
         <v>31</v>
@@ -8649,7 +8674,7 @@
         <v>31</v>
       </c>
       <c r="R101" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S101" s="20" t="s">
         <v>31</v>
@@ -8678,40 +8703,40 @@
         <v>45359</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D102" s="19">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A36_DC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A35_MC</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N102" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O102" s="31" t="s">
-        <v>80</v>
+      <c r="O102" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P102" s="20" t="s">
         <v>31</v>
@@ -8720,7 +8745,7 @@
         <v>31</v>
       </c>
       <c r="R102" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S102" s="20" t="s">
         <v>31</v>
@@ -8749,40 +8774,40 @@
         <v>45359</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D103" s="19">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Triso_twin_sim_4_FMF_UK_A37_MC</v>
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A35_DC</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="K103" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N103" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O103" s="20" t="s">
-        <v>80</v>
+        <v>120</v>
+      </c>
+      <c r="N103" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O103" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="P103" s="20" t="s">
         <v>31</v>
@@ -8790,8 +8815,8 @@
       <c r="Q103" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R103" s="20" t="s">
-        <v>91</v>
+      <c r="R103" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="S103" s="20" t="s">
         <v>31</v>
@@ -8813,81 +8838,294 @@
       <c r="Z103" s="19"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A104" s="28">
+      <c r="A104" s="27">
         <v>45356</v>
       </c>
-      <c r="B104" s="28">
+      <c r="B104" s="27">
         <v>45359</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D104" s="15">
+      <c r="C104" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" s="19">
+        <v>16</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A36_MC</v>
+      </c>
+      <c r="I104" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K104" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N104" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O104" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P104" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q104" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R104" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S104" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T104" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U104" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V104" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W104" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X104" s="19"/>
+      <c r="Y104" s="19"/>
+      <c r="Z104" s="19"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" s="27">
+        <v>45356</v>
+      </c>
+      <c r="B105" s="27">
+        <v>45359</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" s="19">
+        <v>16</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A36_DC</v>
+      </c>
+      <c r="I105" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K105" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N105" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O105" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P105" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q105" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R105" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S105" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T105" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U105" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V105" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W105" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X105" s="19"/>
+      <c r="Y105" s="19"/>
+      <c r="Z105" s="19"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106" s="27">
+        <v>45356</v>
+      </c>
+      <c r="B106" s="27">
+        <v>45359</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" s="19">
         <v>17</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="6" t="str">
-        <f t="shared" ref="H104" si="3">F104&amp;"_"&amp;C104</f>
+      <c r="E106" s="5"/>
+      <c r="F106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A37_MC</v>
+      </c>
+      <c r="I106" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N106" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O106" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P106" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q106" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R106" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S106" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T106" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U106" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V106" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W106" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X106" s="19"/>
+      <c r="Y106" s="19"/>
+      <c r="Z106" s="19"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" s="28">
+        <v>45356</v>
+      </c>
+      <c r="B107" s="28">
+        <v>45359</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="15">
+        <v>17</v>
+      </c>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="6" t="str">
+        <f t="shared" ref="H107" si="4">F107&amp;"_"&amp;C107</f>
         <v>Triso_twin_sim_4_FMF_UK_A37_DC</v>
       </c>
-      <c r="I104" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M104" s="6" t="s">
+      <c r="I107" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="N104" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O104" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P104" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q104" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R104" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="S104" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T104" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U104" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V104" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W104" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X104" s="15"/>
-      <c r="Y104" s="15"/>
-      <c r="Z104" s="15"/>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="1"/>
+      <c r="J107" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N107" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O107" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P107" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q107" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R107" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="S107" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T107" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U107" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V107" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W107" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="15"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8912,119 +9150,119 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -1396,11 +1396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D59CA7-78DE-483F-8DC5-D261426A3AA3}">
   <dimension ref="A1:AL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C448BCC-77D1-4A33-AA70-CEF039ACCD98}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58A02337-A6C5-4DC2-9E22-472E410D2336}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
@@ -964,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1028,8 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,11 +1394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D59CA7-78DE-483F-8DC5-D261426A3AA3}">
   <dimension ref="A1:AL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2069,7 @@
       <c r="Q9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="S9" s="2" t="s">
@@ -2150,7 +2148,7 @@
       <c r="Q10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="S10" s="20" t="s">
@@ -2227,7 +2225,7 @@
       <c r="Q11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="20" t="s">
         <v>37</v>
       </c>
       <c r="S11" s="20" t="s">
@@ -2537,7 +2535,7 @@
       <c r="O15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="37" t="s">
         <v>241</v>
       </c>
       <c r="Q15" s="20" t="s">
@@ -2546,7 +2544,7 @@
       <c r="R15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="20" t="s">
         <v>31</v>
       </c>
       <c r="T15" s="20" t="s">
@@ -2619,7 +2617,7 @@
       <c r="R16" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="37" t="s">
+      <c r="S16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T16" s="20" t="s">
@@ -2768,7 +2766,7 @@
       <c r="O18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="37" t="s">
         <v>241</v>
       </c>
       <c r="Q18" s="20" t="s">

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\OneDrive\Dokumente\Career\Freelance\_Kunden\BRAHMS\2024 - FSP\fsp_validation\FSP_Exchange\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58A02337-A6C5-4DC2-9E22-472E410D2336}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA2313-BEC1-4E64-9016-914F5FE7E831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="244">
   <si>
     <t>Analysis</t>
   </si>
@@ -1031,7 +1031,7 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1096,9 +1096,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1136,7 +1136,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1242,7 +1242,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1384,7 +1384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1395,42 +1395,42 @@
   <dimension ref="A1:AL124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" customWidth="1"/>
-    <col min="23" max="23" width="31.7109375" customWidth="1"/>
-    <col min="24" max="24" width="21.85546875" customWidth="1"/>
-    <col min="25" max="26" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.68359375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.26171875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.578125" customWidth="1"/>
+    <col min="4" max="4" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.68359375" customWidth="1"/>
+    <col min="8" max="8" width="37.26171875" customWidth="1"/>
+    <col min="9" max="9" width="10.83984375" customWidth="1"/>
+    <col min="10" max="10" width="12.15625" customWidth="1"/>
+    <col min="11" max="11" width="15.68359375" customWidth="1"/>
+    <col min="12" max="12" width="33.41796875" customWidth="1"/>
+    <col min="13" max="13" width="28.41796875" customWidth="1"/>
+    <col min="14" max="14" width="23.15625" customWidth="1"/>
+    <col min="15" max="15" width="13.41796875" customWidth="1"/>
+    <col min="16" max="16" width="12.68359375" customWidth="1"/>
+    <col min="17" max="17" width="21.41796875" customWidth="1"/>
+    <col min="18" max="18" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.41796875" customWidth="1"/>
+    <col min="20" max="20" width="22.68359375" customWidth="1"/>
+    <col min="21" max="21" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.83984375" customWidth="1"/>
+    <col min="23" max="23" width="31.68359375" customWidth="1"/>
+    <col min="24" max="24" width="21.83984375" customWidth="1"/>
+    <col min="25" max="26" width="21.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="Y1" s="35"/>
       <c r="Z1" s="35"/>
     </row>
-    <row r="2" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27">
         <v>45334</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27">
         <v>45334</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27">
         <v>45334</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27">
         <v>45334</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27">
         <v>45334</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28">
         <v>45334</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27">
         <v>45334</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27">
         <v>45334</v>
       </c>
@@ -2154,7 +2154,9 @@
       <c r="S10" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="T10" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="U10" s="31" t="s">
         <v>31</v>
       </c>
@@ -2174,7 +2176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27">
         <v>45334</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28">
         <v>45334</v>
       </c>
@@ -2332,7 +2334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27">
         <v>45334</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27">
         <v>45334</v>
       </c>
@@ -2490,7 +2492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27">
         <v>45334</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27">
         <v>45334</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27">
         <v>45334</v>
       </c>
@@ -2721,7 +2723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27">
         <v>45334</v>
       </c>
@@ -2794,7 +2796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28">
         <v>45334</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27">
         <v>45343</v>
       </c>
@@ -2944,7 +2946,7 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28">
         <v>45343</v>
       </c>
@@ -3015,7 +3017,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="27">
         <v>45343</v>
       </c>
@@ -3086,7 +3088,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27">
         <v>45343</v>
       </c>
@@ -3157,7 +3159,7 @@
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27">
         <v>45343</v>
       </c>
@@ -3228,7 +3230,7 @@
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27">
         <v>45343</v>
       </c>
@@ -3299,7 +3301,7 @@
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="27">
         <v>45343</v>
       </c>
@@ -3370,7 +3372,7 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="27">
         <v>45343</v>
       </c>
@@ -3439,7 +3441,7 @@
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="27">
         <v>45343</v>
       </c>
@@ -3508,7 +3510,7 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27">
         <v>45343</v>
       </c>
@@ -3579,7 +3581,7 @@
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="27">
         <v>45343</v>
       </c>
@@ -3650,7 +3652,7 @@
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="27">
         <v>45343</v>
       </c>
@@ -3721,7 +3723,7 @@
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="27">
         <v>45343</v>
       </c>
@@ -3792,7 +3794,7 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="27">
         <v>45343</v>
       </c>
@@ -3863,7 +3865,7 @@
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="28">
         <v>45343</v>
       </c>
@@ -3934,7 +3936,7 @@
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="27">
         <v>45348</v>
       </c>
@@ -4005,7 +4007,7 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="27">
         <v>45348</v>
       </c>
@@ -4076,7 +4078,7 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="27">
         <v>45348</v>
       </c>
@@ -4147,7 +4149,7 @@
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="27">
         <v>45348</v>
       </c>
@@ -4218,7 +4220,7 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="27">
         <v>45348</v>
       </c>
@@ -4289,7 +4291,7 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="27">
         <v>45348</v>
       </c>
@@ -4360,7 +4362,7 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="27">
         <v>45348</v>
       </c>
@@ -4431,7 +4433,7 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="27">
         <v>45348</v>
       </c>
@@ -4502,7 +4504,7 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="27">
         <v>45348</v>
       </c>
@@ -4573,7 +4575,7 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="27">
         <v>45348</v>
       </c>
@@ -4644,7 +4646,7 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="27">
         <v>45348</v>
       </c>
@@ -4715,7 +4717,7 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="27">
         <v>45348</v>
       </c>
@@ -4786,7 +4788,7 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="27">
         <v>45348</v>
       </c>
@@ -4857,7 +4859,7 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="27">
         <v>45348</v>
       </c>
@@ -4928,7 +4930,7 @@
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="27">
         <v>45348</v>
       </c>
@@ -4999,7 +5001,7 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="27">
         <v>45348</v>
       </c>
@@ -5070,7 +5072,7 @@
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="27">
         <v>45348</v>
       </c>
@@ -5142,7 +5144,7 @@
       <c r="Z51" s="19"/>
       <c r="AL51" s="33"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="28">
         <v>45348</v>
       </c>
@@ -5214,7 +5216,7 @@
       <c r="Z52" s="19"/>
       <c r="AL52" s="33"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="27">
         <v>45356</v>
       </c>
@@ -5285,7 +5287,7 @@
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="27">
         <v>45356</v>
       </c>
@@ -5356,7 +5358,7 @@
       <c r="Y54" s="19"/>
       <c r="Z54" s="19"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="27">
         <v>45356</v>
       </c>
@@ -5427,7 +5429,7 @@
       <c r="Y55" s="19"/>
       <c r="Z55" s="19"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="27">
         <v>45356</v>
       </c>
@@ -5498,7 +5500,7 @@
       <c r="Y56" s="19"/>
       <c r="Z56" s="19"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="27">
         <v>45356</v>
       </c>
@@ -5569,7 +5571,7 @@
       <c r="Y57" s="19"/>
       <c r="Z57" s="19"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="27">
         <v>45356</v>
       </c>
@@ -5640,7 +5642,7 @@
       <c r="Y58" s="19"/>
       <c r="Z58" s="19"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="27">
         <v>45356</v>
       </c>
@@ -5711,7 +5713,7 @@
       <c r="Y59" s="19"/>
       <c r="Z59" s="19"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="27">
         <v>45356</v>
       </c>
@@ -5782,7 +5784,7 @@
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="27">
         <v>45356</v>
       </c>
@@ -5853,7 +5855,7 @@
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="27">
         <v>45356</v>
       </c>
@@ -5924,7 +5926,7 @@
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="27">
         <v>45356</v>
       </c>
@@ -5995,7 +5997,7 @@
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="27">
         <v>45356</v>
       </c>
@@ -6066,7 +6068,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="27">
         <v>45356</v>
       </c>
@@ -6137,7 +6139,7 @@
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="27">
         <v>45356</v>
       </c>
@@ -6208,7 +6210,7 @@
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="27">
         <v>45356</v>
       </c>
@@ -6279,7 +6281,7 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="27">
         <v>45356</v>
       </c>
@@ -6350,7 +6352,7 @@
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="27">
         <v>45356</v>
       </c>
@@ -6421,7 +6423,7 @@
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="27">
         <v>45356</v>
       </c>
@@ -6492,7 +6494,7 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="27">
         <v>45356</v>
       </c>
@@ -6563,7 +6565,7 @@
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="27">
         <v>45356</v>
       </c>
@@ -6634,7 +6636,7 @@
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="27">
         <v>45356</v>
       </c>
@@ -6705,7 +6707,7 @@
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="27">
         <v>45356</v>
       </c>
@@ -6776,7 +6778,7 @@
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="27">
         <v>45356</v>
       </c>
@@ -6847,7 +6849,7 @@
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="27">
         <v>45356</v>
       </c>
@@ -6918,7 +6920,7 @@
       <c r="Y76" s="19"/>
       <c r="Z76" s="19"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="27">
         <v>45356</v>
       </c>
@@ -6989,7 +6991,7 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="27">
         <v>45356</v>
       </c>
@@ -7060,7 +7062,7 @@
       <c r="Y78" s="19"/>
       <c r="Z78" s="19"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="27">
         <v>45356</v>
       </c>
@@ -7131,7 +7133,7 @@
       <c r="Y79" s="19"/>
       <c r="Z79" s="19"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="27">
         <v>45356</v>
       </c>
@@ -7202,7 +7204,7 @@
       <c r="Y80" s="19"/>
       <c r="Z80" s="19"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="27">
         <v>45356</v>
       </c>
@@ -7273,7 +7275,7 @@
       <c r="Y81" s="19"/>
       <c r="Z81" s="19"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="27">
         <v>45356</v>
       </c>
@@ -7344,7 +7346,7 @@
       <c r="Y82" s="19"/>
       <c r="Z82" s="19"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="27">
         <v>45356</v>
       </c>
@@ -7415,7 +7417,7 @@
       <c r="Y83" s="19"/>
       <c r="Z83" s="19"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="27">
         <v>45356</v>
       </c>
@@ -7486,7 +7488,7 @@
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="27">
         <v>45356</v>
       </c>
@@ -7557,7 +7559,7 @@
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="27">
         <v>45356</v>
       </c>
@@ -7628,7 +7630,7 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="27">
         <v>45356</v>
       </c>
@@ -7699,7 +7701,7 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="27">
         <v>45356</v>
       </c>
@@ -7770,7 +7772,7 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="27">
         <v>45356</v>
       </c>
@@ -7841,7 +7843,7 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="27">
         <v>45356</v>
       </c>
@@ -7912,7 +7914,7 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="27">
         <v>45356</v>
       </c>
@@ -7983,7 +7985,7 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="27">
         <v>45356</v>
       </c>
@@ -8054,7 +8056,7 @@
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="27">
         <v>45356</v>
       </c>
@@ -8125,7 +8127,7 @@
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="27">
         <v>45356</v>
       </c>
@@ -8196,7 +8198,7 @@
       <c r="Y94" s="19"/>
       <c r="Z94" s="19"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="27">
         <v>45356</v>
       </c>
@@ -8267,7 +8269,7 @@
       <c r="Y95" s="19"/>
       <c r="Z95" s="19"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="27">
         <v>45356</v>
       </c>
@@ -8338,7 +8340,7 @@
       <c r="Y96" s="19"/>
       <c r="Z96" s="19"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="27">
         <v>45356</v>
       </c>
@@ -8409,7 +8411,7 @@
       <c r="Y97" s="19"/>
       <c r="Z97" s="19"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="27">
         <v>45356</v>
       </c>
@@ -8480,7 +8482,7 @@
       <c r="Y98" s="19"/>
       <c r="Z98" s="19"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="27">
         <v>45356</v>
       </c>
@@ -8551,7 +8553,7 @@
       <c r="Y99" s="19"/>
       <c r="Z99" s="19"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="27">
         <v>45356</v>
       </c>
@@ -8622,7 +8624,7 @@
       <c r="Y100" s="19"/>
       <c r="Z100" s="19"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="27">
         <v>45356</v>
       </c>
@@ -8693,7 +8695,7 @@
       <c r="Y101" s="19"/>
       <c r="Z101" s="19"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="27">
         <v>45356</v>
       </c>
@@ -8764,7 +8766,7 @@
       <c r="Y102" s="19"/>
       <c r="Z102" s="19"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="27">
         <v>45356</v>
       </c>
@@ -8835,7 +8837,7 @@
       <c r="Y103" s="19"/>
       <c r="Z103" s="19"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="27">
         <v>45356</v>
       </c>
@@ -8906,7 +8908,7 @@
       <c r="Y104" s="19"/>
       <c r="Z104" s="19"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="27">
         <v>45356</v>
       </c>
@@ -8977,7 +8979,7 @@
       <c r="Y105" s="19"/>
       <c r="Z105" s="19"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="27">
         <v>45356</v>
       </c>
@@ -9048,7 +9050,7 @@
       <c r="Y106" s="19"/>
       <c r="Z106" s="19"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="28">
         <v>45356</v>
       </c>
@@ -9119,10 +9121,10 @@
       <c r="Y107" s="15"/>
       <c r="Z107" s="15"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D124" s="1"/>
     </row>
   </sheetData>
@@ -9139,14 +9141,14 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.26171875" customWidth="1"/>
+    <col min="2" max="2" width="19.578125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -9160,7 +9162,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -9174,7 +9176,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -9188,7 +9190,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>162</v>
       </c>
@@ -9202,7 +9204,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -9216,7 +9218,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
@@ -9230,7 +9232,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -9244,7 +9246,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>169</v>
       </c>
@@ -9258,7 +9260,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>171</v>
       </c>

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\OneDrive\Dokumente\Career\Freelance\_Kunden\BRAHMS\2024 - FSP\fsp_validation\FSP_Exchange\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA2313-BEC1-4E64-9016-914F5FE7E831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC3664A-D6A9-4D68-A67B-8EC85620F36D}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="246">
   <si>
     <t>Analysis</t>
   </si>
@@ -423,9 +423,6 @@
     <t>AFP, hCGß, uE3, InhibinA</t>
   </si>
   <si>
-    <t>4_FMF_UK_A1</t>
-  </si>
-  <si>
     <t>12T_Triso_ T21</t>
   </si>
   <si>
@@ -769,6 +766,15 @@
   </si>
   <si>
     <t>7_FMF_UK_A4b</t>
+  </si>
+  <si>
+    <t>4_FMF_UK_A1a</t>
+  </si>
+  <si>
+    <t>4_FMF_UK_A1b</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -964,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1029,9 +1035,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1096,9 +1112,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1136,7 +1152,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1242,7 +1258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1384,7 +1400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1392,45 +1408,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D59CA7-78DE-483F-8DC5-D261426A3AA3}">
-  <dimension ref="A1:AL124"/>
+  <dimension ref="A1:AL125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.26171875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.578125" customWidth="1"/>
-    <col min="4" max="4" width="5.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.41796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.68359375" customWidth="1"/>
-    <col min="8" max="8" width="37.26171875" customWidth="1"/>
-    <col min="9" max="9" width="10.83984375" customWidth="1"/>
-    <col min="10" max="10" width="12.15625" customWidth="1"/>
-    <col min="11" max="11" width="15.68359375" customWidth="1"/>
-    <col min="12" max="12" width="33.41796875" customWidth="1"/>
-    <col min="13" max="13" width="28.41796875" customWidth="1"/>
-    <col min="14" max="14" width="23.15625" customWidth="1"/>
-    <col min="15" max="15" width="13.41796875" customWidth="1"/>
-    <col min="16" max="16" width="12.68359375" customWidth="1"/>
-    <col min="17" max="17" width="21.41796875" customWidth="1"/>
-    <col min="18" max="18" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.41796875" customWidth="1"/>
-    <col min="20" max="20" width="22.68359375" customWidth="1"/>
-    <col min="21" max="21" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83984375" customWidth="1"/>
-    <col min="23" max="23" width="31.68359375" customWidth="1"/>
-    <col min="24" max="24" width="21.83984375" customWidth="1"/>
-    <col min="25" max="26" width="21.26171875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="31.7109375" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" customWidth="1"/>
+    <col min="25" max="26" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1480,7 @@
       <c r="Y1" s="35"/>
       <c r="Z1" s="35"/>
     </row>
-    <row r="2" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
@@ -1535,16 +1551,16 @@
         <v>25</v>
       </c>
       <c r="X2" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y2" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Z2" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="Z2" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>45334</v>
       </c>
@@ -1562,7 +1578,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>F3&amp;"_"&amp;C3</f>
@@ -1623,7 +1639,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>45334</v>
       </c>
@@ -1641,7 +1657,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" ref="H4:H19" si="0">F4&amp;"_"&amp;C4</f>
@@ -1702,7 +1718,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>45334</v>
       </c>
@@ -1720,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1781,7 +1797,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45334</v>
       </c>
@@ -1850,17 +1866,17 @@
       <c r="W6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="19" t="s">
-        <v>235</v>
+      <c r="X6" s="38">
+        <v>109</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Z6" s="19">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>45334</v>
       </c>
@@ -1929,17 +1945,17 @@
       <c r="W7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="19" t="s">
-        <v>235</v>
+      <c r="X7" s="38">
+        <v>109</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Z7" s="19">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>45334</v>
       </c>
@@ -2008,17 +2024,17 @@
       <c r="W8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="15" t="s">
-        <v>235</v>
+      <c r="X8" s="39">
+        <v>109</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Z8" s="15">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>45334</v>
       </c>
@@ -2026,14 +2042,14 @@
         <v>45337</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>50</v>
@@ -2097,7 +2113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>45334</v>
       </c>
@@ -2105,14 +2121,14 @@
         <v>45337</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="24">
         <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>50</v>
@@ -2143,7 +2159,7 @@
         <v>32</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="20" t="s">
         <v>31</v>
@@ -2176,7 +2192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>45334</v>
       </c>
@@ -2191,7 +2207,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>56</v>
@@ -2222,7 +2238,7 @@
         <v>32</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="20" t="s">
         <v>31</v>
@@ -2255,7 +2271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45334</v>
       </c>
@@ -2270,7 +2286,7 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>59</v>
@@ -2334,7 +2350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>45334</v>
       </c>
@@ -2349,7 +2365,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>62</v>
@@ -2413,7 +2429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>45334</v>
       </c>
@@ -2421,14 +2437,14 @@
         <v>45337</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="24">
         <v>2</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>67</v>
@@ -2492,7 +2508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>45334</v>
       </c>
@@ -2500,14 +2516,14 @@
         <v>45337</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" s="24">
         <v>2</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>67</v>
@@ -2538,7 +2554,7 @@
         <v>65</v>
       </c>
       <c r="P15" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q15" s="20" t="s">
         <v>31</v>
@@ -2552,9 +2568,15 @@
       <c r="T15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="31"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
+      <c r="U15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="X15" s="19">
         <v>47</v>
       </c>
@@ -2565,7 +2587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>45334</v>
       </c>
@@ -2580,7 +2602,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>69</v>
@@ -2644,7 +2666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>45334</v>
       </c>
@@ -2652,14 +2674,14 @@
         <v>45337</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D17" s="24">
         <v>12</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>70</v>
@@ -2723,7 +2745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>45334</v>
       </c>
@@ -2731,14 +2753,14 @@
         <v>45337</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="24">
         <v>12</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>70</v>
@@ -2769,7 +2791,7 @@
         <v>65</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q18" s="20" t="s">
         <v>31</v>
@@ -2783,9 +2805,15 @@
       <c r="T18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="31"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
+      <c r="U18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="X18" s="19">
         <v>47</v>
       </c>
@@ -2796,7 +2824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45334</v>
       </c>
@@ -2811,7 +2839,7 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>72</v>
@@ -2875,7 +2903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>45343</v>
       </c>
@@ -2946,7 +2974,7 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45343</v>
       </c>
@@ -3017,7 +3045,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>45343</v>
       </c>
@@ -3036,7 +3064,7 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="2" t="str">
-        <f t="shared" ref="H22:H106" si="3">F22&amp;"_"&amp;C22</f>
+        <f t="shared" ref="H22:H107" si="3">F22&amp;"_"&amp;C22</f>
         <v>1T_Triso_2_FMF_UK_A1</v>
       </c>
       <c r="I22" s="11">
@@ -3088,7 +3116,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>45343</v>
       </c>
@@ -3159,7 +3187,7 @@
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>45343</v>
       </c>
@@ -3230,7 +3258,7 @@
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>45343</v>
       </c>
@@ -3301,7 +3329,7 @@
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>45343</v>
       </c>
@@ -3372,7 +3400,7 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>45343</v>
       </c>
@@ -3441,7 +3469,7 @@
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>45343</v>
       </c>
@@ -3510,7 +3538,7 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>45343</v>
       </c>
@@ -3581,7 +3609,7 @@
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>45343</v>
       </c>
@@ -3652,7 +3680,7 @@
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>45343</v>
       </c>
@@ -3660,14 +3688,14 @@
         <v>45348</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" s="19">
         <v>2</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="2" t="str">
@@ -3723,7 +3751,7 @@
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>45343</v>
       </c>
@@ -3731,14 +3759,14 @@
         <v>45348</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32" s="19">
         <v>2</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="2" t="str">
@@ -3794,7 +3822,7 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>45343</v>
       </c>
@@ -3802,14 +3830,14 @@
         <v>45348</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" s="19">
         <v>10</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="2" t="str">
@@ -3865,7 +3893,7 @@
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45343</v>
       </c>
@@ -3873,14 +3901,14 @@
         <v>45348</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34" s="19">
         <v>10</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="6" t="str">
@@ -3936,7 +3964,7 @@
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>45348</v>
       </c>
@@ -4007,7 +4035,7 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>45348</v>
       </c>
@@ -4078,7 +4106,7 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>45348</v>
       </c>
@@ -4149,7 +4177,7 @@
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>45348</v>
       </c>
@@ -4220,7 +4248,7 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>45348</v>
       </c>
@@ -4291,7 +4319,7 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>45348</v>
       </c>
@@ -4362,7 +4390,7 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>45348</v>
       </c>
@@ -4370,14 +4398,14 @@
         <v>45351</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D41" s="19">
         <v>8</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="2" t="str">
@@ -4433,7 +4461,7 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>45348</v>
       </c>
@@ -4441,14 +4469,14 @@
         <v>45351</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D42" s="19">
         <v>8</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="2" t="str">
@@ -4504,7 +4532,7 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>45348</v>
       </c>
@@ -4512,14 +4540,14 @@
         <v>45351</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D43" s="19">
         <v>9</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="2" t="str">
@@ -4575,7 +4603,7 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>45348</v>
       </c>
@@ -4583,14 +4611,14 @@
         <v>45351</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D44" s="19">
         <v>9</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="2" t="str">
@@ -4646,7 +4674,7 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>45348</v>
       </c>
@@ -4654,14 +4682,14 @@
         <v>45351</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D45" s="19">
         <v>11</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="2" t="str">
@@ -4717,7 +4745,7 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>45348</v>
       </c>
@@ -4725,14 +4753,14 @@
         <v>45351</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D46" s="19">
         <v>11</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="2" t="str">
@@ -4788,7 +4816,7 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>45348</v>
       </c>
@@ -4796,14 +4824,14 @@
         <v>45351</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D47" s="19">
         <v>12</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="2" t="str">
@@ -4859,7 +4887,7 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>45348</v>
       </c>
@@ -4867,14 +4895,14 @@
         <v>45351</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D48" s="19">
         <v>12</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="2" t="str">
@@ -4930,7 +4958,7 @@
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>45348</v>
       </c>
@@ -4938,14 +4966,14 @@
         <v>45351</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D49" s="19">
         <v>4</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="2" t="str">
@@ -5001,7 +5029,7 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>45348</v>
       </c>
@@ -5009,14 +5037,14 @@
         <v>45351</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D50" s="19">
         <v>4</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="2" t="str">
@@ -5072,7 +5100,7 @@
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>45348</v>
       </c>
@@ -5080,14 +5108,14 @@
         <v>45351</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D51" s="19">
         <v>10</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="2" t="str">
@@ -5144,7 +5172,7 @@
       <c r="Z51" s="19"/>
       <c r="AL51" s="33"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45348</v>
       </c>
@@ -5152,14 +5180,14 @@
         <v>45351</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52" s="19">
         <v>10</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="6" t="str">
@@ -5216,7 +5244,7 @@
       <c r="Z52" s="19"/>
       <c r="AL52" s="33"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>45356</v>
       </c>
@@ -5224,31 +5252,31 @@
         <v>45359</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>12T_Triso_ T21_4_FMF_UK_A1</v>
+        <v>12T_Triso_ T21_4_FMF_UK_A1a</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>28</v>
       </c>
       <c r="K53" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>111</v>
@@ -5287,54 +5315,54 @@
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>45356</v>
       </c>
       <c r="B54" s="27">
         <v>45359</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="19">
-        <v>2</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" s="5"/>
+      <c r="C54" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D54" s="41">
+        <v>1</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="40"/>
       <c r="H54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A2</v>
+        <v>12T_Triso_ T21_4_FMF_UK_A1b</v>
       </c>
       <c r="I54" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K54" s="18" t="s">
+      <c r="L54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N54" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O54" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="P54" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q54" s="20" t="s">
-        <v>31</v>
+      <c r="P54" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="R54" s="31" t="s">
         <v>88</v>
@@ -5354,11 +5382,11 @@
       <c r="W54" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19"/>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>45356</v>
       </c>
@@ -5366,10 +5394,10 @@
         <v>45359</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D55" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="2" t="s">
@@ -5378,27 +5406,27 @@
       <c r="G55" s="5"/>
       <c r="H55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A3</v>
+        <v>Triso_single_sim_4_FMF_UK_A2</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K55" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M55" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N55" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="N55" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="20" t="s">
         <v>77</v>
       </c>
       <c r="P55" s="20" t="s">
@@ -5429,7 +5457,7 @@
       <c r="Y55" s="19"/>
       <c r="Z55" s="19"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>45356</v>
       </c>
@@ -5437,10 +5465,10 @@
         <v>45359</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D56" s="19">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="2" t="s">
@@ -5449,27 +5477,27 @@
       <c r="G56" s="5"/>
       <c r="H56" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A4</v>
+        <v>Triso_single_sim_4_FMF_UK_A3</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K56" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N56" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O56" s="18" t="s">
+      <c r="O56" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P56" s="20" t="s">
@@ -5500,7 +5528,7 @@
       <c r="Y56" s="19"/>
       <c r="Z56" s="19"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>45356</v>
       </c>
@@ -5508,10 +5536,10 @@
         <v>45359</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D57" s="19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="2" t="s">
@@ -5520,27 +5548,27 @@
       <c r="G57" s="5"/>
       <c r="H57" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A5</v>
+        <v>Triso_single_sim_4_FMF_UK_A4</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K57" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M57" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N57" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O57" s="31" t="s">
+      <c r="O57" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P57" s="20" t="s">
@@ -5571,7 +5599,7 @@
       <c r="Y57" s="19"/>
       <c r="Z57" s="19"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>45356</v>
       </c>
@@ -5579,10 +5607,10 @@
         <v>45359</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D58" s="19">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="2" t="s">
@@ -5591,22 +5619,22 @@
       <c r="G58" s="5"/>
       <c r="H58" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A6</v>
+        <v>Triso_single_sim_4_FMF_UK_A5</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K58" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N58" s="20" t="s">
         <v>31</v>
@@ -5642,7 +5670,7 @@
       <c r="Y58" s="19"/>
       <c r="Z58" s="19"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>45356</v>
       </c>
@@ -5650,10 +5678,10 @@
         <v>45359</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D59" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="2" t="s">
@@ -5662,27 +5690,27 @@
       <c r="G59" s="5"/>
       <c r="H59" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A7</v>
+        <v>Triso_single_sim_4_FMF_UK_A6</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K59" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M59" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N59" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O59" s="18" t="s">
+      <c r="O59" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P59" s="20" t="s">
@@ -5713,7 +5741,7 @@
       <c r="Y59" s="19"/>
       <c r="Z59" s="19"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>45356</v>
       </c>
@@ -5721,10 +5749,10 @@
         <v>45359</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" s="19">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="2" t="s">
@@ -5733,27 +5761,27 @@
       <c r="G60" s="5"/>
       <c r="H60" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A8</v>
+        <v>Triso_single_sim_4_FMF_UK_A7</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K60" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="M60" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="N60" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O60" s="31" t="s">
+      <c r="O60" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P60" s="20" t="s">
@@ -5784,7 +5812,7 @@
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>45356</v>
       </c>
@@ -5792,10 +5820,10 @@
         <v>45359</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D61" s="19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="2" t="s">
@@ -5804,22 +5832,22 @@
       <c r="G61" s="5"/>
       <c r="H61" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A9</v>
+        <v>Triso_single_sim_4_FMF_UK_A8</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N61" s="20" t="s">
         <v>31</v>
@@ -5855,7 +5883,7 @@
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>45356</v>
       </c>
@@ -5863,10 +5891,10 @@
         <v>45359</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D62" s="19">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="2" t="s">
@@ -5875,27 +5903,27 @@
       <c r="G62" s="5"/>
       <c r="H62" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A10</v>
+        <v>Triso_single_sim_4_FMF_UK_A9</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N62" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O62" s="18" t="s">
+      <c r="O62" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P62" s="20" t="s">
@@ -5926,7 +5954,7 @@
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>45356</v>
       </c>
@@ -5934,10 +5962,10 @@
         <v>45359</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D63" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="2" t="s">
@@ -5946,27 +5974,27 @@
       <c r="G63" s="5"/>
       <c r="H63" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A11</v>
+        <v>Triso_single_sim_4_FMF_UK_A10</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N63" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O63" s="31" t="s">
+      <c r="O63" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P63" s="20" t="s">
@@ -5997,7 +6025,7 @@
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>45356</v>
       </c>
@@ -6005,10 +6033,10 @@
         <v>45359</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D64" s="19">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="2" t="s">
@@ -6017,22 +6045,22 @@
       <c r="G64" s="5"/>
       <c r="H64" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A12</v>
+        <v>Triso_single_sim_4_FMF_UK_A11</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N64" s="20" t="s">
         <v>31</v>
@@ -6068,7 +6096,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
         <v>45356</v>
       </c>
@@ -6076,10 +6104,10 @@
         <v>45359</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D65" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="2" t="s">
@@ -6088,27 +6116,27 @@
       <c r="G65" s="5"/>
       <c r="H65" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A13</v>
+        <v>Triso_single_sim_4_FMF_UK_A12</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N65" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O65" s="18" t="s">
+      <c r="O65" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P65" s="20" t="s">
@@ -6139,7 +6167,7 @@
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
         <v>45356</v>
       </c>
@@ -6147,10 +6175,10 @@
         <v>45359</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D66" s="19">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="2" t="s">
@@ -6159,27 +6187,27 @@
       <c r="G66" s="5"/>
       <c r="H66" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A14</v>
+        <v>Triso_single_sim_4_FMF_UK_A13</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="N66" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O66" s="31" t="s">
+      <c r="O66" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P66" s="20" t="s">
@@ -6210,7 +6238,7 @@
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
         <v>45356</v>
       </c>
@@ -6218,10 +6246,10 @@
         <v>45359</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D67" s="19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="2" t="s">
@@ -6230,22 +6258,22 @@
       <c r="G67" s="5"/>
       <c r="H67" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A15</v>
+        <v>Triso_single_sim_4_FMF_UK_A14</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N67" s="20" t="s">
         <v>31</v>
@@ -6281,7 +6309,7 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>45356</v>
       </c>
@@ -6289,10 +6317,10 @@
         <v>45359</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D68" s="19">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="2" t="s">
@@ -6301,27 +6329,27 @@
       <c r="G68" s="5"/>
       <c r="H68" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A16</v>
+        <v>Triso_single_sim_4_FMF_UK_A15</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N68" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O68" s="18" t="s">
+      <c r="O68" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P68" s="20" t="s">
@@ -6352,7 +6380,7 @@
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
         <v>45356</v>
       </c>
@@ -6360,10 +6388,10 @@
         <v>45359</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69" s="19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="2" t="s">
@@ -6372,27 +6400,27 @@
       <c r="G69" s="5"/>
       <c r="H69" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A17</v>
+        <v>Triso_single_sim_4_FMF_UK_A16</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N69" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O69" s="31" t="s">
+      <c r="O69" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P69" s="20" t="s">
@@ -6423,7 +6451,7 @@
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
         <v>45356</v>
       </c>
@@ -6431,10 +6459,10 @@
         <v>45359</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D70" s="19">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="2" t="s">
@@ -6443,22 +6471,22 @@
       <c r="G70" s="5"/>
       <c r="H70" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A18</v>
+        <v>Triso_single_sim_4_FMF_UK_A17</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N70" s="20" t="s">
         <v>31</v>
@@ -6494,7 +6522,7 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
         <v>45356</v>
       </c>
@@ -6502,10 +6530,10 @@
         <v>45359</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D71" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="2" t="s">
@@ -6514,27 +6542,27 @@
       <c r="G71" s="5"/>
       <c r="H71" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A19</v>
+        <v>Triso_single_sim_4_FMF_UK_A18</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N71" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O71" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N71" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P71" s="20" t="s">
@@ -6565,7 +6593,7 @@
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
         <v>45356</v>
       </c>
@@ -6573,39 +6601,39 @@
         <v>45359</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="D72" s="19">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="2" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_4_FMF_UK_A20_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A19</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="N72" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O72" s="31" t="s">
+      <c r="O72" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P72" s="20" t="s">
@@ -6636,7 +6664,7 @@
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="27">
         <v>45356</v>
       </c>
@@ -6644,31 +6672,31 @@
         <v>45359</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D73" s="19">
         <v>4</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_4_FMF_UK_A20_DC</v>
+        <v>Triso_sim_MC_4_FMF_UK_A20_MC</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K73" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>111</v>
@@ -6707,7 +6735,7 @@
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>45356</v>
       </c>
@@ -6715,34 +6743,34 @@
         <v>45359</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D74" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="2" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A21_MC</v>
+        <v>Triso_sim_MC_4_FMF_UK_A20_DC</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K74" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L74" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M74" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N74" s="21" t="s">
         <v>31</v>
@@ -6778,7 +6806,7 @@
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
         <v>45356</v>
       </c>
@@ -6786,7 +6814,7 @@
         <v>45359</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D75" s="19">
         <v>5</v>
@@ -6798,19 +6826,19 @@
       <c r="G75" s="5"/>
       <c r="H75" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A21_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A21_MC</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K75" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>116</v>
@@ -6849,7 +6877,7 @@
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="27">
         <v>45356</v>
       </c>
@@ -6857,10 +6885,10 @@
         <v>45359</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D76" s="19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="2" t="s">
@@ -6869,27 +6897,27 @@
       <c r="G76" s="5"/>
       <c r="H76" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A22_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A21_DC</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K76" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L76" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L76" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N76" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O76" s="18" t="s">
+      <c r="O76" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P76" s="20" t="s">
@@ -6920,7 +6948,7 @@
       <c r="Y76" s="19"/>
       <c r="Z76" s="19"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>45356</v>
       </c>
@@ -6928,7 +6956,7 @@
         <v>45359</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D77" s="19">
         <v>28</v>
@@ -6940,19 +6968,19 @@
       <c r="G77" s="5"/>
       <c r="H77" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A22_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A22_MC</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K77" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>118</v>
@@ -6991,7 +7019,7 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="27">
         <v>45356</v>
       </c>
@@ -6999,10 +7027,10 @@
         <v>45359</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D78" s="19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="2" t="s">
@@ -7011,27 +7039,27 @@
       <c r="G78" s="5"/>
       <c r="H78" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A23_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A22_DC</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K78" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L78" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L78" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N78" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O78" s="31" t="s">
+      <c r="O78" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P78" s="20" t="s">
@@ -7062,7 +7090,7 @@
       <c r="Y78" s="19"/>
       <c r="Z78" s="19"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="27">
         <v>45356</v>
       </c>
@@ -7070,7 +7098,7 @@
         <v>45359</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D79" s="19">
         <v>29</v>
@@ -7082,19 +7110,19 @@
       <c r="G79" s="5"/>
       <c r="H79" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A23_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A23_MC</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K79" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>120</v>
@@ -7133,7 +7161,7 @@
       <c r="Y79" s="19"/>
       <c r="Z79" s="19"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="27">
         <v>45356</v>
       </c>
@@ -7141,10 +7169,10 @@
         <v>45359</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D80" s="19">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="2" t="s">
@@ -7153,22 +7181,22 @@
       <c r="G80" s="5"/>
       <c r="H80" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A24_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A23_DC</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K80" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N80" s="21" t="s">
         <v>31</v>
@@ -7204,7 +7232,7 @@
       <c r="Y80" s="19"/>
       <c r="Z80" s="19"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="27">
         <v>45356</v>
       </c>
@@ -7212,7 +7240,7 @@
         <v>45359</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D81" s="19">
         <v>8</v>
@@ -7224,19 +7252,19 @@
       <c r="G81" s="5"/>
       <c r="H81" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A24_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A24_MC</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K81" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>122</v>
@@ -7275,7 +7303,7 @@
       <c r="Y81" s="19"/>
       <c r="Z81" s="19"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="27">
         <v>45356</v>
       </c>
@@ -7283,10 +7311,10 @@
         <v>45359</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D82" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="2" t="s">
@@ -7295,27 +7323,27 @@
       <c r="G82" s="5"/>
       <c r="H82" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A25_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A24_DC</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K82" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L82" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L82" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="M82" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N82" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O82" s="18" t="s">
+      <c r="O82" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P82" s="20" t="s">
@@ -7346,7 +7374,7 @@
       <c r="Y82" s="19"/>
       <c r="Z82" s="19"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="27">
         <v>45356</v>
       </c>
@@ -7354,7 +7382,7 @@
         <v>45359</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D83" s="19">
         <v>9</v>
@@ -7366,19 +7394,19 @@
       <c r="G83" s="5"/>
       <c r="H83" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A25_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A25_MC</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K83" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L83" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>127</v>
@@ -7417,7 +7445,7 @@
       <c r="Y83" s="19"/>
       <c r="Z83" s="19"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="27">
         <v>45356</v>
       </c>
@@ -7425,10 +7453,10 @@
         <v>45359</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D84" s="19">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="2" t="s">
@@ -7437,27 +7465,27 @@
       <c r="G84" s="5"/>
       <c r="H84" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A26_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A25_DC</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K84" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L84" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="M84" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="N84" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O84" s="31" t="s">
+      <c r="O84" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P84" s="20" t="s">
@@ -7488,7 +7516,7 @@
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
         <v>45356</v>
       </c>
@@ -7496,7 +7524,7 @@
         <v>45359</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D85" s="19">
         <v>20</v>
@@ -7508,19 +7536,19 @@
       <c r="G85" s="5"/>
       <c r="H85" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A26_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A26_MC</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>111</v>
@@ -7559,7 +7587,7 @@
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="27">
         <v>45356</v>
       </c>
@@ -7567,10 +7595,10 @@
         <v>45359</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D86" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="2" t="s">
@@ -7579,27 +7607,27 @@
       <c r="G86" s="5"/>
       <c r="H86" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A27_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A26_DC</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N86" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O86" s="18" t="s">
+      <c r="O86" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P86" s="20" t="s">
@@ -7630,7 +7658,7 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="27">
         <v>45356</v>
       </c>
@@ -7638,7 +7666,7 @@
         <v>45359</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D87" s="19">
         <v>21</v>
@@ -7650,19 +7678,19 @@
       <c r="G87" s="5"/>
       <c r="H87" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A27_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A27_MC</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>116</v>
@@ -7701,7 +7729,7 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>45356</v>
       </c>
@@ -7709,10 +7737,10 @@
         <v>45359</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D88" s="19">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="2" t="s">
@@ -7721,27 +7749,27 @@
       <c r="G88" s="5"/>
       <c r="H88" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A28_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A27_DC</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N88" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O88" s="31" t="s">
+      <c r="O88" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P88" s="20" t="s">
@@ -7772,7 +7800,7 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>45356</v>
       </c>
@@ -7780,7 +7808,7 @@
         <v>45359</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D89" s="19">
         <v>32</v>
@@ -7792,19 +7820,19 @@
       <c r="G89" s="5"/>
       <c r="H89" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A28_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A28_MC</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>118</v>
@@ -7843,7 +7871,7 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
         <v>45356</v>
       </c>
@@ -7851,10 +7879,10 @@
         <v>45359</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D90" s="19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="2" t="s">
@@ -7863,27 +7891,27 @@
       <c r="G90" s="5"/>
       <c r="H90" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A29_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A28_DC</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N90" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O90" s="18" t="s">
+      <c r="O90" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P90" s="20" t="s">
@@ -7914,7 +7942,7 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="27">
         <v>45356</v>
       </c>
@@ -7922,7 +7950,7 @@
         <v>45359</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D91" s="19">
         <v>33</v>
@@ -7934,19 +7962,19 @@
       <c r="G91" s="5"/>
       <c r="H91" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A29_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A29_MC</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>120</v>
@@ -7985,7 +8013,7 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="27">
         <v>45356</v>
       </c>
@@ -7993,10 +8021,10 @@
         <v>45359</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D92" s="19">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="2" t="s">
@@ -8005,27 +8033,27 @@
       <c r="G92" s="5"/>
       <c r="H92" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A30_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A29_DC</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N92" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O92" s="31" t="s">
+      <c r="O92" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P92" s="20" t="s">
@@ -8056,7 +8084,7 @@
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="27">
         <v>45356</v>
       </c>
@@ -8064,7 +8092,7 @@
         <v>45359</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D93" s="19">
         <v>12</v>
@@ -8076,19 +8104,19 @@
       <c r="G93" s="5"/>
       <c r="H93" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A30_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A30_MC</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>122</v>
@@ -8127,7 +8155,7 @@
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="27">
         <v>45356</v>
       </c>
@@ -8135,10 +8163,10 @@
         <v>45359</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D94" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="2" t="s">
@@ -8147,22 +8175,22 @@
       <c r="G94" s="5"/>
       <c r="H94" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A31_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A30_DC</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N94" s="21" t="s">
         <v>31</v>
@@ -8198,7 +8226,7 @@
       <c r="Y94" s="19"/>
       <c r="Z94" s="19"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="27">
         <v>45356</v>
       </c>
@@ -8206,7 +8234,7 @@
         <v>45359</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D95" s="19">
         <v>13</v>
@@ -8218,19 +8246,19 @@
       <c r="G95" s="5"/>
       <c r="H95" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A31_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A31_MC</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>127</v>
@@ -8269,7 +8297,7 @@
       <c r="Y95" s="19"/>
       <c r="Z95" s="19"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="27">
         <v>45356</v>
       </c>
@@ -8277,10 +8305,10 @@
         <v>45359</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D96" s="19">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="2" t="s">
@@ -8289,27 +8317,27 @@
       <c r="G96" s="5"/>
       <c r="H96" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A32_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A31_DC</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="N96" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O96" s="18" t="s">
+      <c r="O96" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P96" s="20" t="s">
@@ -8340,7 +8368,7 @@
       <c r="Y96" s="19"/>
       <c r="Z96" s="19"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="27">
         <v>45356</v>
       </c>
@@ -8348,7 +8376,7 @@
         <v>45359</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D97" s="19">
         <v>24</v>
@@ -8360,19 +8388,19 @@
       <c r="G97" s="5"/>
       <c r="H97" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A32_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A32_MC</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>111</v>
@@ -8411,7 +8439,7 @@
       <c r="Y97" s="19"/>
       <c r="Z97" s="19"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="27">
         <v>45356</v>
       </c>
@@ -8419,10 +8447,10 @@
         <v>45359</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D98" s="19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="2" t="s">
@@ -8431,27 +8459,27 @@
       <c r="G98" s="5"/>
       <c r="H98" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A33_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A32_DC</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N98" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O98" s="31" t="s">
+      <c r="O98" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P98" s="20" t="s">
@@ -8482,7 +8510,7 @@
       <c r="Y98" s="19"/>
       <c r="Z98" s="19"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="27">
         <v>45356</v>
       </c>
@@ -8490,7 +8518,7 @@
         <v>45359</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D99" s="19">
         <v>25</v>
@@ -8502,19 +8530,19 @@
       <c r="G99" s="5"/>
       <c r="H99" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A33_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A33_MC</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>116</v>
@@ -8553,7 +8581,7 @@
       <c r="Y99" s="19"/>
       <c r="Z99" s="19"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="27">
         <v>45356</v>
       </c>
@@ -8561,10 +8589,10 @@
         <v>45359</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D100" s="19">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="2" t="s">
@@ -8573,22 +8601,22 @@
       <c r="G100" s="5"/>
       <c r="H100" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A34_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A33_DC</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N100" s="21" t="s">
         <v>31</v>
@@ -8624,7 +8652,7 @@
       <c r="Y100" s="19"/>
       <c r="Z100" s="19"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="27">
         <v>45356</v>
       </c>
@@ -8632,7 +8660,7 @@
         <v>45359</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D101" s="19">
         <v>36</v>
@@ -8644,19 +8672,19 @@
       <c r="G101" s="5"/>
       <c r="H101" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A34_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A34_MC</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>118</v>
@@ -8695,7 +8723,7 @@
       <c r="Y101" s="19"/>
       <c r="Z101" s="19"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="27">
         <v>45356</v>
       </c>
@@ -8703,10 +8731,10 @@
         <v>45359</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D102" s="19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="2" t="s">
@@ -8715,27 +8743,27 @@
       <c r="G102" s="5"/>
       <c r="H102" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A35_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A34_DC</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N102" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O102" s="18" t="s">
+      <c r="O102" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P102" s="20" t="s">
@@ -8766,7 +8794,7 @@
       <c r="Y102" s="19"/>
       <c r="Z102" s="19"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="27">
         <v>45356</v>
       </c>
@@ -8774,7 +8802,7 @@
         <v>45359</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D103" s="19">
         <v>37</v>
@@ -8786,19 +8814,19 @@
       <c r="G103" s="5"/>
       <c r="H103" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A35_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A35_MC</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>120</v>
@@ -8837,7 +8865,7 @@
       <c r="Y103" s="19"/>
       <c r="Z103" s="19"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="27">
         <v>45356</v>
       </c>
@@ -8845,10 +8873,10 @@
         <v>45359</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D104" s="19">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="2" t="s">
@@ -8857,27 +8885,27 @@
       <c r="G104" s="5"/>
       <c r="H104" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A36_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A35_DC</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N104" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O104" s="31" t="s">
+      <c r="O104" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P104" s="20" t="s">
@@ -8908,7 +8936,7 @@
       <c r="Y104" s="19"/>
       <c r="Z104" s="19"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="27">
         <v>45356</v>
       </c>
@@ -8916,7 +8944,7 @@
         <v>45359</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="D105" s="19">
         <v>16</v>
@@ -8928,19 +8956,19 @@
       <c r="G105" s="5"/>
       <c r="H105" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A36_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A36_MC</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>122</v>
@@ -8979,7 +9007,7 @@
       <c r="Y105" s="19"/>
       <c r="Z105" s="19"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="27">
         <v>45356</v>
       </c>
@@ -8987,10 +9015,10 @@
         <v>45359</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D106" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="2" t="s">
@@ -8999,27 +9027,27 @@
       <c r="G106" s="5"/>
       <c r="H106" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A37_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A36_DC</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>131</v>
+      <c r="K106" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N106" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O106" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N106" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O106" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P106" s="20" t="s">
@@ -9028,7 +9056,7 @@
       <c r="Q106" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R106" s="20" t="s">
+      <c r="R106" s="31" t="s">
         <v>88</v>
       </c>
       <c r="S106" s="20" t="s">
@@ -9050,82 +9078,153 @@
       <c r="Y106" s="19"/>
       <c r="Z106" s="19"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="28">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" s="27">
         <v>45356</v>
       </c>
-      <c r="B107" s="28">
+      <c r="B107" s="27">
         <v>45359</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D107" s="15">
+      <c r="C107" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="19">
         <v>17</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="6" t="s">
+      <c r="E107" s="5"/>
+      <c r="F107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="6" t="str">
-        <f t="shared" ref="H107" si="4">F107&amp;"_"&amp;C107</f>
+      <c r="G107" s="5"/>
+      <c r="H107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A37_MC</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N107" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O107" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P107" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q107" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R107" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S107" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T107" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U107" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V107" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W107" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X107" s="19"/>
+      <c r="Y107" s="19"/>
+      <c r="Z107" s="19"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" s="28">
+        <v>45356</v>
+      </c>
+      <c r="B108" s="28">
+        <v>45359</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" s="15">
+        <v>17</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="6" t="str">
+        <f t="shared" ref="H108" si="4">F108&amp;"_"&amp;C108</f>
         <v>Triso_twin_sim_4_FMF_UK_A37_DC</v>
       </c>
-      <c r="I107" s="15" t="s">
+      <c r="I108" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K108" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M107" s="6" t="s">
+      <c r="L108" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M108" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N107" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O107" s="16" t="s">
+      <c r="N108" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O108" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P107" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q107" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R107" s="16" t="s">
+      <c r="P108" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q108" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R108" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="S107" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T107" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U107" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V107" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W107" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X107" s="15"/>
-      <c r="Y107" s="15"/>
-      <c r="Z107" s="15"/>
-    </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="S108" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T108" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U108" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V108" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W108" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9141,128 +9240,128 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.26171875" customWidth="1"/>
-    <col min="2" max="2" width="19.578125" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>157</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>160</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
         <v>162</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
         <v>165</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
+      <c r="B7" t="s">
         <v>167</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+      <c r="B8" t="s">
         <v>169</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>170</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC3664A-D6A9-4D68-A67B-8EC85620F36D}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{547DCBDB-7F56-4872-A725-7DC3ABAA099D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="258">
   <si>
     <t>Analysis</t>
   </si>
@@ -775,6 +775,42 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>5_FMF_UK_A3_CA</t>
+  </si>
+  <si>
+    <t>cv__ds_muplgf_ca_w12.xlsx</t>
+  </si>
+  <si>
+    <t>cv__ds_mplgfp_ca_w12.xlsx</t>
+  </si>
+  <si>
+    <t>cv__ds_muplgfp_ca_w12.xlsx</t>
+  </si>
+  <si>
+    <t>cv__ds_mplgfp_si_w12.xlsx</t>
+  </si>
+  <si>
+    <t>cv__ds_muplgfp_si_w12.xlsx</t>
+  </si>
+  <si>
+    <t>cv__ds_muplgf_si_w12.xlsx</t>
+  </si>
+  <si>
+    <t>5_FMF_UK_A1_CA</t>
+  </si>
+  <si>
+    <t>5_FMF_UK_A2_CA</t>
+  </si>
+  <si>
+    <t>5_FMF_UK_A1_SI</t>
+  </si>
+  <si>
+    <t>5_FMF_UK_A2_SI</t>
+  </si>
+  <si>
+    <t>5_FMF_UK_A3_SI</t>
   </si>
 </sst>
 </file>
@@ -970,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1045,6 +1081,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1408,13 +1452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D59CA7-78DE-483F-8DC5-D261426A3AA3}">
-  <dimension ref="A1:AL125"/>
+  <dimension ref="A1:AL131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,10 +1480,10 @@
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="21.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
     <col min="20" max="20" width="22.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" customWidth="1"/>
     <col min="23" max="23" width="31.7109375" customWidth="1"/>
     <col min="24" max="24" width="21.85546875" customWidth="1"/>
@@ -1660,7 +1704,7 @@
         <v>172</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f t="shared" ref="H4:H19" si="0">F4&amp;"_"&amp;C4</f>
+        <f t="shared" ref="H4:H25" si="0">F4&amp;"_"&amp;C4</f>
         <v>1T_PE_5_FMF_UK_A2</v>
       </c>
       <c r="I4" s="19">
@@ -2035,201 +2079,200 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <v>45334</v>
-      </c>
-      <c r="B9" s="27">
-        <v>45337</v>
+      <c r="A9" s="43">
+        <v>45341</v>
+      </c>
+      <c r="B9" s="43">
+        <v>45341</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2" t="str">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>2T_PE_6_FMF_UK_A1a</v>
-      </c>
-      <c r="I9" s="19">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2" t="s">
+        <v>1T_PE_5_FMF_UK_A1_SI</v>
+      </c>
+      <c r="I9" s="41">
+        <v>1</v>
+      </c>
+      <c r="J9" s="40" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>31</v>
+      <c r="T9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="X9" s="19">
-        <v>882</v>
+        <v>529</v>
       </c>
       <c r="Y9" s="19">
-        <v>151</v>
-      </c>
-      <c r="Z9" s="24" t="s">
-        <v>31</v>
+        <v>279</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <v>45334</v>
-      </c>
-      <c r="B10" s="27">
-        <v>45337</v>
+      <c r="A10" s="43">
+        <v>45341</v>
+      </c>
+      <c r="B10" s="43">
+        <v>45341</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="D10" s="24">
+        <v>2</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>1T_PE_5_FMF_UK_A2_SI</v>
+      </c>
+      <c r="I10" s="41">
         <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2T_PE_6_FMF_UK_A1b</v>
-      </c>
-      <c r="I10" s="19">
-        <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="42" t="s">
         <v>31</v>
       </c>
       <c r="R10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>31</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="W10" s="20" t="s">
         <v>31</v>
       </c>
       <c r="X10" s="19">
-        <v>882</v>
+        <v>529</v>
       </c>
       <c r="Y10" s="19">
-        <v>151</v>
-      </c>
-      <c r="Z10" s="24" t="s">
-        <v>31</v>
+        <v>279</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <v>45334</v>
-      </c>
-      <c r="B11" s="27">
-        <v>45337</v>
+      <c r="A11" s="43">
+        <v>45341</v>
+      </c>
+      <c r="B11" s="43">
+        <v>45341</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>257</v>
       </c>
       <c r="D11" s="24">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>3</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" ref="H11" si="1">F11&amp;"_"&amp;C11</f>
-        <v>2T_PE_6_FMF_UK_A2</v>
-      </c>
-      <c r="I11" s="19">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>1T_PE_5_FMF_UK_A3_SI</v>
+      </c>
+      <c r="I11" s="41">
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>57</v>
+      <c r="K11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="N11" s="20" t="s">
         <v>31</v>
@@ -2237,275 +2280,275 @@
       <c r="O11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="20" t="s">
+      <c r="P11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="20" t="s">
-        <v>31</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>31</v>
       </c>
       <c r="X11" s="19">
-        <v>882</v>
+        <v>529</v>
       </c>
       <c r="Y11" s="19">
-        <v>151</v>
-      </c>
-      <c r="Z11" s="24" t="s">
-        <v>31</v>
+        <v>279</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>45334</v>
-      </c>
-      <c r="B12" s="28">
-        <v>45337</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="22">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="6" t="str">
+      <c r="A12" s="43">
+        <v>45341</v>
+      </c>
+      <c r="B12" s="43">
+        <v>45341</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="44">
+        <v>1</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>2T_PE_6_FMF_UK_MFs</v>
-      </c>
-      <c r="I12" s="15">
-        <v>2</v>
-      </c>
-      <c r="J12" s="6" t="s">
+        <v>1T_PE_5_FMF_UK_A1_CA</v>
+      </c>
+      <c r="I12" s="41">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="14" t="s">
+      <c r="K12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>37</v>
+      <c r="P12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X12" s="15">
-        <v>882</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>151</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>31</v>
+      <c r="T12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="19">
+        <v>529</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>279</v>
+      </c>
+      <c r="Z12" s="19">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>45334</v>
-      </c>
-      <c r="B13" s="27">
-        <v>45337</v>
+      <c r="A13" s="43">
+        <v>45341</v>
+      </c>
+      <c r="B13" s="43">
+        <v>45341</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="24">
+        <v>254</v>
+      </c>
+      <c r="D13" s="44">
+        <v>2</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>1T_PE_5_FMF_UK_A2_CA</v>
+      </c>
+      <c r="I13" s="41">
         <v>1</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3T_PE_30_34_7_FMF_UK_A1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="M13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>64</v>
+      <c r="N13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" s="8" t="s">
+      <c r="Q13" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="20" t="s">
-        <v>31</v>
+      <c r="T13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="W13" s="20" t="s">
         <v>31</v>
       </c>
       <c r="X13" s="19">
-        <v>149</v>
+        <v>529</v>
       </c>
       <c r="Y13" s="19">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="24" t="s">
-        <v>31</v>
+        <v>279</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <v>45334</v>
-      </c>
-      <c r="B14" s="27">
-        <v>45337</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="24">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" ref="H14:H15" si="2">F14&amp;"_"&amp;C14</f>
-        <v>3T_PE_35_37_7_FMF_UK_A2a</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="A14" s="28">
+        <v>45341</v>
+      </c>
+      <c r="B14" s="28">
+        <v>45341</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="22">
         <v>3</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1T_PE_5_FMF_UK_A3_CA</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="2" t="s">
+      <c r="K14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X14" s="19">
-        <v>47</v>
-      </c>
-      <c r="Y14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="24" t="s">
-        <v>31</v>
+      <c r="Q14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="15">
+        <v>529</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>279</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2516,57 +2559,57 @@
         <v>45337</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D15" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>3T_PE_35_37_7_FMF_UK_A2b</v>
+        <f t="shared" si="0"/>
+        <v>2T_PE_6_FMF_UK_A1a</v>
       </c>
       <c r="I15" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>31</v>
+      <c r="N15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="U15" s="31" t="s">
         <v>31</v>
@@ -2578,10 +2621,10 @@
         <v>31</v>
       </c>
       <c r="X15" s="19">
-        <v>47</v>
-      </c>
-      <c r="Y15" s="24" t="s">
-        <v>31</v>
+        <v>882</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>151</v>
       </c>
       <c r="Z15" s="24" t="s">
         <v>31</v>
@@ -2595,54 +2638,54 @@
         <v>45337</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="D16" s="24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3T_PE_30_34_7_FMF_UK_A3</v>
+        <v>2T_PE_6_FMF_UK_A1b</v>
       </c>
       <c r="I16" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>33</v>
+      <c r="M16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>237</v>
       </c>
       <c r="Q16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>33</v>
+      <c r="R16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="T16" s="20" t="s">
         <v>31</v>
@@ -2657,10 +2700,10 @@
         <v>31</v>
       </c>
       <c r="X16" s="19">
-        <v>149</v>
+        <v>882</v>
       </c>
       <c r="Y16" s="19">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="Z16" s="24" t="s">
         <v>31</v>
@@ -2674,660 +2717,708 @@
         <v>45337</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>241</v>
+        <v>55</v>
       </c>
       <c r="D17" s="24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f t="shared" ref="H17" si="1">F17&amp;"_"&amp;C17</f>
+        <v>2T_PE_6_FMF_UK_A2</v>
+      </c>
+      <c r="I17" s="19">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="19">
+        <v>882</v>
+      </c>
+      <c r="Y17" s="19">
+        <v>151</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>45334</v>
+      </c>
+      <c r="B18" s="28">
+        <v>45337</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="22">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2T_PE_6_FMF_UK_MFs</v>
+      </c>
+      <c r="I18" s="15">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="15">
+        <v>882</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>151</v>
+      </c>
+      <c r="Z18" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>45334</v>
+      </c>
+      <c r="B19" s="27">
+        <v>45337</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3T_PE_30_34_7_FMF_UK_A1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" s="19">
+        <v>149</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>45334</v>
+      </c>
+      <c r="B20" s="27">
+        <v>45337</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="24">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f t="shared" ref="H20:H21" si="2">F20&amp;"_"&amp;C20</f>
+        <v>3T_PE_35_37_7_FMF_UK_A2a</v>
+      </c>
+      <c r="I20" s="19">
+        <v>3</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" s="19">
+        <v>47</v>
+      </c>
+      <c r="Y20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>45334</v>
+      </c>
+      <c r="B21" s="27">
+        <v>45337</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="24">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>3T_PE_35_37_7_FMF_UK_A2b</v>
+      </c>
+      <c r="I21" s="19">
+        <v>3</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" s="19">
+        <v>47</v>
+      </c>
+      <c r="Y21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>45334</v>
+      </c>
+      <c r="B22" s="27">
+        <v>45337</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="24">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3T_PE_30_34_7_FMF_UK_A3</v>
+      </c>
+      <c r="I22" s="19">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="19">
+        <v>149</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>60</v>
+      </c>
+      <c r="Z22" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>45334</v>
+      </c>
+      <c r="B23" s="27">
+        <v>45337</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="24">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="H23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3T_PE_35_37_7_FMF_UK_A4a</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I23" s="19">
         <v>3</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="L23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X17" s="19">
+      <c r="Q23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" s="19">
         <v>47</v>
       </c>
-      <c r="Y17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="Y23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z23" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
         <v>45334</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B24" s="27">
         <v>45337</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D24" s="24">
         <v>12</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="H24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3T_PE_35_37_7_FMF_UK_A4b</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I24" s="19">
         <v>3</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="3" t="s">
+      <c r="L24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P24" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="Q18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U18" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X18" s="19">
+      <c r="Q24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" s="19">
         <v>47</v>
       </c>
-      <c r="Y18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z18" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="Y24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
         <v>45334</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B25" s="28">
         <v>45337</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D25" s="22">
         <v>3</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="6" t="str">
+      <c r="H25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>3T_PE_30_34_7_FMF_UK_MFs</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I25" s="15">
         <v>3</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K25" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="4" t="s">
+      <c r="L25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="30" t="s">
+      <c r="Q25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X19" s="15">
+      <c r="T25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" s="15">
         <v>149</v>
       </c>
-      <c r="Y19" s="15">
+      <c r="Y25" s="15">
         <v>60</v>
       </c>
-      <c r="Z19" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>45343</v>
-      </c>
-      <c r="B20" s="27">
-        <v>45348</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="24">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="str">
-        <f>F20&amp;"_"&amp;C20</f>
-        <v>1T_Triso_1_FMF_DE_A1</v>
-      </c>
-      <c r="I20" s="19">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="S20" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U20" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>45343</v>
-      </c>
-      <c r="B21" s="28">
-        <v>45348</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="22">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="str">
-        <f>F21&amp;"_"&amp;C21</f>
-        <v>1T_Triso_1_FMF_DE_A2</v>
-      </c>
-      <c r="I21" s="15">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>45343</v>
-      </c>
-      <c r="B22" s="27">
-        <v>45348</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="2" t="str">
-        <f t="shared" ref="H22:H107" si="3">F22&amp;"_"&amp;C22</f>
-        <v>1T_Triso_2_FMF_UK_A1</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R22" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>45343</v>
-      </c>
-      <c r="B23" s="27">
-        <v>45348</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="19">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1T_Triso_2_FMF_UK_A2</v>
-      </c>
-      <c r="I23" s="19">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R23" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="S23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>45343</v>
-      </c>
-      <c r="B24" s="27">
-        <v>45348</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="19">
-        <v>5</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1T_Triso_2_FMF_UK_A3</v>
-      </c>
-      <c r="I24" s="19">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="S24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>45343</v>
-      </c>
-      <c r="B25" s="27">
-        <v>45348</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="19">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1T_Triso_2_FMF_UK_A4</v>
-      </c>
-      <c r="I25" s="19">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R25" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="S25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U25" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
+      <c r="Z25" s="22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
@@ -3337,19 +3428,19 @@
         <v>45348</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="19">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1T_Triso_2_FMF_UK_A5</v>
+        <f>F26&amp;"_"&amp;C26</f>
+        <v>1T_Triso_1_FMF_DE_A1</v>
       </c>
       <c r="I26" s="19">
         <v>1</v>
@@ -3358,10 +3449,10 @@
         <v>28</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M26" s="20" t="s">
         <v>31</v>
@@ -3369,23 +3460,23 @@
       <c r="N26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="2" t="s">
         <v>77</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R26" s="31" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26" s="20" t="s">
-        <v>31</v>
+        <v>78</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="U26" s="31" t="s">
         <v>31</v>
@@ -3401,73 +3492,75 @@
       <c r="Z26" s="19"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="28">
         <v>45343</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="28">
         <v>45348</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="19">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="2" t="s">
+      <c r="C27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="22">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1T_Triso_2_FMF_UK_A4</v>
-      </c>
-      <c r="I27" s="19">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="str">
+        <f>F27&amp;"_"&amp;C27</f>
+        <v>1T_Triso_1_FMF_DE_A2</v>
+      </c>
+      <c r="I27" s="15">
         <v>1</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="20" t="s">
+      <c r="K27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="R27" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="S27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U27" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
+      <c r="P27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
@@ -3476,67 +3569,69 @@
       <c r="B28" s="27">
         <v>45348</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="19">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="2" t="s">
+      <c r="C28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1T_Triso_2_FMF_UK_A5</v>
-      </c>
-      <c r="I28" s="19">
+        <f t="shared" ref="H28:H113" si="3">F28&amp;"_"&amp;C28</f>
+        <v>1T_Triso_2_FMF_UK_A1</v>
+      </c>
+      <c r="I28" s="11">
         <v>1</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="20" t="s">
+      <c r="L28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>31</v>
+      <c r="P28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="R28" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="S28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U28" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
+      <c r="S28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
@@ -3546,10 +3641,10 @@
         <v>45348</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D29" s="19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="2" t="s">
@@ -3558,19 +3653,19 @@
       <c r="G29" s="5"/>
       <c r="H29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1T_Triso_2_FMF_UK_A6</v>
+        <v>1T_Triso_2_FMF_UK_A2</v>
       </c>
       <c r="I29" s="19">
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K29" s="18" t="s">
         <v>84</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M29" s="20" t="s">
         <v>31</v>
@@ -3617,10 +3712,10 @@
         <v>45348</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D30" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="2" t="s">
@@ -3629,19 +3724,19 @@
       <c r="G30" s="5"/>
       <c r="H30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1T_Triso_2_FMF_UK_A7</v>
+        <v>1T_Triso_2_FMF_UK_A3</v>
       </c>
       <c r="I30" s="19">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>84</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M30" s="20" t="s">
         <v>31</v>
@@ -3688,31 +3783,31 @@
         <v>45348</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="D31" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="2" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_2_FMF_UK_A8_MC</v>
+        <v>1T_Triso_2_FMF_UK_A4</v>
       </c>
       <c r="I31" s="19">
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K31" s="18" t="s">
         <v>84</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M31" s="20" t="s">
         <v>31</v>
@@ -3759,31 +3854,31 @@
         <v>45348</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="D32" s="19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="2" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_2_FMF_UK_A8_DC</v>
+        <v>1T_Triso_2_FMF_UK_A5</v>
       </c>
       <c r="I32" s="19">
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K32" s="18" t="s">
         <v>84</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M32" s="20" t="s">
         <v>31</v>
@@ -3830,45 +3925,43 @@
         <v>45348</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="D33" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="2" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_2_FMF_UK_A9_MC</v>
+        <v>1T_Triso_2_FMF_UK_A4</v>
       </c>
       <c r="I33" s="19">
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>84</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>31</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M33" s="20"/>
       <c r="N33" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O33" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="P33" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q33" s="20" t="s">
+      <c r="P33" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="21" t="s">
         <v>31</v>
       </c>
       <c r="R33" s="31" t="s">
@@ -3894,64 +3987,62 @@
       <c r="Z33" s="19"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34" s="27">
         <v>45343</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>45348</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="D34" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="2" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="6" t="str">
+      <c r="H34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_2_FMF_UK_A9_DC</v>
+        <v>1T_Triso_2_FMF_UK_A5</v>
       </c>
       <c r="I34" s="19">
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K34" s="18" t="s">
         <v>84</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>31</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M34" s="20"/>
       <c r="N34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="30" t="s">
+      <c r="O34" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="P34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R34" s="30" t="s">
+      <c r="P34" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="S34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U34" s="30" t="s">
+      <c r="S34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" s="31" t="s">
         <v>31</v>
       </c>
       <c r="V34" s="20" t="s">
@@ -3966,42 +4057,42 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
+        <v>45343</v>
+      </c>
+      <c r="B35" s="27">
         <v>45348</v>
       </c>
-      <c r="B35" s="27">
-        <v>45351</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="11">
-        <v>2</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="8"/>
+      <c r="C35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A1</v>
-      </c>
-      <c r="I35" s="11">
-        <v>2</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N35" s="13" t="s">
+        <v>1T_Triso_2_FMF_UK_A6</v>
+      </c>
+      <c r="I35" s="19">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O35" s="20" t="s">
@@ -4022,55 +4113,55 @@
       <c r="T35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U35" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="V35" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="W35" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
+      <c r="U35" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
+        <v>45343</v>
+      </c>
+      <c r="B36" s="27">
         <v>45348</v>
       </c>
-      <c r="B36" s="27">
-        <v>45351</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D36" s="19">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A2</v>
+        <v>1T_Triso_2_FMF_UK_A7</v>
       </c>
       <c r="I36" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="N36" s="21" t="s">
         <v>31</v>
@@ -4108,45 +4199,45 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
+        <v>45343</v>
+      </c>
+      <c r="B37" s="27">
         <v>45348</v>
       </c>
-      <c r="B37" s="27">
-        <v>45351</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="D37" s="19">
-        <v>6</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A3</v>
+        <v>Triso_sim_MC_2_FMF_UK_A8_MC</v>
       </c>
       <c r="I37" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="N37" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O37" s="31" t="s">
+      <c r="O37" s="20" t="s">
         <v>77</v>
       </c>
       <c r="P37" s="20" t="s">
@@ -4179,45 +4270,45 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
+        <v>45343</v>
+      </c>
+      <c r="B38" s="27">
         <v>45348</v>
       </c>
-      <c r="B38" s="27">
-        <v>45351</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="D38" s="19">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="G38" s="5"/>
       <c r="H38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A4</v>
+        <v>Triso_sim_DC_2_FMF_UK_A8_DC</v>
       </c>
       <c r="I38" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="N38" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O38" s="18" t="s">
+      <c r="O38" s="20" t="s">
         <v>77</v>
       </c>
       <c r="P38" s="20" t="s">
@@ -4250,61 +4341,61 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
+        <v>45343</v>
+      </c>
+      <c r="B39" s="27">
         <v>45348</v>
       </c>
-      <c r="B39" s="27">
-        <v>45351</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="D39" s="19">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A5</v>
+        <v>Triso_sim_MC_2_FMF_UK_A9_MC</v>
       </c>
       <c r="I39" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="N39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>124</v>
+      <c r="P39" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="R39" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="S39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>54</v>
+      <c r="S39" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="U39" s="31" t="s">
         <v>31</v>
@@ -4320,64 +4411,64 @@
       <c r="Z39" s="19"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
+      <c r="A40" s="28">
+        <v>45343</v>
+      </c>
+      <c r="B40" s="28">
         <v>45348</v>
       </c>
-      <c r="B40" s="27">
-        <v>45351</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="D40" s="19">
-        <v>5</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="str">
+        <v>179</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A6</v>
+        <v>Triso_sim_DC_2_FMF_UK_A9_DC</v>
       </c>
       <c r="I40" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="N40" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O40" s="31" t="s">
+      <c r="O40" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="P40" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q40" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R40" s="31" t="s">
+      <c r="P40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="S40" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T40" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U40" s="31" t="s">
+      <c r="S40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" s="30" t="s">
         <v>31</v>
       </c>
       <c r="V40" s="20" t="s">
@@ -4397,40 +4488,40 @@
       <c r="B41" s="27">
         <v>45351</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="19">
-        <v>8</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" s="5"/>
+      <c r="C41" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="8"/>
       <c r="H41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A7_MC</v>
-      </c>
-      <c r="I41" s="19">
+        <v>2T_Triso_3_FMF_UK_A1</v>
+      </c>
+      <c r="I41" s="11">
         <v>2</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K41" s="18" t="s">
+      <c r="J41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="L41" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="2" t="s">
+      <c r="L41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="N41" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="18" t="s">
+      <c r="N41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="20" t="s">
         <v>77</v>
       </c>
       <c r="P41" s="20" t="s">
@@ -4448,18 +4539,18 @@
       <c r="T41" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U41" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V41" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W41" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
+      <c r="U41" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
@@ -4469,25 +4560,25 @@
         <v>45351</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="D42" s="19">
-        <v>8</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A7_DC</v>
+        <v>2T_Triso_3_FMF_UK_A2</v>
       </c>
       <c r="I42" s="19">
         <v>2</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K42" s="18" t="s">
         <v>110</v>
@@ -4496,12 +4587,12 @@
         <v>31</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O42" s="18" t="s">
+      <c r="O42" s="20" t="s">
         <v>77</v>
       </c>
       <c r="P42" s="20" t="s">
@@ -4540,25 +4631,25 @@
         <v>45351</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="D43" s="19">
-        <v>9</v>
-      </c>
-      <c r="E43" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A8_MC</v>
+        <v>2T_Triso_3_FMF_UK_A3</v>
       </c>
       <c r="I43" s="19">
         <v>2</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K43" s="18" t="s">
         <v>110</v>
@@ -4567,7 +4658,7 @@
         <v>31</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N43" s="21" t="s">
         <v>31</v>
@@ -4611,25 +4702,25 @@
         <v>45351</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="D44" s="19">
-        <v>9</v>
-      </c>
-      <c r="E44" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G44" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A8_DC</v>
+        <v>2T_Triso_3_FMF_UK_A4</v>
       </c>
       <c r="I44" s="19">
         <v>2</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K44" s="18" t="s">
         <v>110</v>
@@ -4638,12 +4729,12 @@
         <v>31</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N44" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O44" s="31" t="s">
+      <c r="O44" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P44" s="20" t="s">
@@ -4682,25 +4773,25 @@
         <v>45351</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D45" s="19">
-        <v>11</v>
-      </c>
-      <c r="E45" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G45" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A9_MC</v>
+        <v>2T_Triso_3_FMF_UK_A5</v>
       </c>
       <c r="I45" s="19">
         <v>2</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K45" s="18" t="s">
         <v>110</v>
@@ -4709,28 +4800,28 @@
         <v>31</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N45" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O45" s="31" t="s">
+      <c r="O45" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P45" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="20" t="s">
-        <v>31</v>
+      <c r="P45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="R45" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="S45" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T45" s="20" t="s">
-        <v>31</v>
+      <c r="S45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="U45" s="31" t="s">
         <v>31</v>
@@ -4753,25 +4844,25 @@
         <v>45351</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="D46" s="19">
-        <v>11</v>
-      </c>
-      <c r="E46" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G46" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A9_DC</v>
+        <v>2T_Triso_3_FMF_UK_A6</v>
       </c>
       <c r="I46" s="19">
         <v>2</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K46" s="18" t="s">
         <v>110</v>
@@ -4780,7 +4871,7 @@
         <v>31</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N46" s="21" t="s">
         <v>31</v>
@@ -4824,10 +4915,10 @@
         <v>45351</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D47" s="19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="2" t="s">
@@ -4836,7 +4927,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A10_MC</v>
+        <v>Triso_sim_MC_3_FMF_UK_A7_MC</v>
       </c>
       <c r="I47" s="19">
         <v>2</v>
@@ -4851,7 +4942,7 @@
         <v>31</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N47" s="21" t="s">
         <v>31</v>
@@ -4895,10 +4986,10 @@
         <v>45351</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D48" s="19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="2" t="s">
@@ -4907,7 +4998,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A10_DC</v>
+        <v>Triso_sim_DC_3_FMF_UK_A7_DC</v>
       </c>
       <c r="I48" s="19">
         <v>2</v>
@@ -4922,7 +5013,7 @@
         <v>31</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N48" s="21" t="s">
         <v>31</v>
@@ -4966,10 +5057,10 @@
         <v>45351</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D49" s="19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="2" t="s">
@@ -4978,7 +5069,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A11_MC</v>
+        <v>Triso_sim_MC_3_FMF_UK_A8_MC</v>
       </c>
       <c r="I49" s="19">
         <v>2</v>
@@ -4993,7 +5084,7 @@
         <v>31</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N49" s="21" t="s">
         <v>31</v>
@@ -5037,10 +5128,10 @@
         <v>45351</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D50" s="19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="2" t="s">
@@ -5049,7 +5140,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A11_DC</v>
+        <v>Triso_sim_DC_3_FMF_UK_A8_DC</v>
       </c>
       <c r="I50" s="19">
         <v>2</v>
@@ -5064,7 +5155,7 @@
         <v>31</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N50" s="21" t="s">
         <v>31</v>
@@ -5108,10 +5199,10 @@
         <v>45351</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D51" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="2" t="s">
@@ -5120,7 +5211,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A12_MC</v>
+        <v>Triso_sim_MC_3_FMF_UK_A9_MC</v>
       </c>
       <c r="I51" s="19">
         <v>2</v>
@@ -5128,19 +5219,19 @@
       <c r="J51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="18" t="s">
         <v>110</v>
       </c>
       <c r="L51" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N51" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P51" s="20" t="s">
@@ -5149,7 +5240,7 @@
       <c r="Q51" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R51" s="20" t="s">
+      <c r="R51" s="31" t="s">
         <v>88</v>
       </c>
       <c r="S51" s="20" t="s">
@@ -5170,29 +5261,28 @@
       <c r="X51" s="19"/>
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
-      <c r="AL51" s="33"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
+      <c r="A52" s="27">
         <v>45348</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="27">
         <v>45351</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D52" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="2" t="s">
         <v>179</v>
       </c>
       <c r="G52" s="5"/>
-      <c r="H52" s="6" t="str">
+      <c r="H52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A12_DC</v>
+        <v>Triso_sim_DC_3_FMF_UK_A9_DC</v>
       </c>
       <c r="I52" s="19">
         <v>2</v>
@@ -5200,28 +5290,28 @@
       <c r="J52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="18" t="s">
         <v>110</v>
       </c>
       <c r="L52" s="20" t="s">
         <v>31</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N52" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O52" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="P52" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q52" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R52" s="20" t="s">
+      <c r="P52" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="31" t="s">
         <v>88</v>
       </c>
       <c r="S52" s="20" t="s">
@@ -5230,7 +5320,7 @@
       <c r="T52" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U52" s="30" t="s">
+      <c r="U52" s="31" t="s">
         <v>31</v>
       </c>
       <c r="V52" s="20" t="s">
@@ -5242,127 +5332,126 @@
       <c r="X52" s="19"/>
       <c r="Y52" s="19"/>
       <c r="Z52" s="19"/>
-      <c r="AL52" s="33"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
-        <v>45356</v>
+        <v>45348</v>
       </c>
       <c r="B53" s="27">
-        <v>45359</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" s="11">
-        <v>1</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G53" s="8"/>
+        <v>45351</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="19">
+        <v>12</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>12T_Triso_ T21_4_FMF_UK_A1a</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N53" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O53" s="8" t="s">
+        <v>Triso_sim_MC_3_FMF_UK_A10_MC</v>
+      </c>
+      <c r="I53" s="19">
+        <v>2</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="P53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R53" s="32" t="s">
+      <c r="P53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="S53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U53" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="V53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="W53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
+      <c r="S53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U53" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
-        <v>45356</v>
+        <v>45348</v>
       </c>
       <c r="B54" s="27">
-        <v>45359</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D54" s="41">
-        <v>1</v>
-      </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" s="40"/>
+        <v>45351</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="19">
+        <v>12</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>12T_Triso_ T21_4_FMF_UK_A1b</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>129</v>
+        <v>Triso_sim_DC_3_FMF_UK_A10_DC</v>
+      </c>
+      <c r="I54" s="19">
+        <v>2</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N54" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N54" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O54" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="P54" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>245</v>
+      <c r="P54" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q54" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="R54" s="31" t="s">
         <v>88</v>
@@ -5382,51 +5471,51 @@
       <c r="W54" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
-        <v>45356</v>
+        <v>45348</v>
       </c>
       <c r="B55" s="27">
-        <v>45359</v>
+        <v>45351</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="D55" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="2" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A2</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>129</v>
+        <v>Triso_sim_MC_3_FMF_UK_A11_MC</v>
+      </c>
+      <c r="I55" s="19">
+        <v>2</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
+      </c>
+      <c r="L55" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="N55" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O55" s="20" t="s">
+      <c r="O55" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P55" s="20" t="s">
@@ -5459,42 +5548,42 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
-        <v>45356</v>
+        <v>45348</v>
       </c>
       <c r="B56" s="27">
-        <v>45359</v>
+        <v>45351</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="D56" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="2" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A3</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>129</v>
+        <v>Triso_sim_DC_3_FMF_UK_A11_DC</v>
+      </c>
+      <c r="I56" s="19">
+        <v>2</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
+      </c>
+      <c r="L56" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N56" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N56" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O56" s="31" t="s">
@@ -5530,45 +5619,45 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
-        <v>45356</v>
+        <v>45348</v>
       </c>
       <c r="B57" s="27">
-        <v>45359</v>
+        <v>45351</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="D57" s="19">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="2" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A4</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>129</v>
+        <v>Triso_sim_MC_3_FMF_UK_A12_MC</v>
+      </c>
+      <c r="I57" s="19">
+        <v>2</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K57" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>131</v>
+      <c r="K57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L57" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N57" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O57" s="18" t="s">
+      <c r="O57" s="20" t="s">
         <v>77</v>
       </c>
       <c r="P57" s="20" t="s">
@@ -5577,7 +5666,7 @@
       <c r="Q57" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R57" s="31" t="s">
+      <c r="R57" s="20" t="s">
         <v>88</v>
       </c>
       <c r="S57" s="20" t="s">
@@ -5598,57 +5687,58 @@
       <c r="X57" s="19"/>
       <c r="Y57" s="19"/>
       <c r="Z57" s="19"/>
+      <c r="AL57" s="33"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
-        <v>45356</v>
-      </c>
-      <c r="B58" s="27">
-        <v>45359</v>
+      <c r="A58" s="28">
+        <v>45348</v>
+      </c>
+      <c r="B58" s="28">
+        <v>45351</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="D58" s="19">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="2" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="G58" s="5"/>
-      <c r="H58" s="2" t="str">
+      <c r="H58" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A5</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>129</v>
+        <v>Triso_sim_DC_3_FMF_UK_A12_DC</v>
+      </c>
+      <c r="I58" s="19">
+        <v>2</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K58" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>131</v>
+      <c r="K58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L58" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N58" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O58" s="31" t="s">
+      <c r="O58" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="P58" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q58" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R58" s="31" t="s">
+      <c r="P58" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q58" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R58" s="20" t="s">
         <v>88</v>
       </c>
       <c r="S58" s="20" t="s">
@@ -5657,7 +5747,7 @@
       <c r="T58" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U58" s="31" t="s">
+      <c r="U58" s="30" t="s">
         <v>31</v>
       </c>
       <c r="V58" s="20" t="s">
@@ -5669,6 +5759,7 @@
       <c r="X58" s="19"/>
       <c r="Y58" s="19"/>
       <c r="Z58" s="19"/>
+      <c r="AL58" s="33"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
@@ -5677,69 +5768,69 @@
       <c r="B59" s="27">
         <v>45359</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="19">
-        <v>6</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G59" s="5"/>
+      <c r="C59" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="11">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="8"/>
       <c r="H59" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A6</v>
-      </c>
-      <c r="I59" s="19" t="s">
+        <v>12T_Triso_ T21_4_FMF_UK_A1a</v>
+      </c>
+      <c r="I59" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K59" s="18" t="s">
+      <c r="J59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N59" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O59" s="31" t="s">
+      <c r="M59" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P59" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q59" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R59" s="31" t="s">
+      <c r="P59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R59" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S59" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T59" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U59" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V59" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W59" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
+      <c r="S59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U59" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
@@ -5748,26 +5839,26 @@
       <c r="B60" s="27">
         <v>45359</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="19">
-        <v>7</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G60" s="5"/>
+      <c r="C60" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="41">
+        <v>1</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="40"/>
       <c r="H60" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A7</v>
+        <v>12T_Triso_ T21_4_FMF_UK_A1b</v>
       </c>
       <c r="I60" s="19" t="s">
         <v>129</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="K60" s="18" t="s">
         <v>130</v>
@@ -5776,7 +5867,7 @@
         <v>131</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="N60" s="20" t="s">
         <v>31</v>
@@ -5784,11 +5875,11 @@
       <c r="O60" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="P60" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q60" s="20" t="s">
-        <v>31</v>
+      <c r="P60" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="R60" s="31" t="s">
         <v>88</v>
@@ -5808,9 +5899,9 @@
       <c r="W60" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="41"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
@@ -5820,10 +5911,10 @@
         <v>45359</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D61" s="19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="2" t="s">
@@ -5832,7 +5923,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A8</v>
+        <v>Triso_single_sim_4_FMF_UK_A2</v>
       </c>
       <c r="I61" s="19" t="s">
         <v>129</v>
@@ -5844,15 +5935,15 @@
         <v>130</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N61" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O61" s="31" t="s">
+      <c r="N61" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" s="20" t="s">
         <v>77</v>
       </c>
       <c r="P61" s="20" t="s">
@@ -5891,10 +5982,10 @@
         <v>45359</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D62" s="19">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="2" t="s">
@@ -5903,7 +5994,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A9</v>
+        <v>Triso_single_sim_4_FMF_UK_A3</v>
       </c>
       <c r="I62" s="19" t="s">
         <v>129</v>
@@ -5915,7 +6006,7 @@
         <v>130</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>116</v>
@@ -5962,10 +6053,10 @@
         <v>45359</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D63" s="19">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="2" t="s">
@@ -5974,7 +6065,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A10</v>
+        <v>Triso_single_sim_4_FMF_UK_A4</v>
       </c>
       <c r="I63" s="19" t="s">
         <v>129</v>
@@ -5986,7 +6077,7 @@
         <v>130</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>118</v>
@@ -6033,10 +6124,10 @@
         <v>45359</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D64" s="19">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="2" t="s">
@@ -6045,7 +6136,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A11</v>
+        <v>Triso_single_sim_4_FMF_UK_A5</v>
       </c>
       <c r="I64" s="19" t="s">
         <v>129</v>
@@ -6057,7 +6148,7 @@
         <v>130</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>120</v>
@@ -6104,10 +6195,10 @@
         <v>45359</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D65" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="2" t="s">
@@ -6116,7 +6207,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A12</v>
+        <v>Triso_single_sim_4_FMF_UK_A6</v>
       </c>
       <c r="I65" s="19" t="s">
         <v>129</v>
@@ -6128,7 +6219,7 @@
         <v>130</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>122</v>
@@ -6175,10 +6266,10 @@
         <v>45359</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D66" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="2" t="s">
@@ -6187,7 +6278,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A13</v>
+        <v>Triso_single_sim_4_FMF_UK_A7</v>
       </c>
       <c r="I66" s="19" t="s">
         <v>129</v>
@@ -6199,7 +6290,7 @@
         <v>130</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>127</v>
@@ -6246,10 +6337,10 @@
         <v>45359</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D67" s="19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="2" t="s">
@@ -6258,7 +6349,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A14</v>
+        <v>Triso_single_sim_4_FMF_UK_A8</v>
       </c>
       <c r="I67" s="19" t="s">
         <v>129</v>
@@ -6270,7 +6361,7 @@
         <v>130</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>111</v>
@@ -6317,10 +6408,10 @@
         <v>45359</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D68" s="19">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="2" t="s">
@@ -6329,7 +6420,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A15</v>
+        <v>Triso_single_sim_4_FMF_UK_A9</v>
       </c>
       <c r="I68" s="19" t="s">
         <v>129</v>
@@ -6341,7 +6432,7 @@
         <v>130</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>116</v>
@@ -6388,10 +6479,10 @@
         <v>45359</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D69" s="19">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="2" t="s">
@@ -6400,7 +6491,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A16</v>
+        <v>Triso_single_sim_4_FMF_UK_A10</v>
       </c>
       <c r="I69" s="19" t="s">
         <v>129</v>
@@ -6412,7 +6503,7 @@
         <v>130</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>118</v>
@@ -6459,10 +6550,10 @@
         <v>45359</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D70" s="19">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="2" t="s">
@@ -6471,7 +6562,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A17</v>
+        <v>Triso_single_sim_4_FMF_UK_A11</v>
       </c>
       <c r="I70" s="19" t="s">
         <v>129</v>
@@ -6483,7 +6574,7 @@
         <v>130</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>120</v>
@@ -6530,10 +6621,10 @@
         <v>45359</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D71" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="2" t="s">
@@ -6542,7 +6633,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A18</v>
+        <v>Triso_single_sim_4_FMF_UK_A12</v>
       </c>
       <c r="I71" s="19" t="s">
         <v>129</v>
@@ -6554,7 +6645,7 @@
         <v>130</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>122</v>
@@ -6601,10 +6692,10 @@
         <v>45359</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D72" s="19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="2" t="s">
@@ -6613,7 +6704,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A19</v>
+        <v>Triso_single_sim_4_FMF_UK_A13</v>
       </c>
       <c r="I72" s="19" t="s">
         <v>129</v>
@@ -6625,12 +6716,12 @@
         <v>130</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N72" s="21" t="s">
+      <c r="N72" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O72" s="18" t="s">
@@ -6672,19 +6763,19 @@
         <v>45359</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D73" s="19">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="2" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_4_FMF_UK_A20_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A14</v>
       </c>
       <c r="I73" s="19" t="s">
         <v>129</v>
@@ -6696,12 +6787,12 @@
         <v>130</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N73" s="21" t="s">
+      <c r="N73" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O73" s="31" t="s">
@@ -6743,19 +6834,19 @@
         <v>45359</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="D74" s="19">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="2" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_4_FMF_UK_A20_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A15</v>
       </c>
       <c r="I74" s="19" t="s">
         <v>129</v>
@@ -6767,12 +6858,12 @@
         <v>130</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N74" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N74" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O74" s="31" t="s">
@@ -6814,19 +6905,19 @@
         <v>45359</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="D75" s="19">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A21_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A16</v>
       </c>
       <c r="I75" s="19" t="s">
         <v>129</v>
@@ -6838,15 +6929,15 @@
         <v>130</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N75" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O75" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="N75" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P75" s="20" t="s">
@@ -6885,19 +6976,19 @@
         <v>45359</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D76" s="19">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A21_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A17</v>
       </c>
       <c r="I76" s="19" t="s">
         <v>129</v>
@@ -6909,12 +7000,12 @@
         <v>130</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N76" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N76" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O76" s="31" t="s">
@@ -6956,19 +7047,19 @@
         <v>45359</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="D77" s="19">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A22_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A18</v>
       </c>
       <c r="I77" s="19" t="s">
         <v>129</v>
@@ -6980,15 +7071,15 @@
         <v>130</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N77" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O77" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N77" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O77" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P77" s="20" t="s">
@@ -7027,19 +7118,19 @@
         <v>45359</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="D78" s="19">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A22_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A19</v>
       </c>
       <c r="I78" s="19" t="s">
         <v>129</v>
@@ -7051,10 +7142,10 @@
         <v>130</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N78" s="21" t="s">
         <v>31</v>
@@ -7098,19 +7189,19 @@
         <v>45359</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D79" s="19">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="2" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A23_MC</v>
+        <v>Triso_sim_MC_4_FMF_UK_A20_MC</v>
       </c>
       <c r="I79" s="19" t="s">
         <v>129</v>
@@ -7125,7 +7216,7 @@
         <v>131</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N79" s="21" t="s">
         <v>31</v>
@@ -7169,19 +7260,19 @@
         <v>45359</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D80" s="19">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="2" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A23_DC</v>
+        <v>Triso_sim_MC_4_FMF_UK_A20_DC</v>
       </c>
       <c r="I80" s="19" t="s">
         <v>129</v>
@@ -7196,7 +7287,7 @@
         <v>131</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N80" s="21" t="s">
         <v>31</v>
@@ -7240,10 +7331,10 @@
         <v>45359</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D81" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="2" t="s">
@@ -7252,7 +7343,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A24_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A21_MC</v>
       </c>
       <c r="I81" s="19" t="s">
         <v>129</v>
@@ -7267,7 +7358,7 @@
         <v>131</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N81" s="21" t="s">
         <v>31</v>
@@ -7311,10 +7402,10 @@
         <v>45359</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D82" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="2" t="s">
@@ -7323,7 +7414,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A24_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A21_DC</v>
       </c>
       <c r="I82" s="19" t="s">
         <v>129</v>
@@ -7338,7 +7429,7 @@
         <v>131</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N82" s="21" t="s">
         <v>31</v>
@@ -7382,10 +7473,10 @@
         <v>45359</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D83" s="19">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="2" t="s">
@@ -7394,7 +7485,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A25_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A22_MC</v>
       </c>
       <c r="I83" s="19" t="s">
         <v>129</v>
@@ -7409,7 +7500,7 @@
         <v>131</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N83" s="21" t="s">
         <v>31</v>
@@ -7453,10 +7544,10 @@
         <v>45359</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D84" s="19">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="2" t="s">
@@ -7465,7 +7556,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A25_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A22_DC</v>
       </c>
       <c r="I84" s="19" t="s">
         <v>129</v>
@@ -7480,7 +7571,7 @@
         <v>131</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N84" s="21" t="s">
         <v>31</v>
@@ -7524,10 +7615,10 @@
         <v>45359</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D85" s="19">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="2" t="s">
@@ -7536,7 +7627,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A26_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A23_MC</v>
       </c>
       <c r="I85" s="19" t="s">
         <v>129</v>
@@ -7548,10 +7639,10 @@
         <v>130</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N85" s="21" t="s">
         <v>31</v>
@@ -7595,10 +7686,10 @@
         <v>45359</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D86" s="19">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="2" t="s">
@@ -7607,7 +7698,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A26_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A23_DC</v>
       </c>
       <c r="I86" s="19" t="s">
         <v>129</v>
@@ -7619,10 +7710,10 @@
         <v>130</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N86" s="21" t="s">
         <v>31</v>
@@ -7666,10 +7757,10 @@
         <v>45359</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D87" s="19">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="2" t="s">
@@ -7678,7 +7769,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A27_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A24_MC</v>
       </c>
       <c r="I87" s="19" t="s">
         <v>129</v>
@@ -7690,15 +7781,15 @@
         <v>130</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="N87" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O87" s="18" t="s">
+      <c r="O87" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P87" s="20" t="s">
@@ -7737,10 +7828,10 @@
         <v>45359</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D88" s="19">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="2" t="s">
@@ -7749,7 +7840,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A27_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A24_DC</v>
       </c>
       <c r="I88" s="19" t="s">
         <v>129</v>
@@ -7761,15 +7852,15 @@
         <v>130</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="N88" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O88" s="18" t="s">
+      <c r="O88" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P88" s="20" t="s">
@@ -7808,10 +7899,10 @@
         <v>45359</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D89" s="19">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="2" t="s">
@@ -7820,7 +7911,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A28_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A25_MC</v>
       </c>
       <c r="I89" s="19" t="s">
         <v>129</v>
@@ -7832,15 +7923,15 @@
         <v>130</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N89" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O89" s="31" t="s">
+      <c r="O89" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P89" s="20" t="s">
@@ -7879,10 +7970,10 @@
         <v>45359</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D90" s="19">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="2" t="s">
@@ -7891,7 +7982,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A28_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A25_DC</v>
       </c>
       <c r="I90" s="19" t="s">
         <v>129</v>
@@ -7903,15 +7994,15 @@
         <v>130</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N90" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O90" s="31" t="s">
+      <c r="O90" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P90" s="20" t="s">
@@ -7950,10 +8041,10 @@
         <v>45359</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D91" s="19">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="2" t="s">
@@ -7962,7 +8053,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A29_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A26_MC</v>
       </c>
       <c r="I91" s="19" t="s">
         <v>129</v>
@@ -7977,12 +8068,12 @@
         <v>139</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N91" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O91" s="18" t="s">
+      <c r="O91" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P91" s="20" t="s">
@@ -8021,10 +8112,10 @@
         <v>45359</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D92" s="19">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="2" t="s">
@@ -8033,7 +8124,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A29_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A26_DC</v>
       </c>
       <c r="I92" s="19" t="s">
         <v>129</v>
@@ -8048,12 +8139,12 @@
         <v>139</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N92" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O92" s="18" t="s">
+      <c r="O92" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P92" s="20" t="s">
@@ -8092,10 +8183,10 @@
         <v>45359</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D93" s="19">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="2" t="s">
@@ -8104,7 +8195,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A30_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A27_MC</v>
       </c>
       <c r="I93" s="19" t="s">
         <v>129</v>
@@ -8119,12 +8210,12 @@
         <v>139</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N93" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O93" s="31" t="s">
+      <c r="O93" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P93" s="20" t="s">
@@ -8163,10 +8254,10 @@
         <v>45359</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D94" s="19">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="2" t="s">
@@ -8175,7 +8266,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A30_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A27_DC</v>
       </c>
       <c r="I94" s="19" t="s">
         <v>129</v>
@@ -8190,12 +8281,12 @@
         <v>139</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N94" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O94" s="31" t="s">
+      <c r="O94" s="18" t="s">
         <v>77</v>
       </c>
       <c r="P94" s="20" t="s">
@@ -8234,10 +8325,10 @@
         <v>45359</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D95" s="19">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="2" t="s">
@@ -8246,7 +8337,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A31_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A28_MC</v>
       </c>
       <c r="I95" s="19" t="s">
         <v>129</v>
@@ -8261,7 +8352,7 @@
         <v>139</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N95" s="21" t="s">
         <v>31</v>
@@ -8305,10 +8396,10 @@
         <v>45359</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D96" s="19">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="2" t="s">
@@ -8317,7 +8408,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A31_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A28_DC</v>
       </c>
       <c r="I96" s="19" t="s">
         <v>129</v>
@@ -8332,7 +8423,7 @@
         <v>139</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N96" s="21" t="s">
         <v>31</v>
@@ -8376,10 +8467,10 @@
         <v>45359</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D97" s="19">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="2" t="s">
@@ -8388,7 +8479,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A32_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A29_MC</v>
       </c>
       <c r="I97" s="19" t="s">
         <v>129</v>
@@ -8400,10 +8491,10 @@
         <v>130</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N97" s="21" t="s">
         <v>31</v>
@@ -8447,10 +8538,10 @@
         <v>45359</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D98" s="19">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="2" t="s">
@@ -8459,7 +8550,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A32_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A29_DC</v>
       </c>
       <c r="I98" s="19" t="s">
         <v>129</v>
@@ -8471,10 +8562,10 @@
         <v>130</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N98" s="21" t="s">
         <v>31</v>
@@ -8518,10 +8609,10 @@
         <v>45359</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D99" s="19">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="2" t="s">
@@ -8530,7 +8621,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A33_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A30_MC</v>
       </c>
       <c r="I99" s="19" t="s">
         <v>129</v>
@@ -8542,10 +8633,10 @@
         <v>130</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="N99" s="21" t="s">
         <v>31</v>
@@ -8589,10 +8680,10 @@
         <v>45359</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D100" s="19">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="2" t="s">
@@ -8601,7 +8692,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A33_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A30_DC</v>
       </c>
       <c r="I100" s="19" t="s">
         <v>129</v>
@@ -8613,10 +8704,10 @@
         <v>130</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="N100" s="21" t="s">
         <v>31</v>
@@ -8660,10 +8751,10 @@
         <v>45359</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D101" s="19">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="2" t="s">
@@ -8672,7 +8763,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A34_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A31_MC</v>
       </c>
       <c r="I101" s="19" t="s">
         <v>129</v>
@@ -8684,10 +8775,10 @@
         <v>130</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N101" s="21" t="s">
         <v>31</v>
@@ -8731,10 +8822,10 @@
         <v>45359</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D102" s="19">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="2" t="s">
@@ -8743,7 +8834,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A34_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A31_DC</v>
       </c>
       <c r="I102" s="19" t="s">
         <v>129</v>
@@ -8755,10 +8846,10 @@
         <v>130</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N102" s="21" t="s">
         <v>31</v>
@@ -8802,10 +8893,10 @@
         <v>45359</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D103" s="19">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="2" t="s">
@@ -8814,7 +8905,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A35_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A32_MC</v>
       </c>
       <c r="I103" s="19" t="s">
         <v>129</v>
@@ -8829,7 +8920,7 @@
         <v>146</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N103" s="21" t="s">
         <v>31</v>
@@ -8873,10 +8964,10 @@
         <v>45359</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D104" s="19">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="2" t="s">
@@ -8885,7 +8976,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A35_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A32_DC</v>
       </c>
       <c r="I104" s="19" t="s">
         <v>129</v>
@@ -8900,7 +8991,7 @@
         <v>146</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N104" s="21" t="s">
         <v>31</v>
@@ -8944,10 +9035,10 @@
         <v>45359</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D105" s="19">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="2" t="s">
@@ -8956,7 +9047,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A36_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A33_MC</v>
       </c>
       <c r="I105" s="19" t="s">
         <v>129</v>
@@ -8971,7 +9062,7 @@
         <v>146</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N105" s="21" t="s">
         <v>31</v>
@@ -9015,10 +9106,10 @@
         <v>45359</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D106" s="19">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="2" t="s">
@@ -9027,7 +9118,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A36_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A33_DC</v>
       </c>
       <c r="I106" s="19" t="s">
         <v>129</v>
@@ -9042,7 +9133,7 @@
         <v>146</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N106" s="21" t="s">
         <v>31</v>
@@ -9086,10 +9177,10 @@
         <v>45359</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D107" s="19">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="2" t="s">
@@ -9098,7 +9189,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A37_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A34_MC</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>129</v>
@@ -9106,19 +9197,19 @@
       <c r="J107" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="18" t="s">
         <v>130</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N107" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O107" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N107" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O107" s="31" t="s">
         <v>77</v>
       </c>
       <c r="P107" s="20" t="s">
@@ -9127,7 +9218,7 @@
       <c r="Q107" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R107" s="20" t="s">
+      <c r="R107" s="31" t="s">
         <v>88</v>
       </c>
       <c r="S107" s="20" t="s">
@@ -9150,81 +9241,507 @@
       <c r="Z107" s="19"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A108" s="28">
+      <c r="A108" s="27">
         <v>45356</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B108" s="27">
         <v>45359</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="19">
+        <v>36</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A34_DC</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N108" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O108" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P108" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q108" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R108" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S108" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T108" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U108" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V108" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W108" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X108" s="19"/>
+      <c r="Y108" s="19"/>
+      <c r="Z108" s="19"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A109" s="27">
+        <v>45356</v>
+      </c>
+      <c r="B109" s="27">
+        <v>45359</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D109" s="19">
+        <v>37</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A35_MC</v>
+      </c>
+      <c r="I109" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N109" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O109" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P109" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q109" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R109" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S109" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T109" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U109" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V109" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W109" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X109" s="19"/>
+      <c r="Y109" s="19"/>
+      <c r="Z109" s="19"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A110" s="27">
+        <v>45356</v>
+      </c>
+      <c r="B110" s="27">
+        <v>45359</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D110" s="19">
+        <v>37</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A35_DC</v>
+      </c>
+      <c r="I110" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N110" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O110" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P110" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q110" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R110" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S110" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T110" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U110" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V110" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W110" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X110" s="19"/>
+      <c r="Y110" s="19"/>
+      <c r="Z110" s="19"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A111" s="27">
+        <v>45356</v>
+      </c>
+      <c r="B111" s="27">
+        <v>45359</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" s="19">
+        <v>16</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A36_MC</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N111" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O111" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P111" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q111" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R111" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S111" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T111" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U111" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V111" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W111" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X111" s="19"/>
+      <c r="Y111" s="19"/>
+      <c r="Z111" s="19"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A112" s="27">
+        <v>45356</v>
+      </c>
+      <c r="B112" s="27">
+        <v>45359</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D112" s="19">
+        <v>16</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A36_DC</v>
+      </c>
+      <c r="I112" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N112" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O112" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P112" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q112" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R112" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S112" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T112" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U112" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V112" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W112" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X112" s="19"/>
+      <c r="Y112" s="19"/>
+      <c r="Z112" s="19"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A113" s="27">
+        <v>45356</v>
+      </c>
+      <c r="B113" s="27">
+        <v>45359</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113" s="19">
+        <v>17</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G113" s="5"/>
+      <c r="H113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A37_MC</v>
+      </c>
+      <c r="I113" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N113" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O113" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P113" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q113" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R113" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S113" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T113" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U113" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V113" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W113" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X113" s="19"/>
+      <c r="Y113" s="19"/>
+      <c r="Z113" s="19"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A114" s="28">
+        <v>45356</v>
+      </c>
+      <c r="B114" s="28">
+        <v>45359</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D114" s="15">
         <v>17</v>
       </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="6" t="s">
+      <c r="E114" s="7"/>
+      <c r="F114" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="6" t="str">
-        <f t="shared" ref="H108" si="4">F108&amp;"_"&amp;C108</f>
+      <c r="G114" s="7"/>
+      <c r="H114" s="6" t="str">
+        <f t="shared" ref="H114" si="4">F114&amp;"_"&amp;C114</f>
         <v>Triso_twin_sim_4_FMF_UK_A37_DC</v>
       </c>
-      <c r="I108" s="15" t="s">
+      <c r="I114" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J114" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K108" s="6" t="s">
+      <c r="K114" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="L108" s="6" t="s">
+      <c r="L114" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M108" s="6" t="s">
+      <c r="M114" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N108" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O108" s="16" t="s">
+      <c r="N114" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O114" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P108" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q108" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R108" s="16" t="s">
+      <c r="P114" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q114" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R114" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="S108" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T108" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U108" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V108" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W108" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X108" s="15"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="15"/>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D125" s="1"/>
+      <c r="S114" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T114" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U114" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V114" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W114" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+      <c r="Z114" s="15"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="761" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87976C3B-1D7B-48CF-B1EF-8D7B8379C55A}"/>
+  <xr:revisionPtr revIDLastSave="1010" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26CE76D4-8984-466B-BC01-FA84304A56ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="310">
   <si>
     <t>Analysis</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Triso_twin_sim</t>
   </si>
   <si>
-    <t>3_FMF_UK_A1</t>
-  </si>
-  <si>
     <t>2T_Triso</t>
   </si>
   <si>
@@ -378,27 +375,15 @@
     <t>&gt; 4 NTD cases</t>
   </si>
   <si>
-    <t>3_FMF_UK_A2</t>
-  </si>
-  <si>
     <t>AFP, hCGß</t>
   </si>
   <si>
-    <t>3_FMF_UK_A3</t>
-  </si>
-  <si>
     <t>AFP, Free ß hCG, uE3</t>
   </si>
   <si>
-    <t>3_FMF_UK_A4</t>
-  </si>
-  <si>
     <t>AFP, hCGß, uE3</t>
   </si>
   <si>
-    <t>3_FMF_UK_A5</t>
-  </si>
-  <si>
     <t>AFP, Free ß hCG, uE3, InhibinA</t>
   </si>
   <si>
@@ -934,13 +919,61 @@
   </si>
   <si>
     <t>Clinical_1T_2T</t>
+  </si>
+  <si>
+    <t>1:300</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A1b</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A1a</t>
+  </si>
+  <si>
+    <t>1:205</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A2a</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A2b</t>
+  </si>
+  <si>
+    <t>1:500</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A3a</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A3b</t>
+  </si>
+  <si>
+    <t>1:160</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A4a</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A4b</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A5a</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_A5b</t>
+  </si>
+  <si>
+    <t>1:175</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_MFs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,12 +1018,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1171,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1256,20 +1283,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1628,13 +1682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D59CA7-78DE-483F-8DC5-D261426A3AA3}">
-  <dimension ref="A1:AL131"/>
+  <dimension ref="A1:AL137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,13 +1825,13 @@
         <v>25</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Y2" s="24" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Z2" s="24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1798,7 +1852,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>F3&amp;"_"&amp;C3</f>
@@ -1877,7 +1931,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" ref="H4:H25" si="0">F4&amp;"_"&amp;C4</f>
@@ -1956,7 +2010,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2090,7 +2144,7 @@
         <v>109</v>
       </c>
       <c r="Y6" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Z6" s="18">
         <v>16</v>
@@ -2169,7 +2223,7 @@
         <v>109</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Z7" s="18">
         <v>16</v>
@@ -2248,7 +2302,7 @@
         <v>109</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Z8" s="14">
         <v>16</v>
@@ -2262,7 +2316,7 @@
         <v>45341</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D9" s="23">
         <v>1</v>
@@ -2272,7 +2326,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2341,7 +2395,7 @@
         <v>45341</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D10" s="23">
         <v>2</v>
@@ -2351,7 +2405,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2420,7 +2474,7 @@
         <v>45341</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D11" s="23">
         <v>3</v>
@@ -2429,7 +2483,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2498,7 +2552,7 @@
         <v>45341</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -2508,7 +2562,7 @@
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2577,7 +2631,7 @@
         <v>45341</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D13" s="23">
         <v>2</v>
@@ -2587,7 +2641,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2656,7 +2710,7 @@
         <v>45341</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D14" s="21">
         <v>3</v>
@@ -2666,7 +2720,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2735,14 +2789,14 @@
         <v>45337</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>50</v>
@@ -2814,14 +2868,14 @@
         <v>45337</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>50</v>
@@ -2852,7 +2906,7 @@
         <v>32</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="19" t="s">
         <v>31</v>
@@ -2900,7 +2954,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>56</v>
@@ -2931,7 +2985,7 @@
         <v>32</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="19" t="s">
         <v>31</v>
@@ -2979,7 +3033,7 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>59</v>
@@ -3058,7 +3112,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>62</v>
@@ -3130,14 +3184,14 @@
         <v>45337</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D20" s="23">
         <v>2</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>67</v>
@@ -3209,14 +3263,14 @@
         <v>45337</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D21" s="23">
         <v>2</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>67</v>
@@ -3247,7 +3301,7 @@
         <v>65</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="19" t="s">
         <v>31</v>
@@ -3295,7 +3349,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>69</v>
@@ -3367,14 +3421,14 @@
         <v>45337</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D23" s="23">
         <v>12</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>70</v>
@@ -3446,14 +3500,14 @@
         <v>45337</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D24" s="23">
         <v>12</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>70</v>
@@ -3484,7 +3538,7 @@
         <v>65</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q24" s="19" t="s">
         <v>31</v>
@@ -3532,7 +3586,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>72</v>
@@ -3610,13 +3664,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H26" s="2" t="str">
         <f>F26&amp;"_"&amp;C26</f>
@@ -3647,7 +3701,7 @@
         <v>78</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="R26" s="17" t="s">
         <v>79</v>
@@ -3656,7 +3710,7 @@
         <v>78</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="U26" s="30" t="s">
         <v>31</v>
@@ -3691,13 +3745,13 @@
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H27" s="5" t="str">
         <f>F27&amp;"_"&amp;C27</f>
@@ -3725,7 +3779,7 @@
         <v>77</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="15" t="s">
         <v>31</v>
@@ -3734,7 +3788,7 @@
         <v>31</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="T27" s="15" t="s">
         <v>31</v>
@@ -3772,16 +3826,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" ref="H28:H113" si="3">F28&amp;"_"&amp;C28</f>
+        <f t="shared" ref="H28:H119" si="3">F28&amp;"_"&amp;C28</f>
         <v>1T_Triso_2_FMF_UK_A1</v>
       </c>
       <c r="I28" s="10">
@@ -3827,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="X28" s="10">
         <v>250</v>
@@ -3853,13 +3907,13 @@
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3887,7 +3941,7 @@
         <v>77</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="19" t="s">
         <v>31</v>
@@ -3896,7 +3950,7 @@
         <v>87</v>
       </c>
       <c r="S29" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T29" s="19" t="s">
         <v>31</v>
@@ -3905,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W29" s="19" t="s">
         <v>31</v>
@@ -3934,13 +3988,13 @@
         <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3968,7 +4022,7 @@
         <v>77</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q30" s="19" t="s">
         <v>31</v>
@@ -3977,7 +4031,7 @@
         <v>87</v>
       </c>
       <c r="S30" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T30" s="19" t="s">
         <v>31</v>
@@ -3986,7 +4040,7 @@
         <v>90</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W30" s="19" t="s">
         <v>31</v>
@@ -4015,13 +4069,13 @@
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4049,7 +4103,7 @@
         <v>77</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q31" s="19" t="s">
         <v>31</v>
@@ -4058,7 +4112,7 @@
         <v>87</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T31" s="19" t="s">
         <v>31</v>
@@ -4067,7 +4121,7 @@
         <v>90</v>
       </c>
       <c r="V31" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W31" s="19" t="s">
         <v>31</v>
@@ -4096,13 +4150,13 @@
         <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4130,7 +4184,7 @@
         <v>77</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q32" s="19" t="s">
         <v>31</v>
@@ -4139,7 +4193,7 @@
         <v>87</v>
       </c>
       <c r="S32" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T32" s="19" t="s">
         <v>31</v>
@@ -4148,7 +4202,7 @@
         <v>90</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W32" s="19" t="s">
         <v>31</v>
@@ -4177,13 +4231,13 @@
         <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4211,7 +4265,7 @@
         <v>77</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="Q33" s="20" t="s">
         <v>31</v>
@@ -4220,7 +4274,7 @@
         <v>87</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T33" s="19" t="s">
         <v>31</v>
@@ -4229,7 +4283,7 @@
         <v>90</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W33" s="19" t="s">
         <v>31</v>
@@ -4258,13 +4312,13 @@
         <v>7</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4292,7 +4346,7 @@
         <v>77</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="Q34" s="20" t="s">
         <v>31</v>
@@ -4301,7 +4355,7 @@
         <v>87</v>
       </c>
       <c r="S34" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T34" s="19" t="s">
         <v>31</v>
@@ -4310,7 +4364,7 @@
         <v>90</v>
       </c>
       <c r="V34" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W34" s="19" t="s">
         <v>31</v>
@@ -4333,19 +4387,19 @@
         <v>45348</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D35" s="18">
         <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G35" s="45" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4373,7 +4427,7 @@
         <v>77</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q35" s="19" t="s">
         <v>31</v>
@@ -4382,7 +4436,7 @@
         <v>87</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T35" s="19" t="s">
         <v>31</v>
@@ -4391,7 +4445,7 @@
         <v>90</v>
       </c>
       <c r="V35" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W35" s="19" t="s">
         <v>31</v>
@@ -4414,19 +4468,19 @@
         <v>45348</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D36" s="18">
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4454,7 +4508,7 @@
         <v>77</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q36" s="19" t="s">
         <v>31</v>
@@ -4463,7 +4517,7 @@
         <v>87</v>
       </c>
       <c r="S36" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T36" s="19" t="s">
         <v>31</v>
@@ -4472,7 +4526,7 @@
         <v>90</v>
       </c>
       <c r="V36" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W36" s="19" t="s">
         <v>31</v>
@@ -4495,19 +4549,19 @@
         <v>45348</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D37" s="18">
         <v>2</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4535,7 +4589,7 @@
         <v>77</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q37" s="19" t="s">
         <v>31</v>
@@ -4544,7 +4598,7 @@
         <v>87</v>
       </c>
       <c r="S37" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T37" s="19" t="s">
         <v>31</v>
@@ -4553,7 +4607,7 @@
         <v>90</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W37" s="19" t="s">
         <v>31</v>
@@ -4562,10 +4616,10 @@
         <v>134</v>
       </c>
       <c r="Y37" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Z37" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -4576,19 +4630,19 @@
         <v>45348</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D38" s="18">
         <v>2</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4616,7 +4670,7 @@
         <v>77</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q38" s="19" t="s">
         <v>31</v>
@@ -4625,7 +4679,7 @@
         <v>87</v>
       </c>
       <c r="S38" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T38" s="19" t="s">
         <v>31</v>
@@ -4634,7 +4688,7 @@
         <v>90</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W38" s="19" t="s">
         <v>31</v>
@@ -4643,10 +4697,10 @@
         <v>107</v>
       </c>
       <c r="Y38" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Z38" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -4657,19 +4711,19 @@
         <v>45348</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D39" s="18">
         <v>10</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4697,7 +4751,7 @@
         <v>77</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q39" s="19" t="s">
         <v>31</v>
@@ -4706,7 +4760,7 @@
         <v>87</v>
       </c>
       <c r="S39" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T39" s="19" t="s">
         <v>31</v>
@@ -4715,7 +4769,7 @@
         <v>90</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W39" s="19" t="s">
         <v>31</v>
@@ -4724,10 +4778,10 @@
         <v>134</v>
       </c>
       <c r="Y39" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Z39" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -4738,19 +4792,19 @@
         <v>45348</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D40" s="18">
         <v>10</v>
       </c>
-      <c r="E40" s="52" t="s">
-        <v>295</v>
+      <c r="E40" s="48" t="s">
+        <v>290</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H40" s="5" t="str">
         <f t="shared" si="3"/>
@@ -4778,7 +4832,7 @@
         <v>77</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Q40" s="15" t="s">
         <v>31</v>
@@ -4787,7 +4841,7 @@
         <v>87</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="T40" s="15" t="s">
         <v>31</v>
@@ -4795,8 +4849,8 @@
       <c r="U40" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="V40" s="19" t="s">
-        <v>31</v>
+      <c r="V40" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="W40" s="19" t="s">
         <v>31</v>
@@ -4805,10 +4859,10 @@
         <v>107</v>
       </c>
       <c r="Y40" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
@@ -4819,23 +4873,23 @@
         <v>45351</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A1</v>
+        <v>2T_Triso_3_FMF_UK_A1a</v>
       </c>
       <c r="I41" s="10">
         <v>2</v>
@@ -4844,43 +4898,43 @@
         <v>28</v>
       </c>
       <c r="K41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L41" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="7" t="s">
+      <c r="N41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="N41" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R41" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U41" s="17" t="s">
+      <c r="V41" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="V41" s="7" t="s">
+      <c r="W41" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="W41" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="X41" s="10">
         <v>455</v>
@@ -4888,7 +4942,7 @@
       <c r="Y41" s="10">
         <v>2000</v>
       </c>
-      <c r="Z41" s="50">
+      <c r="Z41" s="46">
         <v>540</v>
       </c>
     </row>
@@ -4899,78 +4953,78 @@
       <c r="B42" s="26">
         <v>45351</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="18">
-        <v>3</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="C42" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" s="50">
+        <v>2</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="49" t="str">
+        <f t="shared" ref="H42" si="4">F42&amp;"_"&amp;C42</f>
+        <v>2T_Triso_3_FMF_UK_A1b</v>
+      </c>
+      <c r="I42" s="50">
+        <v>2</v>
+      </c>
+      <c r="J42" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H42" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A2</v>
-      </c>
-      <c r="I42" s="18">
-        <v>2</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="17" t="s">
+      <c r="L42" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="L42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="19" t="s">
+      <c r="N42" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q42" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q42" s="51" t="s">
         <v>31</v>
       </c>
       <c r="R42" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U42" s="48" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="S42" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="V42" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="W42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X42" s="18">
+      <c r="W42" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="X42" s="50">
         <v>455</v>
       </c>
-      <c r="Y42" s="18">
-        <v>2000</v>
-      </c>
-      <c r="Z42" s="50">
-        <v>540</v>
+      <c r="Y42" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z42" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
@@ -4980,77 +5034,77 @@
       <c r="B43" s="26">
         <v>45351</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="18">
-        <v>6</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="C43" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" s="50">
+        <v>3</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H43" s="49" t="str">
+        <f t="shared" si="3"/>
+        <v>2T_Triso_3_FMF_UK_A2a</v>
+      </c>
+      <c r="I43" s="50">
+        <v>2</v>
+      </c>
+      <c r="J43" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A3</v>
-      </c>
-      <c r="I43" s="18">
-        <v>2</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N43" s="20" t="s">
+      <c r="L43" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="N43" s="51" t="s">
         <v>31</v>
       </c>
       <c r="O43" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="P43" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="19" t="s">
+      <c r="P43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q43" s="51" t="s">
         <v>31</v>
       </c>
       <c r="R43" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T43" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U43" s="48" t="s">
+      <c r="S43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T43" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V43" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="V43" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W43" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X43" s="18">
+      <c r="W43" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="X43" s="50">
         <v>455</v>
       </c>
-      <c r="Y43" s="18">
+      <c r="Y43" s="50">
         <v>2000</v>
       </c>
-      <c r="Z43" s="50">
+      <c r="Z43" s="46">
         <v>540</v>
       </c>
     </row>
@@ -5061,78 +5115,78 @@
       <c r="B44" s="26">
         <v>45351</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="18">
-        <v>7</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="C44" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" s="50">
+        <v>3</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H44" s="49" t="str">
+        <f t="shared" ref="H44" si="5">F44&amp;"_"&amp;C44</f>
+        <v>2T_Triso_3_FMF_UK_A2b</v>
+      </c>
+      <c r="I44" s="50">
+        <v>2</v>
+      </c>
+      <c r="J44" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A4</v>
-      </c>
-      <c r="I44" s="18">
-        <v>2</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N44" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P44" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q44" s="19" t="s">
+      <c r="L44" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="N44" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="51" t="s">
         <v>31</v>
       </c>
       <c r="R44" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S44" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T44" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U44" s="48" t="s">
-        <v>110</v>
+      <c r="S44" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="T44" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="V44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="W44" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X44" s="18">
-        <v>455</v>
-      </c>
-      <c r="Y44" s="18">
+      <c r="W44" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="X44" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y44" s="50">
         <v>2000</v>
       </c>
-      <c r="Z44" s="51">
-        <v>540</v>
+      <c r="Z44" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -5143,23 +5197,23 @@
         <v>45351</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="D45" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A5</v>
+        <v>2T_Triso_3_FMF_UK_A3a</v>
       </c>
       <c r="I45" s="18">
         <v>2</v>
@@ -5168,40 +5222,40 @@
         <v>28</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L45" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N45" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="R45" s="30" t="s">
         <v>87</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U45" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="T45" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V45" s="51" t="s">
         <v>110</v>
-      </c>
-      <c r="V45" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="W45" s="19" t="s">
         <v>31</v>
@@ -5212,7 +5266,7 @@
       <c r="Y45" s="18">
         <v>2000</v>
       </c>
-      <c r="Z45" s="50">
+      <c r="Z45" s="46">
         <v>540</v>
       </c>
     </row>
@@ -5224,23 +5278,23 @@
         <v>45351</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="D46" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>2T_Triso_3_FMF_UK_A6</v>
+        <f t="shared" ref="H46" si="6">F46&amp;"_"&amp;C46</f>
+        <v>2T_Triso_3_FMF_UK_A3b</v>
       </c>
       <c r="I46" s="18">
         <v>2</v>
@@ -5249,28 +5303,28 @@
         <v>28</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L46" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N46" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N46" s="51" t="s">
         <v>31</v>
       </c>
       <c r="O46" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P46" s="19" t="s">
-        <v>31</v>
+        <v>303</v>
       </c>
       <c r="Q46" s="19" t="s">
         <v>31</v>
       </c>
       <c r="R46" s="30" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="S46" s="19" t="s">
         <v>31</v>
@@ -5278,8 +5332,8 @@
       <c r="T46" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U46" s="48" t="s">
-        <v>110</v>
+      <c r="U46" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="V46" s="19" t="s">
         <v>31</v>
@@ -5290,11 +5344,11 @@
       <c r="X46" s="18">
         <v>455</v>
       </c>
-      <c r="Y46" s="18">
-        <v>2000</v>
-      </c>
-      <c r="Z46" s="46">
-        <v>540</v>
+      <c r="Y46" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z46" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
@@ -5305,47 +5359,47 @@
         <v>45351</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="D47" s="18">
-        <v>8</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>294</v>
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G47" s="45" t="s">
-        <v>282</v>
+        <v>106</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A7_MC</v>
+        <v>2T_Triso_3_FMF_UK_A4a</v>
       </c>
       <c r="I47" s="18">
         <v>2</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L47" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N47" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N47" s="51" t="s">
         <v>31</v>
       </c>
       <c r="O47" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P47" s="19" t="s">
-        <v>31</v>
+      <c r="P47" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="Q47" s="19" t="s">
         <v>31</v>
@@ -5353,29 +5407,29 @@
       <c r="R47" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S47" s="19" t="s">
-        <v>31</v>
+      <c r="S47" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="T47" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U47" s="48" t="s">
+      <c r="U47" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V47" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="V47" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="W47" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X47" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y47" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z47" s="23" t="s">
-        <v>31</v>
+      <c r="X47" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y47" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Z47" s="46">
+        <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -5386,44 +5440,44 @@
         <v>45351</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="D48" s="18">
-        <v>8</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>295</v>
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>281</v>
+        <v>106</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="H48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A7_DC</v>
+        <f t="shared" ref="H48" si="7">F48&amp;"_"&amp;C48</f>
+        <v>2T_Triso_3_FMF_UK_A4b</v>
       </c>
       <c r="I48" s="18">
         <v>2</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L48" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>77</v>
+        <v>114</v>
+      </c>
+      <c r="N48" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="P48" s="19" t="s">
         <v>31</v>
@@ -5435,13 +5489,13 @@
         <v>87</v>
       </c>
       <c r="S48" s="19" t="s">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="T48" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U48" s="48" t="s">
-        <v>110</v>
+      <c r="U48" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="V48" s="19" t="s">
         <v>31</v>
@@ -5449,11 +5503,11 @@
       <c r="W48" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X48" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y48" s="23" t="s">
-        <v>31</v>
+      <c r="X48" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y48" s="18">
+        <v>2000</v>
       </c>
       <c r="Z48" s="23" t="s">
         <v>31</v>
@@ -5467,77 +5521,77 @@
         <v>45351</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="D49" s="18">
-        <v>9</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>294</v>
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G49" s="45" t="s">
-        <v>284</v>
+        <v>106</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A8_MC</v>
+        <v>2T_Triso_3_FMF_UK_A5a</v>
       </c>
       <c r="I49" s="18">
         <v>2</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L49" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O49" s="30" t="s">
+      <c r="O49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P49" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q49" s="19" t="s">
-        <v>31</v>
+      <c r="P49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="R49" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S49" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T49" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U49" s="48" t="s">
+      <c r="S49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U49" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V49" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="V49" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="W49" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X49" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y49" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z49" s="23" t="s">
-        <v>31</v>
+      <c r="X49" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y49" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Z49" s="46">
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
@@ -5548,158 +5602,158 @@
         <v>45351</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="D50" s="18">
-        <v>9</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>295</v>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" s="45" t="s">
-        <v>283</v>
+        <v>106</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="H50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A8_DC</v>
+        <f t="shared" ref="H50:H51" si="8">F50&amp;"_"&amp;C50</f>
+        <v>2T_Triso_3_FMF_UK_A5b</v>
       </c>
       <c r="I50" s="18">
         <v>2</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L50" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N50" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O50" s="30" t="s">
+      <c r="O50" s="2" t="s">
         <v>77</v>
       </c>
       <c r="P50" s="19" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="Q50" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R50" s="30" t="s">
+      <c r="R50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X50" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y50" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z50" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="53">
+        <v>45348</v>
+      </c>
+      <c r="B51" s="53">
+        <v>45351</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" s="55">
+        <v>1</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v>2T_Triso_3_FMF_UK_MFs</v>
+      </c>
+      <c r="I51" s="55">
+        <v>2</v>
+      </c>
+      <c r="J51" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="N51" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q51" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="R51" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="S50" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T50" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U50" s="48" t="s">
+      <c r="S51" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="T51" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="U51" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="V51" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="V50" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W50" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X50" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y50" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z50" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A51" s="26">
-        <v>45348</v>
-      </c>
-      <c r="B51" s="26">
-        <v>45351</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="18">
-        <v>11</v>
-      </c>
-      <c r="E51" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G51" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="H51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A9_MC</v>
-      </c>
-      <c r="I51" s="18">
-        <v>2</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N51" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="P51" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q51" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R51" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S51" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T51" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U51" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="V51" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W51" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X51" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y51" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z51" s="23" t="s">
-        <v>31</v>
+      <c r="W51" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="X51" s="55">
+        <v>455</v>
+      </c>
+      <c r="Y51" s="55">
+        <v>2000</v>
+      </c>
+      <c r="Z51" s="61">
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
@@ -5710,38 +5764,38 @@
         <v>45351</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="D52" s="18">
-        <v>11</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>295</v>
+        <v>5</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>285</v>
+        <v>106</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A9_DC</v>
+        <v>2T_Triso_3_FMF_UK_A6</v>
       </c>
       <c r="I52" s="18">
         <v>2</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L52" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N52" s="20" t="s">
         <v>31</v>
@@ -5749,8 +5803,8 @@
       <c r="O52" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="P52" s="19" t="s">
-        <v>31</v>
+      <c r="P52" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="Q52" s="19" t="s">
         <v>31</v>
@@ -5758,29 +5812,29 @@
       <c r="R52" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S52" s="19" t="s">
-        <v>31</v>
+      <c r="S52" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="T52" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U52" s="48" t="s">
+      <c r="U52" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V52" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="V52" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="W52" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X52" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y52" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z52" s="23" t="s">
-        <v>31</v>
+      <c r="X52" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y52" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Z52" s="46">
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
@@ -5791,23 +5845,23 @@
         <v>45351</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D53" s="18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A10_MC</v>
+        <v>Triso_sim_MC_3_FMF_UK_A7_MC</v>
       </c>
       <c r="I53" s="18">
         <v>2</v>
@@ -5816,13 +5870,13 @@
         <v>103</v>
       </c>
       <c r="K53" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L53" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="L53" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="N53" s="20" t="s">
         <v>31</v>
@@ -5830,8 +5884,8 @@
       <c r="O53" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P53" s="19" t="s">
-        <v>31</v>
+      <c r="P53" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="Q53" s="19" t="s">
         <v>31</v>
@@ -5839,29 +5893,29 @@
       <c r="R53" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S53" s="19" t="s">
-        <v>31</v>
+      <c r="S53" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="T53" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U53" s="48" t="s">
+      <c r="U53" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V53" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="V53" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="W53" s="19" t="s">
         <v>31</v>
       </c>
       <c r="X53" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Y53" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Z53" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
@@ -5872,23 +5926,23 @@
         <v>45351</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D54" s="18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A10_DC</v>
+        <v>Triso_sim_DC_3_FMF_UK_A7_DC</v>
       </c>
       <c r="I54" s="18">
         <v>2</v>
@@ -5897,13 +5951,13 @@
         <v>103</v>
       </c>
       <c r="K54" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L54" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="L54" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="N54" s="20" t="s">
         <v>31</v>
@@ -5911,8 +5965,8 @@
       <c r="O54" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P54" s="19" t="s">
-        <v>31</v>
+      <c r="P54" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="Q54" s="19" t="s">
         <v>31</v>
@@ -5920,29 +5974,29 @@
       <c r="R54" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S54" s="19" t="s">
-        <v>31</v>
+      <c r="S54" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="T54" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U54" s="48" t="s">
+      <c r="U54" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V54" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="V54" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="W54" s="19" t="s">
         <v>31</v>
       </c>
       <c r="X54" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Y54" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Z54" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
@@ -5953,23 +6007,23 @@
         <v>45351</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D55" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A11_MC</v>
+        <v>Triso_sim_MC_3_FMF_UK_A8_MC</v>
       </c>
       <c r="I55" s="18">
         <v>2</v>
@@ -5978,13 +6032,13 @@
         <v>103</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L55" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N55" s="20" t="s">
         <v>31</v>
@@ -5992,8 +6046,8 @@
       <c r="O55" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="P55" s="19" t="s">
-        <v>31</v>
+      <c r="P55" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="Q55" s="19" t="s">
         <v>31</v>
@@ -6001,29 +6055,29 @@
       <c r="R55" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="19" t="s">
-        <v>31</v>
+      <c r="S55" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="T55" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U55" s="48" t="s">
+      <c r="U55" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V55" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="V55" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="W55" s="19" t="s">
         <v>31</v>
       </c>
       <c r="X55" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Y55" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Z55" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
@@ -6034,23 +6088,23 @@
         <v>45351</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D56" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G56" s="45" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H56" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_DC_3_FMF_UK_A11_DC</v>
+        <v>Triso_sim_DC_3_FMF_UK_A8_DC</v>
       </c>
       <c r="I56" s="18">
         <v>2</v>
@@ -6059,13 +6113,13 @@
         <v>103</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L56" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N56" s="20" t="s">
         <v>31</v>
@@ -6073,8 +6127,8 @@
       <c r="O56" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="P56" s="19" t="s">
-        <v>31</v>
+      <c r="P56" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="Q56" s="19" t="s">
         <v>31</v>
@@ -6082,29 +6136,29 @@
       <c r="R56" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S56" s="19" t="s">
-        <v>31</v>
+      <c r="S56" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="T56" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U56" s="48" t="s">
+      <c r="U56" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V56" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="V56" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="W56" s="19" t="s">
         <v>31</v>
       </c>
       <c r="X56" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Y56" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Z56" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
@@ -6115,23 +6169,23 @@
         <v>45351</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D57" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H57" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_3_FMF_UK_A12_MC</v>
+        <v>Triso_sim_MC_3_FMF_UK_A9_MC</v>
       </c>
       <c r="I57" s="18">
         <v>2</v>
@@ -6139,599 +6193,623 @@
       <c r="J57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>108</v>
+      <c r="K57" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="L57" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N57" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O57" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="N57" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="P57" s="19" t="s">
-        <v>31</v>
+      <c r="P57" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="Q57" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R57" s="19" t="s">
+      <c r="R57" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S57" s="19" t="s">
-        <v>31</v>
+      <c r="S57" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="T57" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U57" s="48" t="s">
+      <c r="U57" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V57" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="V57" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="W57" s="19" t="s">
         <v>31</v>
       </c>
       <c r="X57" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Y57" s="23" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="Z57" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL57" s="32"/>
+        <v>227</v>
+      </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+      <c r="A58" s="26">
         <v>45348</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="26">
         <v>45351</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D58" s="18">
+        <v>11</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="H58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_3_FMF_UK_A9_DC</v>
+      </c>
+      <c r="I58" s="18">
+        <v>2</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L58" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N58" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q58" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R58" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T58" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U58" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V58" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="W58" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X58" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y58" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z58" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A59" s="26">
+        <v>45348</v>
+      </c>
+      <c r="B59" s="26">
+        <v>45351</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="18">
+        <v>12</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="H59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_3_FMF_UK_A10_MC</v>
+      </c>
+      <c r="I59" s="18">
+        <v>2</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N59" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q59" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R59" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T59" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U59" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V59" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="W59" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X59" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y59" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z59" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A60" s="26">
+        <v>45348</v>
+      </c>
+      <c r="B60" s="26">
+        <v>45351</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="18">
+        <v>12</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="H60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_3_FMF_UK_A10_DC</v>
+      </c>
+      <c r="I60" s="18">
+        <v>2</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N60" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R60" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T60" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U60" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V60" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="W60" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X60" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y60" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z60" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>45348</v>
+      </c>
+      <c r="B61" s="26">
+        <v>45351</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="18">
+        <v>4</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="H61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_3_FMF_UK_A11_MC</v>
+      </c>
+      <c r="I61" s="18">
+        <v>2</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N61" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q61" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R61" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T61" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U61" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V61" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="W61" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X61" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y61" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z61" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A62" s="26">
+        <v>45348</v>
+      </c>
+      <c r="B62" s="26">
+        <v>45351</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="18">
+        <v>4</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_DC_3_FMF_UK_A11_DC</v>
+      </c>
+      <c r="I62" s="18">
+        <v>2</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N62" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q62" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R62" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T62" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U62" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V62" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="W62" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X62" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y62" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z62" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A63" s="26">
+        <v>45348</v>
+      </c>
+      <c r="B63" s="26">
+        <v>45351</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="18">
         <v>10</v>
       </c>
-      <c r="E58" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="H58" s="5" t="str">
+      <c r="E63" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="H63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_sim_MC_3_FMF_UK_A12_MC</v>
+      </c>
+      <c r="I63" s="18">
+        <v>2</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L63" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N63" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q63" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R63" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T63" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U63" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="V63" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="W63" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X63" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y63" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z63" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL63" s="32"/>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A64" s="27">
+        <v>45348</v>
+      </c>
+      <c r="B64" s="27">
+        <v>45351</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="18">
+        <v>10</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="H64" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Triso_sim_DC_3_FMF_UK_A12_DC</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I64" s="18">
         <v>2</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O58" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P58" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q58" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="R58" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="S58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U58" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="V58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X58" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y58" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z58" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL58" s="32"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A59" s="26">
-        <v>45356</v>
-      </c>
-      <c r="B59" s="26">
-        <v>45359</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D59" s="10">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>12T_Triso_ T21_4_FMF_UK_A1a</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="N59" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R59" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="S59" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T59" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U59" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V59" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="W59" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="X59" s="10">
-        <v>455</v>
-      </c>
-      <c r="Y59" s="10">
-        <v>2000</v>
-      </c>
-      <c r="Z59" s="18"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A60" s="26">
-        <v>45356</v>
-      </c>
-      <c r="B60" s="26">
-        <v>45359</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D60" s="18">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>12T_Triso_ T21_4_FMF_UK_A1b</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N60" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O60" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="R60" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S60" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T60" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U60" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V60" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W60" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X60" s="18">
-        <v>455</v>
-      </c>
-      <c r="Y60" s="18">
-        <v>2000</v>
-      </c>
-      <c r="Z60" s="18"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>45356</v>
-      </c>
-      <c r="B61" s="26">
-        <v>45359</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="18">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A2</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N61" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O61" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P61" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q61" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R61" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S61" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T61" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U61" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V61" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W61" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X61" s="18">
-        <v>455</v>
-      </c>
-      <c r="Y61" s="18">
-        <v>2000</v>
-      </c>
-      <c r="Z61" s="18"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
-        <v>45356</v>
-      </c>
-      <c r="B62" s="26">
-        <v>45359</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="18">
-        <v>3</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A3</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K62" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N62" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O62" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="P62" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q62" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R62" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S62" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T62" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U62" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V62" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W62" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X62" s="18">
-        <v>455</v>
-      </c>
-      <c r="Y62" s="18">
-        <v>2000</v>
-      </c>
-      <c r="Z62" s="18"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A63" s="26">
-        <v>45356</v>
-      </c>
-      <c r="B63" s="26">
-        <v>45359</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="18">
-        <v>26</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A4</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N63" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O63" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P63" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q63" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R63" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S63" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T63" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U63" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V63" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W63" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X63" s="18">
-        <v>455</v>
-      </c>
-      <c r="Y63" s="18">
-        <v>2000</v>
-      </c>
-      <c r="Z63" s="18"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A64" s="26">
-        <v>45356</v>
-      </c>
-      <c r="B64" s="26">
-        <v>45359</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="18">
-        <v>27</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A5</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K64" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>129</v>
+      <c r="K64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L64" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="M64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N64" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R64" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="S64" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N64" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O64" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="P64" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q64" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R64" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="S64" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="T64" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U64" s="30" t="s">
-        <v>31</v>
+      <c r="U64" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="V64" s="19" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="W64" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X64" s="18">
-        <v>455</v>
-      </c>
-      <c r="Y64" s="18">
-        <v>2000</v>
-      </c>
-      <c r="Z64" s="18"/>
+      <c r="X64" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y64" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z64" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL64" s="32"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
@@ -6740,72 +6818,72 @@
       <c r="B65" s="26">
         <v>45359</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="18">
-        <v>6</v>
+      <c r="C65" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="7"/>
       <c r="H65" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A6</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K65" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N65" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O65" s="30" t="s">
+        <v>12T_Triso_ T21_4_FMF_UK_A1a</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P65" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q65" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R65" s="30" t="s">
+      <c r="P65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R65" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="S65" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T65" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U65" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V65" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W65" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X65" s="18">
+      <c r="S65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U65" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="X65" s="10">
         <v>455</v>
       </c>
-      <c r="Y65" s="18">
+      <c r="Y65" s="10">
         <v>2000</v>
       </c>
       <c r="Z65" s="18"/>
@@ -6818,36 +6896,36 @@
         <v>45359</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="D66" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G66" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="G66" s="2"/>
       <c r="H66" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A7</v>
+        <v>12T_Triso_ T21_4_FMF_UK_A1b</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="N66" s="19" t="s">
         <v>31</v>
@@ -6855,11 +6933,11 @@
       <c r="O66" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P66" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q66" s="19" t="s">
-        <v>31</v>
+      <c r="P66" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="R66" s="30" t="s">
         <v>87</v>
@@ -6895,13 +6973,13 @@
         <v>45359</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D67" s="18">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>102</v>
@@ -6909,27 +6987,27 @@
       <c r="G67" s="4"/>
       <c r="H67" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A8</v>
+        <v>Triso_single_sim_4_FMF_UK_A2</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N67" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O67" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N67" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" s="19" t="s">
         <v>77</v>
       </c>
       <c r="P67" s="19" t="s">
@@ -6972,13 +7050,13 @@
         <v>45359</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D68" s="18">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>102</v>
@@ -6986,22 +7064,22 @@
       <c r="G68" s="4"/>
       <c r="H68" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A9</v>
+        <v>Triso_single_sim_4_FMF_UK_A3</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N68" s="19" t="s">
         <v>31</v>
@@ -7049,13 +7127,13 @@
         <v>45359</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D69" s="18">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>102</v>
@@ -7063,22 +7141,22 @@
       <c r="G69" s="4"/>
       <c r="H69" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A10</v>
+        <v>Triso_single_sim_4_FMF_UK_A4</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N69" s="19" t="s">
         <v>31</v>
@@ -7126,13 +7204,13 @@
         <v>45359</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D70" s="18">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>102</v>
@@ -7140,22 +7218,22 @@
       <c r="G70" s="4"/>
       <c r="H70" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A11</v>
+        <v>Triso_single_sim_4_FMF_UK_A5</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K70" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N70" s="19" t="s">
         <v>31</v>
@@ -7203,13 +7281,13 @@
         <v>45359</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D71" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>102</v>
@@ -7217,22 +7295,22 @@
       <c r="G71" s="4"/>
       <c r="H71" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A12</v>
+        <v>Triso_single_sim_4_FMF_UK_A6</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K71" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N71" s="19" t="s">
         <v>31</v>
@@ -7280,13 +7358,13 @@
         <v>45359</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D72" s="18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>102</v>
@@ -7294,22 +7372,22 @@
       <c r="G72" s="4"/>
       <c r="H72" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A13</v>
+        <v>Triso_single_sim_4_FMF_UK_A7</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K72" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N72" s="19" t="s">
         <v>31</v>
@@ -7357,13 +7435,13 @@
         <v>45359</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D73" s="18">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>102</v>
@@ -7371,22 +7449,22 @@
       <c r="G73" s="4"/>
       <c r="H73" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A14</v>
+        <v>Triso_single_sim_4_FMF_UK_A8</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N73" s="19" t="s">
         <v>31</v>
@@ -7434,13 +7512,13 @@
         <v>45359</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D74" s="18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>102</v>
@@ -7448,22 +7526,22 @@
       <c r="G74" s="4"/>
       <c r="H74" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A15</v>
+        <v>Triso_single_sim_4_FMF_UK_A9</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K74" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N74" s="19" t="s">
         <v>31</v>
@@ -7511,13 +7589,13 @@
         <v>45359</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D75" s="18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>102</v>
@@ -7525,22 +7603,22 @@
       <c r="G75" s="4"/>
       <c r="H75" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A16</v>
+        <v>Triso_single_sim_4_FMF_UK_A10</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K75" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N75" s="19" t="s">
         <v>31</v>
@@ -7588,13 +7666,13 @@
         <v>45359</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D76" s="18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>102</v>
@@ -7602,22 +7680,22 @@
       <c r="G76" s="4"/>
       <c r="H76" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A17</v>
+        <v>Triso_single_sim_4_FMF_UK_A11</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K76" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N76" s="19" t="s">
         <v>31</v>
@@ -7665,13 +7743,13 @@
         <v>45359</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D77" s="18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>102</v>
@@ -7679,22 +7757,22 @@
       <c r="G77" s="4"/>
       <c r="H77" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A18</v>
+        <v>Triso_single_sim_4_FMF_UK_A12</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K77" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N77" s="19" t="s">
         <v>31</v>
@@ -7742,13 +7820,13 @@
         <v>45359</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D78" s="18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>102</v>
@@ -7756,24 +7834,24 @@
       <c r="G78" s="4"/>
       <c r="H78" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_single_sim_4_FMF_UK_A19</v>
+        <v>Triso_single_sim_4_FMF_UK_A13</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K78" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N78" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N78" s="19" t="s">
         <v>31</v>
       </c>
       <c r="O78" s="17" t="s">
@@ -7819,38 +7897,38 @@
         <v>45359</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="D79" s="18">
-        <v>4</v>
-      </c>
-      <c r="E79" s="45" t="s">
-        <v>294</v>
+        <v>22</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_4_FMF_UK_A20_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A14</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N79" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N79" s="19" t="s">
         <v>31</v>
       </c>
       <c r="O79" s="30" t="s">
@@ -7880,11 +7958,11 @@
       <c r="W79" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X79" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y79" s="23" t="s">
-        <v>31</v>
+      <c r="X79" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y79" s="18">
+        <v>2000</v>
       </c>
       <c r="Z79" s="18"/>
     </row>
@@ -7896,38 +7974,38 @@
         <v>45359</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="D80" s="18">
-        <v>4</v>
-      </c>
-      <c r="E80" s="45" t="s">
-        <v>295</v>
+        <v>23</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_sim_MC_4_FMF_UK_A20_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A15</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N80" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N80" s="19" t="s">
         <v>31</v>
       </c>
       <c r="O80" s="30" t="s">
@@ -7957,11 +8035,11 @@
       <c r="W80" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X80" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y80" s="23" t="s">
-        <v>31</v>
+      <c r="X80" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y80" s="18">
+        <v>2000</v>
       </c>
       <c r="Z80" s="18"/>
     </row>
@@ -7973,41 +8051,41 @@
         <v>45359</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D81" s="18">
-        <v>5</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>294</v>
+        <v>34</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A21_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A16</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N81" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O81" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="N81" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81" s="17" t="s">
         <v>77</v>
       </c>
       <c r="P81" s="19" t="s">
@@ -8034,11 +8112,11 @@
       <c r="W81" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X81" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y81" s="23" t="s">
-        <v>31</v>
+      <c r="X81" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y81" s="18">
+        <v>2000</v>
       </c>
       <c r="Z81" s="18"/>
     </row>
@@ -8050,38 +8128,38 @@
         <v>45359</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="D82" s="18">
-        <v>5</v>
-      </c>
-      <c r="E82" s="45" t="s">
-        <v>295</v>
+        <v>35</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A21_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A17</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N82" s="20" t="s">
+      <c r="N82" s="19" t="s">
         <v>31</v>
       </c>
       <c r="O82" s="30" t="s">
@@ -8111,11 +8189,11 @@
       <c r="W82" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X82" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y82" s="23" t="s">
-        <v>31</v>
+      <c r="X82" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y82" s="18">
+        <v>2000</v>
       </c>
       <c r="Z82" s="18"/>
     </row>
@@ -8127,41 +8205,41 @@
         <v>45359</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="D83" s="18">
-        <v>28</v>
-      </c>
-      <c r="E83" s="45" t="s">
-        <v>294</v>
+        <v>14</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A22_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A18</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N83" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O83" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O83" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P83" s="19" t="s">
@@ -8188,11 +8266,11 @@
       <c r="W83" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X83" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y83" s="23" t="s">
-        <v>31</v>
+      <c r="X83" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y83" s="18">
+        <v>2000</v>
       </c>
       <c r="Z83" s="18"/>
     </row>
@@ -8204,36 +8282,36 @@
         <v>45359</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="D84" s="18">
-        <v>28</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>295</v>
+        <v>15</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A22_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A19</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N84" s="20" t="s">
         <v>31</v>
@@ -8265,11 +8343,11 @@
       <c r="W84" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X84" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y84" s="23" t="s">
-        <v>31</v>
+      <c r="X84" s="18">
+        <v>455</v>
+      </c>
+      <c r="Y84" s="18">
+        <v>2000</v>
       </c>
       <c r="Z84" s="18"/>
     </row>
@@ -8281,36 +8359,36 @@
         <v>45359</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D85" s="18">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A23_MC</v>
+        <v>Triso_sim_MC_4_FMF_UK_A20_MC</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N85" s="20" t="s">
         <v>31</v>
@@ -8358,36 +8436,36 @@
         <v>45359</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D86" s="18">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A23_DC</v>
+        <v>Triso_sim_MC_4_FMF_UK_A20_DC</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N86" s="20" t="s">
         <v>31</v>
@@ -8435,13 +8513,13 @@
         <v>45359</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D87" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>105</v>
@@ -8449,22 +8527,22 @@
       <c r="G87" s="4"/>
       <c r="H87" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A24_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A21_MC</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N87" s="20" t="s">
         <v>31</v>
@@ -8512,13 +8590,13 @@
         <v>45359</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D88" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>105</v>
@@ -8526,22 +8604,22 @@
       <c r="G88" s="4"/>
       <c r="H88" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A24_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A21_DC</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N88" s="20" t="s">
         <v>31</v>
@@ -8589,13 +8667,13 @@
         <v>45359</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D89" s="18">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>105</v>
@@ -8603,22 +8681,22 @@
       <c r="G89" s="4"/>
       <c r="H89" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A25_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A22_MC</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="N89" s="20" t="s">
         <v>31</v>
@@ -8666,13 +8744,13 @@
         <v>45359</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D90" s="18">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>105</v>
@@ -8680,22 +8758,22 @@
       <c r="G90" s="4"/>
       <c r="H90" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A25_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A22_DC</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="N90" s="20" t="s">
         <v>31</v>
@@ -8743,13 +8821,13 @@
         <v>45359</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D91" s="18">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>105</v>
@@ -8757,22 +8835,22 @@
       <c r="G91" s="4"/>
       <c r="H91" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A26_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A23_MC</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N91" s="20" t="s">
         <v>31</v>
@@ -8820,13 +8898,13 @@
         <v>45359</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D92" s="18">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>105</v>
@@ -8834,22 +8912,22 @@
       <c r="G92" s="4"/>
       <c r="H92" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A26_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A23_DC</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N92" s="20" t="s">
         <v>31</v>
@@ -8897,13 +8975,13 @@
         <v>45359</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D93" s="18">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>105</v>
@@ -8911,27 +8989,27 @@
       <c r="G93" s="4"/>
       <c r="H93" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A27_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A24_MC</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K93" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N93" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O93" s="17" t="s">
+      <c r="O93" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P93" s="19" t="s">
@@ -8974,13 +9052,13 @@
         <v>45359</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D94" s="18">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>105</v>
@@ -8988,27 +9066,27 @@
       <c r="G94" s="4"/>
       <c r="H94" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A27_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A24_DC</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N94" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O94" s="17" t="s">
+      <c r="O94" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P94" s="19" t="s">
@@ -9051,13 +9129,13 @@
         <v>45359</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D95" s="18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>105</v>
@@ -9065,27 +9143,27 @@
       <c r="G95" s="4"/>
       <c r="H95" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A28_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A25_MC</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N95" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O95" s="30" t="s">
+      <c r="O95" s="17" t="s">
         <v>77</v>
       </c>
       <c r="P95" s="19" t="s">
@@ -9128,13 +9206,13 @@
         <v>45359</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D96" s="18">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>105</v>
@@ -9142,27 +9220,27 @@
       <c r="G96" s="4"/>
       <c r="H96" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A28_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A25_DC</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N96" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O96" s="30" t="s">
+      <c r="O96" s="17" t="s">
         <v>77</v>
       </c>
       <c r="P96" s="19" t="s">
@@ -9205,13 +9283,13 @@
         <v>45359</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D97" s="18">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>105</v>
@@ -9219,27 +9297,27 @@
       <c r="G97" s="4"/>
       <c r="H97" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A29_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A26_MC</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K97" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N97" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O97" s="17" t="s">
+      <c r="O97" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P97" s="19" t="s">
@@ -9282,13 +9360,13 @@
         <v>45359</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D98" s="18">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>105</v>
@@ -9296,27 +9374,27 @@
       <c r="G98" s="4"/>
       <c r="H98" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A29_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A26_DC</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N98" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O98" s="17" t="s">
+      <c r="O98" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P98" s="19" t="s">
@@ -9359,13 +9437,13 @@
         <v>45359</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D99" s="18">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>105</v>
@@ -9373,27 +9451,27 @@
       <c r="G99" s="4"/>
       <c r="H99" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A30_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A27_MC</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N99" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O99" s="30" t="s">
+      <c r="O99" s="17" t="s">
         <v>77</v>
       </c>
       <c r="P99" s="19" t="s">
@@ -9436,13 +9514,13 @@
         <v>45359</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D100" s="18">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>105</v>
@@ -9450,27 +9528,27 @@
       <c r="G100" s="4"/>
       <c r="H100" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A30_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A27_DC</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N100" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O100" s="30" t="s">
+      <c r="O100" s="17" t="s">
         <v>77</v>
       </c>
       <c r="P100" s="19" t="s">
@@ -9513,13 +9591,13 @@
         <v>45359</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D101" s="18">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>105</v>
@@ -9527,22 +9605,22 @@
       <c r="G101" s="4"/>
       <c r="H101" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A31_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A28_MC</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="N101" s="20" t="s">
         <v>31</v>
@@ -9590,13 +9668,13 @@
         <v>45359</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D102" s="18">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>105</v>
@@ -9604,22 +9682,22 @@
       <c r="G102" s="4"/>
       <c r="H102" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A31_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A28_DC</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="N102" s="20" t="s">
         <v>31</v>
@@ -9667,13 +9745,13 @@
         <v>45359</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D103" s="18">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>105</v>
@@ -9681,22 +9759,22 @@
       <c r="G103" s="4"/>
       <c r="H103" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A32_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A29_MC</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N103" s="20" t="s">
         <v>31</v>
@@ -9744,13 +9822,13 @@
         <v>45359</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D104" s="18">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>105</v>
@@ -9758,22 +9836,22 @@
       <c r="G104" s="4"/>
       <c r="H104" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A32_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A29_DC</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N104" s="20" t="s">
         <v>31</v>
@@ -9821,13 +9899,13 @@
         <v>45359</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D105" s="18">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>105</v>
@@ -9835,22 +9913,22 @@
       <c r="G105" s="4"/>
       <c r="H105" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A33_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A30_MC</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K105" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N105" s="20" t="s">
         <v>31</v>
@@ -9898,13 +9976,13 @@
         <v>45359</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D106" s="18">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>105</v>
@@ -9912,22 +9990,22 @@
       <c r="G106" s="4"/>
       <c r="H106" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A33_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A30_DC</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N106" s="20" t="s">
         <v>31</v>
@@ -9975,13 +10053,13 @@
         <v>45359</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D107" s="18">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>105</v>
@@ -9989,22 +10067,22 @@
       <c r="G107" s="4"/>
       <c r="H107" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A34_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A31_MC</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N107" s="20" t="s">
         <v>31</v>
@@ -10052,13 +10130,13 @@
         <v>45359</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D108" s="18">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E108" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>105</v>
@@ -10066,22 +10144,22 @@
       <c r="G108" s="4"/>
       <c r="H108" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A34_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A31_DC</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K108" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N108" s="20" t="s">
         <v>31</v>
@@ -10129,13 +10207,13 @@
         <v>45359</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D109" s="18">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E109" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>105</v>
@@ -10143,22 +10221,22 @@
       <c r="G109" s="4"/>
       <c r="H109" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A35_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A32_MC</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K109" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N109" s="20" t="s">
         <v>31</v>
@@ -10206,13 +10284,13 @@
         <v>45359</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D110" s="18">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E110" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>105</v>
@@ -10220,22 +10298,22 @@
       <c r="G110" s="4"/>
       <c r="H110" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A35_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A32_DC</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K110" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N110" s="20" t="s">
         <v>31</v>
@@ -10283,13 +10361,13 @@
         <v>45359</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D111" s="18">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E111" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>105</v>
@@ -10297,22 +10375,22 @@
       <c r="G111" s="4"/>
       <c r="H111" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A36_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A33_MC</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K111" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N111" s="20" t="s">
         <v>31</v>
@@ -10360,13 +10438,13 @@
         <v>45359</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D112" s="18">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E112" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>105</v>
@@ -10374,22 +10452,22 @@
       <c r="G112" s="4"/>
       <c r="H112" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A36_DC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A33_DC</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>103</v>
       </c>
       <c r="K112" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N112" s="20" t="s">
         <v>31</v>
@@ -10437,13 +10515,13 @@
         <v>45359</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D113" s="18">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E113" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>105</v>
@@ -10451,27 +10529,27 @@
       <c r="G113" s="4"/>
       <c r="H113" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Triso_twin_sim_4_FMF_UK_A37_MC</v>
+        <v>Triso_twin_sim_4_FMF_UK_A34_MC</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K113" s="2" t="s">
-        <v>128</v>
+      <c r="K113" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N113" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O113" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="N113" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O113" s="30" t="s">
         <v>77</v>
       </c>
       <c r="P113" s="19" t="s">
@@ -10480,7 +10558,7 @@
       <c r="Q113" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R113" s="19" t="s">
+      <c r="R113" s="30" t="s">
         <v>87</v>
       </c>
       <c r="S113" s="19" t="s">
@@ -10507,90 +10585,555 @@
       <c r="Z113" s="18"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A114" s="27">
+      <c r="A114" s="26">
         <v>45356</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B114" s="26">
         <v>45359</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114" s="14">
+      <c r="C114" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D114" s="18">
+        <v>36</v>
+      </c>
+      <c r="E114" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A34_DC</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K114" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N114" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O114" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P114" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q114" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R114" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S114" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T114" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U114" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V114" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W114" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X114" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y114" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z114" s="18"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115" s="26">
+        <v>45356</v>
+      </c>
+      <c r="B115" s="26">
+        <v>45359</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" s="18">
+        <v>37</v>
+      </c>
+      <c r="E115" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A35_MC</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K115" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N115" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O115" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P115" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q115" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R115" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S115" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T115" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U115" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V115" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W115" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X115" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y115" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z115" s="18"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116" s="26">
+        <v>45356</v>
+      </c>
+      <c r="B116" s="26">
+        <v>45359</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" s="18">
+        <v>37</v>
+      </c>
+      <c r="E116" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A35_DC</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K116" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N116" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O116" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P116" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q116" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R116" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S116" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T116" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U116" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V116" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W116" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X116" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y116" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z116" s="18"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A117" s="26">
+        <v>45356</v>
+      </c>
+      <c r="B117" s="26">
+        <v>45359</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="18">
+        <v>16</v>
+      </c>
+      <c r="E117" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A36_MC</v>
+      </c>
+      <c r="I117" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K117" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N117" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O117" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P117" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q117" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R117" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S117" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T117" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U117" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V117" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W117" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X117" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y117" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z117" s="18"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A118" s="26">
+        <v>45356</v>
+      </c>
+      <c r="B118" s="26">
+        <v>45359</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" s="18">
+        <v>16</v>
+      </c>
+      <c r="E118" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A36_DC</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N118" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O118" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P118" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q118" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R118" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S118" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T118" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U118" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V118" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W118" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X118" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y118" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z118" s="18"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119" s="26">
+        <v>45356</v>
+      </c>
+      <c r="B119" s="26">
+        <v>45359</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" s="18">
         <v>17</v>
       </c>
-      <c r="E114" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="F114" s="5" t="s">
+      <c r="E119" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G114" s="6"/>
-      <c r="H114" s="5" t="str">
-        <f t="shared" ref="H114" si="4">F114&amp;"_"&amp;C114</f>
+      <c r="G119" s="4"/>
+      <c r="H119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Triso_twin_sim_4_FMF_UK_A37_MC</v>
+      </c>
+      <c r="I119" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N119" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O119" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P119" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q119" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R119" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="S119" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T119" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U119" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V119" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W119" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X119" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y119" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z119" s="18"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120" s="27">
+        <v>45356</v>
+      </c>
+      <c r="B120" s="27">
+        <v>45359</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D120" s="14">
+        <v>17</v>
+      </c>
+      <c r="E120" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="5" t="str">
+        <f t="shared" ref="H120" si="9">F120&amp;"_"&amp;C120</f>
         <v>Triso_twin_sim_4_FMF_UK_A37_DC</v>
       </c>
-      <c r="I114" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J114" s="5" t="s">
+      <c r="I120" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J120" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K114" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L114" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N114" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O114" s="15" t="s">
+      <c r="K120" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N120" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O120" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="P114" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q114" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="R114" s="15" t="s">
+      <c r="P120" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q120" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R120" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="S114" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T114" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U114" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="V114" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="W114" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="X114" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y114" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z114" s="14"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D131" s="1"/>
+      <c r="S120" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="T120" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U120" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="V120" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W120" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X120" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y120" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z120" s="14"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10612,119 +11155,119 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1016" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8DCFF05-44FB-409F-875E-4CDB27F69245}"/>
+  <xr:revisionPtr revIDLastSave="1017" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{944CF2D8-AB92-48D3-B891-93EDA9C6AA7E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
@@ -973,7 +973,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,7 +1286,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1362,7 +1362,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1661,13 +1661,13 @@
   <dimension ref="A1:AL137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="8" customWidth="1"/>
@@ -1696,7 +1696,7 @@
     <col min="25" max="26" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="22" customFormat="1">
+    <row r="1" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="Y1" s="34"/>
       <c r="Z1" s="34"/>
     </row>
-    <row r="2" spans="1:26" s="22" customFormat="1">
+    <row r="2" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>45334</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>45334</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>45334</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>45334</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>45334</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45334</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>45341</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>45341</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>45341</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>45341</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>45341</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>45341</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>45334</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>45334</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>45334</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>45334</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>45334</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>45334</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>45334</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>45334</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>45334</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>45334</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1">
+    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
         <v>45334</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>45343</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>45343</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>35</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="S27" s="15" t="s">
         <v>78</v>
@@ -3788,7 +3788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>45343</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>45343</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>45343</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>45343</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>45343</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>45343</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>45343</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>45343</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>45343</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>45343</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>45343</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>45343</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>45343</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>45348</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>45348</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>45348</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>45348</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>45348</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>45348</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>45348</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>45348</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>45348</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>45348</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>45348</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>45348</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="26">
         <v>45348</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>45348</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
         <v>45348</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="26">
         <v>45348</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="26">
         <v>45348</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>45348</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="26">
         <v>45348</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
         <v>45348</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="26">
         <v>45348</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>45348</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>45348</v>
       </c>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="AL63" s="32"/>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>45348</v>
       </c>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="AL64" s="32"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="26">
         <v>45356</v>
       </c>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="26">
         <v>45356</v>
       </c>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="26">
         <v>45356</v>
       </c>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="26">
         <v>45356</v>
       </c>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="26">
         <v>45356</v>
       </c>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="Z69" s="18"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="26">
         <v>45356</v>
       </c>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="Z70" s="18"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="26">
         <v>45356</v>
       </c>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="Z71" s="18"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="26">
         <v>45356</v>
       </c>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="Z72" s="18"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>45356</v>
       </c>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="Z73" s="18"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="26">
         <v>45356</v>
       </c>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="Z74" s="18"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>45356</v>
       </c>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="Z75" s="18"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>45356</v>
       </c>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="Z76" s="18"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>45356</v>
       </c>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="Z77" s="18"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>45356</v>
       </c>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="Z78" s="18"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>45356</v>
       </c>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="Z79" s="18"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>45356</v>
       </c>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="Z80" s="18"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
         <v>45356</v>
       </c>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="Z81" s="18"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
         <v>45356</v>
       </c>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="Z82" s="18"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
         <v>45356</v>
       </c>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="Z83" s="18"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <v>45356</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="Z84" s="18"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
         <v>45356</v>
       </c>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="Z85" s="18"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>45356</v>
       </c>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="Z86" s="18"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
         <v>45356</v>
       </c>
@@ -8558,7 +8558,7 @@
       </c>
       <c r="Z87" s="18"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
         <v>45356</v>
       </c>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="Z88" s="18"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="26">
         <v>45356</v>
       </c>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="Z89" s="18"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="26">
         <v>45356</v>
       </c>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="Z90" s="18"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="26">
         <v>45356</v>
       </c>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="Z91" s="18"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="26">
         <v>45356</v>
       </c>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="Z92" s="18"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="26">
         <v>45356</v>
       </c>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="Z93" s="18"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="26">
         <v>45356</v>
       </c>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="Z94" s="18"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="26">
         <v>45356</v>
       </c>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="Z95" s="18"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="26">
         <v>45356</v>
       </c>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="Z96" s="18"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="26">
         <v>45356</v>
       </c>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="Z97" s="18"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>45356</v>
       </c>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="Z98" s="18"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="26">
         <v>45356</v>
       </c>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="Z99" s="18"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="26">
         <v>45356</v>
       </c>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="Z100" s="18"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="26">
         <v>45356</v>
       </c>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="Z101" s="18"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="26">
         <v>45356</v>
       </c>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="Z102" s="18"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="26">
         <v>45356</v>
       </c>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="Z103" s="18"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
         <v>45356</v>
       </c>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="Z104" s="18"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="26">
         <v>45356</v>
       </c>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="Z105" s="18"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="26">
         <v>45356</v>
       </c>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="Z106" s="18"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
         <v>45356</v>
       </c>
@@ -10098,7 +10098,7 @@
       </c>
       <c r="Z107" s="18"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="26">
         <v>45356</v>
       </c>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="Z108" s="18"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="26">
         <v>45356</v>
       </c>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="Z109" s="18"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="26">
         <v>45356</v>
       </c>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="Z110" s="18"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="26">
         <v>45356</v>
       </c>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="Z111" s="18"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="26">
         <v>45356</v>
       </c>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="Z112" s="18"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="26">
         <v>45356</v>
       </c>
@@ -10560,7 +10560,7 @@
       </c>
       <c r="Z113" s="18"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="26">
         <v>45356</v>
       </c>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="Z114" s="18"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="26">
         <v>45356</v>
       </c>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="Z115" s="18"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="26">
         <v>45356</v>
       </c>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="Z116" s="18"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="26">
         <v>45356</v>
       </c>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="Z117" s="18"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="26">
         <v>45356</v>
       </c>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="Z118" s="18"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="26">
         <v>45356</v>
       </c>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="Z119" s="18"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="27">
         <v>45356</v>
       </c>
@@ -11099,10 +11099,10 @@
       </c>
       <c r="Z120" s="14"/>
     </row>
-    <row r="136" spans="4:4">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="4:4">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="1"/>
     </row>
   </sheetData>
@@ -11122,14 +11122,14 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>295</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>298</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>300</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>303</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>305</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>307</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>309</v>
       </c>

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1366" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAD92F69-B494-47CD-9CF8-C26550A91D22}"/>
+  <xr:revisionPtr revIDLastSave="1377" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDF8009-C592-41E9-AFAF-607C08511586}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="413">
   <si>
     <t>Analysis</t>
   </si>
@@ -1273,6 +1273,9 @@
   </si>
   <si>
     <t>11.03.20244</t>
+  </si>
+  <si>
+    <t>4_FMF_UK_MFs</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1585,6 +1588,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1959,13 +1978,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D59CA7-78DE-483F-8DC5-D261426A3AA3}">
-  <dimension ref="A1:AL163"/>
+  <dimension ref="A1:AL164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q65" sqref="Q65"/>
+      <selection pane="bottomRight" activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4983,7 +5002,7 @@
         <v>117</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f t="shared" ref="H39:H145" si="5">F39&amp;"_"&amp;C39</f>
+        <f t="shared" ref="H39:H146" si="5">F39&amp;"_"&amp;C39</f>
         <v>1T_Triso_2_FMF_UK_A1</v>
       </c>
       <c r="I39" s="8">
@@ -7795,84 +7814,84 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
+    <row r="74" spans="1:26" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="50">
         <v>45348</v>
       </c>
-      <c r="B74" s="24">
+      <c r="B74" s="50">
         <v>45351</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="51">
         <v>1</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="H74" s="2" t="str">
+      <c r="H74" s="49" t="str">
         <f t="shared" si="5"/>
         <v>2T_Triso_3_FMF_UK_A5a</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="51">
         <v>2</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="K74" s="15" t="s">
+      <c r="K74" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="L74" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M74" s="2" t="s">
+      <c r="L74" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="M74" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="N74" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O74" s="2" t="s">
+      <c r="N74" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="O74" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="P74" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="Q74" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="R74" s="28" t="s">
+      <c r="R74" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="S74" s="2" t="s">
+      <c r="S74" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="T74" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="U74" s="28" t="s">
+      <c r="U74" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="V74" s="17" t="s">
+      <c r="V74" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="W74" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X74" s="16">
+      <c r="W74" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="X74" s="51">
         <v>455</v>
       </c>
-      <c r="Y74" s="16">
+      <c r="Y74" s="51">
         <v>2000</v>
       </c>
-      <c r="Z74" s="43">
+      <c r="Z74" s="56">
         <v>540</v>
       </c>
     </row>
@@ -7957,84 +7976,84 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+    <row r="76" spans="1:26" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50">
         <v>45348</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="50">
         <v>45351</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="51">
         <v>1</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="H76" s="2" t="str">
+      <c r="H76" s="49" t="str">
         <f t="shared" si="13"/>
         <v>2T_Triso_3_FMF_UK_MFs</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="51">
         <v>2</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="K76" s="15" t="s">
+      <c r="K76" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="L76" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M76" s="2" t="s">
+      <c r="L76" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="M76" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="N76" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O76" s="2" t="s">
+      <c r="N76" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="P76" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="Q76" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R76" s="28" t="s">
+      <c r="Q76" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="R76" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="S76" s="2" t="s">
+      <c r="S76" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="T76" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U76" s="28" t="s">
+      <c r="T76" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="U76" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="V76" s="17" t="s">
+      <c r="V76" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="W76" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X76" s="16">
+      <c r="W76" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="X76" s="51">
         <v>455</v>
       </c>
-      <c r="Y76" s="16">
+      <c r="Y76" s="51">
         <v>2000</v>
       </c>
-      <c r="Z76" s="43">
+      <c r="Z76" s="56">
         <v>540</v>
       </c>
     </row>
@@ -9297,7 +9316,7 @@
       <c r="N92" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O92" s="15" t="s">
+      <c r="O92" s="48" t="s">
         <v>110</v>
       </c>
       <c r="P92" s="17" t="s">
@@ -9342,29 +9361,28 @@
         <v>45359</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="D93" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G93" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="H93" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A2</v>
+        <v>226</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>227</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="K93" s="15" t="s">
         <v>228</v>
@@ -9372,16 +9390,14 @@
       <c r="L93" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M93" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N93" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O93" s="17" t="s">
+      <c r="M93" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N93" s="17"/>
+      <c r="O93" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="P93" s="17" t="s">
+      <c r="P93" s="2" t="s">
         <v>170</v>
       </c>
       <c r="Q93" s="17" t="s">
@@ -9391,7 +9407,7 @@
         <v>122</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="T93" s="17" t="s">
         <v>35</v>
@@ -9414,6 +9430,7 @@
       <c r="Z93" s="17" t="s">
         <v>35</v>
       </c>
+      <c r="AL93" s="29"/>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
@@ -9423,10 +9440,10 @@
         <v>45359</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D94" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>147</v>
@@ -9435,11 +9452,11 @@
         <v>232</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H94" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A3</v>
+        <v>Triso_single_sim_4_FMF_UK_A2</v>
       </c>
       <c r="I94" s="16" t="s">
         <v>227</v>
@@ -9454,12 +9471,12 @@
         <v>229</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="N94" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O94" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="N94" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O94" s="17" t="s">
         <v>110</v>
       </c>
       <c r="P94" s="17" t="s">
@@ -9472,7 +9489,7 @@
         <v>122</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="T94" s="17" t="s">
         <v>35</v>
@@ -9504,10 +9521,10 @@
         <v>45359</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D95" s="16">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>147</v>
@@ -9516,11 +9533,11 @@
         <v>232</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H95" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A4</v>
+        <v>Triso_single_sim_4_FMF_UK_A3</v>
       </c>
       <c r="I95" s="16" t="s">
         <v>227</v>
@@ -9535,12 +9552,12 @@
         <v>229</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N95" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O95" s="15" t="s">
+      <c r="O95" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P95" s="17" t="s">
@@ -9585,10 +9602,10 @@
         <v>45359</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D96" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>147</v>
@@ -9597,11 +9614,11 @@
         <v>232</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H96" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A5</v>
+        <v>Triso_single_sim_4_FMF_UK_A4</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>227</v>
@@ -9616,12 +9633,12 @@
         <v>229</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N96" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O96" s="28" t="s">
+      <c r="O96" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P96" s="17" t="s">
@@ -9666,10 +9683,10 @@
         <v>45359</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D97" s="16">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>147</v>
@@ -9678,11 +9695,11 @@
         <v>232</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H97" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A6</v>
+        <v>Triso_single_sim_4_FMF_UK_A5</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>227</v>
@@ -9697,7 +9714,7 @@
         <v>229</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N97" s="17" t="s">
         <v>35</v>
@@ -9747,10 +9764,10 @@
         <v>45359</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D98" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>147</v>
@@ -9759,11 +9776,11 @@
         <v>232</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H98" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A7</v>
+        <v>Triso_single_sim_4_FMF_UK_A6</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>227</v>
@@ -9778,12 +9795,12 @@
         <v>229</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N98" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O98" s="15" t="s">
+      <c r="O98" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P98" s="17" t="s">
@@ -9828,10 +9845,10 @@
         <v>45359</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D99" s="16">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>147</v>
@@ -9840,11 +9857,11 @@
         <v>232</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H99" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A8</v>
+        <v>Triso_single_sim_4_FMF_UK_A7</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>227</v>
@@ -9856,15 +9873,15 @@
         <v>228</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="N99" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O99" s="28" t="s">
+      <c r="O99" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P99" s="17" t="s">
@@ -9909,10 +9926,10 @@
         <v>45359</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D100" s="16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>147</v>
@@ -9921,11 +9938,11 @@
         <v>232</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H100" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A9</v>
+        <v>Triso_single_sim_4_FMF_UK_A8</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>227</v>
@@ -9940,7 +9957,7 @@
         <v>239</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="N100" s="17" t="s">
         <v>35</v>
@@ -9990,10 +10007,10 @@
         <v>45359</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D101" s="16">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>147</v>
@@ -10002,11 +10019,11 @@
         <v>232</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H101" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A10</v>
+        <v>Triso_single_sim_4_FMF_UK_A9</v>
       </c>
       <c r="I101" s="16" t="s">
         <v>227</v>
@@ -10021,12 +10038,12 @@
         <v>239</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N101" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O101" s="15" t="s">
+      <c r="O101" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P101" s="17" t="s">
@@ -10071,10 +10088,10 @@
         <v>45359</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D102" s="16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>147</v>
@@ -10083,11 +10100,11 @@
         <v>232</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H102" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A11</v>
+        <v>Triso_single_sim_4_FMF_UK_A10</v>
       </c>
       <c r="I102" s="16" t="s">
         <v>227</v>
@@ -10102,12 +10119,12 @@
         <v>239</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N102" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O102" s="28" t="s">
+      <c r="O102" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P102" s="17" t="s">
@@ -10152,10 +10169,10 @@
         <v>45359</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D103" s="16">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>147</v>
@@ -10164,11 +10181,11 @@
         <v>232</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H103" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A12</v>
+        <v>Triso_single_sim_4_FMF_UK_A11</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>227</v>
@@ -10183,7 +10200,7 @@
         <v>239</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N103" s="17" t="s">
         <v>35</v>
@@ -10233,10 +10250,10 @@
         <v>45359</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D104" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>147</v>
@@ -10245,11 +10262,11 @@
         <v>232</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H104" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A13</v>
+        <v>Triso_single_sim_4_FMF_UK_A12</v>
       </c>
       <c r="I104" s="16" t="s">
         <v>227</v>
@@ -10264,12 +10281,12 @@
         <v>239</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N104" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O104" s="15" t="s">
+      <c r="O104" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P104" s="17" t="s">
@@ -10314,10 +10331,10 @@
         <v>45359</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D105" s="16">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>147</v>
@@ -10326,11 +10343,11 @@
         <v>232</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H105" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A14</v>
+        <v>Triso_single_sim_4_FMF_UK_A13</v>
       </c>
       <c r="I105" s="16" t="s">
         <v>227</v>
@@ -10342,15 +10359,15 @@
         <v>228</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="N105" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O105" s="28" t="s">
+      <c r="O105" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P105" s="17" t="s">
@@ -10395,10 +10412,10 @@
         <v>45359</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D106" s="16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>147</v>
@@ -10407,11 +10424,11 @@
         <v>232</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H106" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A15</v>
+        <v>Triso_single_sim_4_FMF_UK_A14</v>
       </c>
       <c r="I106" s="16" t="s">
         <v>227</v>
@@ -10426,7 +10443,7 @@
         <v>246</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="N106" s="17" t="s">
         <v>35</v>
@@ -10476,10 +10493,10 @@
         <v>45359</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D107" s="16">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>147</v>
@@ -10488,11 +10505,11 @@
         <v>232</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H107" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A16</v>
+        <v>Triso_single_sim_4_FMF_UK_A15</v>
       </c>
       <c r="I107" s="16" t="s">
         <v>227</v>
@@ -10507,12 +10524,12 @@
         <v>246</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N107" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O107" s="15" t="s">
+      <c r="O107" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P107" s="17" t="s">
@@ -10557,10 +10574,10 @@
         <v>45359</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D108" s="16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>147</v>
@@ -10569,11 +10586,11 @@
         <v>232</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H108" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A17</v>
+        <v>Triso_single_sim_4_FMF_UK_A16</v>
       </c>
       <c r="I108" s="16" t="s">
         <v>227</v>
@@ -10588,12 +10605,12 @@
         <v>246</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N108" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O108" s="28" t="s">
+      <c r="O108" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P108" s="17" t="s">
@@ -10638,10 +10655,10 @@
         <v>45359</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D109" s="16">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>147</v>
@@ -10650,11 +10667,11 @@
         <v>232</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H109" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A18</v>
+        <v>Triso_single_sim_4_FMF_UK_A17</v>
       </c>
       <c r="I109" s="16" t="s">
         <v>227</v>
@@ -10669,7 +10686,7 @@
         <v>246</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N109" s="17" t="s">
         <v>35</v>
@@ -10719,10 +10736,10 @@
         <v>45359</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D110" s="16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>147</v>
@@ -10731,11 +10748,11 @@
         <v>232</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H110" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_single_sim_4_FMF_UK_A19</v>
+        <v>Triso_single_sim_4_FMF_UK_A18</v>
       </c>
       <c r="I110" s="16" t="s">
         <v>227</v>
@@ -10750,12 +10767,12 @@
         <v>246</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N110" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O110" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="N110" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O110" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P110" s="17" t="s">
@@ -10800,23 +10817,23 @@
         <v>45359</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D111" s="16">
-        <v>4</v>
-      </c>
-      <c r="E111" s="42" t="s">
-        <v>153</v>
+        <v>15</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G111" t="s">
-        <v>359</v>
+        <v>232</v>
+      </c>
+      <c r="G111" s="42" t="s">
+        <v>326</v>
       </c>
       <c r="H111" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A20_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A19</v>
       </c>
       <c r="I111" s="16" t="s">
         <v>227</v>
@@ -10828,15 +10845,15 @@
         <v>228</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="N111" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O111" s="28" t="s">
+      <c r="O111" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P111" s="17" t="s">
@@ -10863,11 +10880,11 @@
       <c r="W111" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X111" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y111" s="21" t="s">
-        <v>52</v>
+      <c r="X111" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y111" s="16">
+        <v>2000</v>
       </c>
       <c r="Z111" s="17" t="s">
         <v>35</v>
@@ -10881,23 +10898,23 @@
         <v>45359</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D112" s="16">
         <v>4</v>
       </c>
       <c r="E112" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G112" s="42" t="s">
-        <v>329</v>
+        <v>327</v>
+      </c>
+      <c r="G112" t="s">
+        <v>359</v>
       </c>
       <c r="H112" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A20_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A20_MC</v>
       </c>
       <c r="I112" s="16" t="s">
         <v>227</v>
@@ -10962,23 +10979,23 @@
         <v>45359</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D113" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="H113" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A21_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A20_DC</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>227</v>
@@ -10993,7 +11010,7 @@
         <v>229</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="N113" s="18" t="s">
         <v>35</v>
@@ -11043,23 +11060,23 @@
         <v>45359</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D114" s="16">
         <v>5</v>
       </c>
       <c r="E114" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="H114" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A21_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A21_MC</v>
       </c>
       <c r="I114" s="16" t="s">
         <v>227</v>
@@ -11124,23 +11141,23 @@
         <v>45359</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D115" s="16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="H115" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A22_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A21_DC</v>
       </c>
       <c r="I115" s="16" t="s">
         <v>227</v>
@@ -11155,12 +11172,12 @@
         <v>229</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N115" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O115" s="15" t="s">
+      <c r="O115" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P115" s="17" t="s">
@@ -11205,23 +11222,23 @@
         <v>45359</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D116" s="16">
         <v>28</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="H116" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A22_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A22_MC</v>
       </c>
       <c r="I116" s="16" t="s">
         <v>227</v>
@@ -11286,23 +11303,23 @@
         <v>45359</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D117" s="16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="H117" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A23_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A22_DC</v>
       </c>
       <c r="I117" s="16" t="s">
         <v>227</v>
@@ -11317,12 +11334,12 @@
         <v>229</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N117" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O117" s="28" t="s">
+      <c r="O117" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P117" s="17" t="s">
@@ -11367,23 +11384,23 @@
         <v>45359</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D118" s="16">
         <v>29</v>
       </c>
       <c r="E118" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G118" s="42" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="H118" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A23_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A23_MC</v>
       </c>
       <c r="I118" s="16" t="s">
         <v>227</v>
@@ -11448,23 +11465,23 @@
         <v>45359</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D119" s="16">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="H119" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A24_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A23_DC</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>227</v>
@@ -11479,7 +11496,7 @@
         <v>229</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N119" s="18" t="s">
         <v>35</v>
@@ -11529,23 +11546,23 @@
         <v>45359</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D120" s="16">
         <v>8</v>
       </c>
       <c r="E120" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="H120" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A24_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A24_MC</v>
       </c>
       <c r="I120" s="16" t="s">
         <v>227</v>
@@ -11610,23 +11627,23 @@
         <v>45359</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D121" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E121" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="H121" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A25_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A24_DC</v>
       </c>
       <c r="I121" s="16" t="s">
         <v>227</v>
@@ -11641,12 +11658,12 @@
         <v>229</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N121" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O121" s="15" t="s">
+      <c r="O121" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P121" s="17" t="s">
@@ -11691,23 +11708,23 @@
         <v>45359</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D122" s="16">
         <v>9</v>
       </c>
       <c r="E122" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G122" s="42" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="H122" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A25_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A25_MC</v>
       </c>
       <c r="I122" s="16" t="s">
         <v>227</v>
@@ -11772,23 +11789,23 @@
         <v>45359</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D123" s="16">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E123" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H123" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A26_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A25_DC</v>
       </c>
       <c r="I123" s="16" t="s">
         <v>227</v>
@@ -11800,15 +11817,15 @@
         <v>228</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="N123" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O123" s="28" t="s">
+      <c r="O123" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P123" s="17" t="s">
@@ -11853,23 +11870,23 @@
         <v>45359</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D124" s="16">
         <v>20</v>
       </c>
       <c r="E124" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G124" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H124" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A26_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A26_MC</v>
       </c>
       <c r="I124" s="16" t="s">
         <v>227</v>
@@ -11934,23 +11951,23 @@
         <v>45359</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D125" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H125" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A27_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A26_DC</v>
       </c>
       <c r="I125" s="16" t="s">
         <v>227</v>
@@ -11965,12 +11982,12 @@
         <v>239</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="N125" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O125" s="15" t="s">
+      <c r="O125" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P125" s="17" t="s">
@@ -12015,23 +12032,23 @@
         <v>45359</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D126" s="16">
         <v>21</v>
       </c>
       <c r="E126" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H126" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A27_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A27_MC</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>227</v>
@@ -12096,23 +12113,23 @@
         <v>45359</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D127" s="16">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E127" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H127" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A28_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A27_DC</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>227</v>
@@ -12127,12 +12144,12 @@
         <v>239</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N127" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O127" s="28" t="s">
+      <c r="O127" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P127" s="17" t="s">
@@ -12177,23 +12194,23 @@
         <v>45359</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D128" s="16">
         <v>32</v>
       </c>
       <c r="E128" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G128" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H128" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A28_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A28_MC</v>
       </c>
       <c r="I128" s="16" t="s">
         <v>227</v>
@@ -12258,23 +12275,23 @@
         <v>45359</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D129" s="16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E129" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G129" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H129" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A29_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A28_DC</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>227</v>
@@ -12289,12 +12306,12 @@
         <v>239</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N129" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O129" s="15" t="s">
+      <c r="O129" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P129" s="17" t="s">
@@ -12339,23 +12356,23 @@
         <v>45359</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D130" s="16">
         <v>33</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H130" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A29_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A29_MC</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>227</v>
@@ -12420,23 +12437,23 @@
         <v>45359</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D131" s="16">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E131" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G131" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H131" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A30_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A29_DC</v>
       </c>
       <c r="I131" s="16" t="s">
         <v>227</v>
@@ -12451,12 +12468,12 @@
         <v>239</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N131" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O131" s="28" t="s">
+      <c r="O131" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P131" s="17" t="s">
@@ -12501,23 +12518,23 @@
         <v>45359</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D132" s="16">
         <v>12</v>
       </c>
       <c r="E132" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G132" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H132" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A30_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A30_MC</v>
       </c>
       <c r="I132" s="16" t="s">
         <v>227</v>
@@ -12582,23 +12599,23 @@
         <v>45359</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D133" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E133" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G133" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H133" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A31_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A30_DC</v>
       </c>
       <c r="I133" s="16" t="s">
         <v>227</v>
@@ -12613,7 +12630,7 @@
         <v>239</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N133" s="18" t="s">
         <v>35</v>
@@ -12663,23 +12680,23 @@
         <v>45359</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D134" s="16">
         <v>13</v>
       </c>
       <c r="E134" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G134" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H134" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A31_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A31_MC</v>
       </c>
       <c r="I134" s="16" t="s">
         <v>227</v>
@@ -12744,23 +12761,23 @@
         <v>45359</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D135" s="16">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G135" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H135" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A32_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A31_DC</v>
       </c>
       <c r="I135" s="16" t="s">
         <v>227</v>
@@ -12772,15 +12789,15 @@
         <v>228</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="N135" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O135" s="15" t="s">
+      <c r="O135" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P135" s="17" t="s">
@@ -12825,23 +12842,23 @@
         <v>45359</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D136" s="16">
         <v>24</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G136" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H136" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A32_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A32_MC</v>
       </c>
       <c r="I136" s="16" t="s">
         <v>227</v>
@@ -12906,23 +12923,23 @@
         <v>45359</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D137" s="16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G137" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H137" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A33_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A32_DC</v>
       </c>
       <c r="I137" s="16" t="s">
         <v>227</v>
@@ -12937,12 +12954,12 @@
         <v>246</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="N137" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O137" s="28" t="s">
+      <c r="O137" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P137" s="17" t="s">
@@ -12987,23 +13004,23 @@
         <v>45359</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D138" s="16">
         <v>25</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H138" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A33_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A33_MC</v>
       </c>
       <c r="I138" s="16" t="s">
         <v>227</v>
@@ -13068,23 +13085,23 @@
         <v>45359</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D139" s="16">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G139" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H139" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A34_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A33_DC</v>
       </c>
       <c r="I139" s="16" t="s">
         <v>227</v>
@@ -13099,7 +13116,7 @@
         <v>246</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N139" s="18" t="s">
         <v>35</v>
@@ -13149,23 +13166,23 @@
         <v>45359</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D140" s="16">
         <v>36</v>
       </c>
       <c r="E140" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G140" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H140" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A34_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A34_MC</v>
       </c>
       <c r="I140" s="16" t="s">
         <v>227</v>
@@ -13230,23 +13247,23 @@
         <v>45359</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D141" s="16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G141" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H141" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A35_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A34_DC</v>
       </c>
       <c r="I141" s="16" t="s">
         <v>227</v>
@@ -13261,12 +13278,12 @@
         <v>246</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N141" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O141" s="15" t="s">
+      <c r="O141" s="28" t="s">
         <v>110</v>
       </c>
       <c r="P141" s="17" t="s">
@@ -13311,23 +13328,23 @@
         <v>45359</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D142" s="16">
         <v>37</v>
       </c>
       <c r="E142" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H142" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A35_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A35_MC</v>
       </c>
       <c r="I142" s="16" t="s">
         <v>227</v>
@@ -13392,23 +13409,23 @@
         <v>45359</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D143" s="16">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G143" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H143" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A36_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A35_DC</v>
       </c>
       <c r="I143" s="16" t="s">
         <v>227</v>
@@ -13423,12 +13440,12 @@
         <v>246</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N143" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O143" s="28" t="s">
+      <c r="O143" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P143" s="17" t="s">
@@ -13473,23 +13490,23 @@
         <v>45359</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D144" s="16">
         <v>16</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G144" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H144" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A36_DC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A36_MC</v>
       </c>
       <c r="I144" s="16" t="s">
         <v>227</v>
@@ -13554,23 +13571,23 @@
         <v>45359</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D145" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G145" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H145" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A37_MC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A36_DC</v>
       </c>
       <c r="I145" s="16" t="s">
         <v>227</v>
@@ -13578,16 +13595,16 @@
       <c r="J145" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="15" t="s">
         <v>228</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>246</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N145" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="N145" s="18" t="s">
         <v>35</v>
       </c>
       <c r="O145" s="28" t="s">
@@ -13627,96 +13644,177 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:26" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A146" s="24">
         <v>45356</v>
       </c>
-      <c r="B146" s="25">
+      <c r="B146" s="24">
         <v>45359</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D146" s="16">
+        <v>17</v>
+      </c>
+      <c r="E146" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G146" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="H146" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A37_MC</v>
+      </c>
+      <c r="I146" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N146" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O146" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P146" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q146" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R146" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="S146" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T146" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U146" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V146" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W146" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X146" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y146" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z146" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="25">
+        <v>45356</v>
+      </c>
+      <c r="B147" s="25">
+        <v>45359</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D147" s="12">
         <v>17</v>
       </c>
-      <c r="E146" s="45" t="s">
+      <c r="E147" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F147" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G146" s="45" t="s">
+      <c r="G147" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="H146" s="4" t="str">
-        <f t="shared" ref="H146" si="14">F146&amp;"_"&amp;C146</f>
+      <c r="H147" s="4" t="str">
+        <f t="shared" ref="H147" si="14">F147&amp;"_"&amp;C147</f>
         <v>Triso_twin_sim_DC_4_FMF_UK_A37_DC</v>
       </c>
-      <c r="I146" s="12" t="s">
+      <c r="I147" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="J147" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="K147" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="L146" s="4" t="s">
+      <c r="L147" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="M146" s="4" t="s">
+      <c r="M147" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="N146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O146" s="27" t="s">
+      <c r="N147" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O147" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="P146" s="13" t="s">
+      <c r="P147" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="Q146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R146" s="27" t="s">
+      <c r="Q147" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R147" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="S146" s="4" t="s">
+      <c r="S147" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="T146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U146" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="V146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="W146" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="X146" s="19" t="s">
+      <c r="T147" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U147" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V147" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="W147" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X147" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Y146" s="19" t="s">
+      <c r="Y147" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Z146" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="1"/>
+      <c r="Z147" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="1"/>
     </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C156:C1048576 C1:C146">
+  <conditionalFormatting sqref="C157:C1048576 C1:C147">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1399" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6B17A6-4BCE-4A53-BB67-0DAD2C42F458}"/>
+  <xr:revisionPtr revIDLastSave="1402" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70650C92-9C64-47C0-BA42-A710E3D8C5A4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
@@ -1297,7 +1297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1516,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1603,9 +1603,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1691,7 +1708,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1990,13 +2007,13 @@
   <dimension ref="A1:AL164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A90" sqref="A90:XFD90"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E70" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="T91" sqref="T91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
@@ -2025,7 +2042,7 @@
     <col min="25" max="26" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="20" customFormat="1">
+    <row r="1" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2076,7 @@
       <c r="Y1" s="31"/>
       <c r="Z1" s="31"/>
     </row>
-    <row r="2" spans="1:26" s="20" customFormat="1">
+    <row r="2" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
@@ -2139,7 +2156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>45334</v>
       </c>
@@ -2218,7 +2235,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>45334</v>
       </c>
@@ -2297,7 +2314,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>45334</v>
       </c>
@@ -2376,7 +2393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>45334</v>
       </c>
@@ -2455,7 +2472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>45334</v>
       </c>
@@ -2534,7 +2551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>45334</v>
       </c>
@@ -2613,7 +2630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>45341</v>
       </c>
@@ -2692,7 +2709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>45341</v>
       </c>
@@ -2771,7 +2788,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>45341</v>
       </c>
@@ -2849,7 +2866,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>45341</v>
       </c>
@@ -2928,7 +2945,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>45341</v>
       </c>
@@ -3007,7 +3024,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>45341</v>
       </c>
@@ -3086,7 +3103,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>45341</v>
       </c>
@@ -3165,7 +3182,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>45341</v>
       </c>
@@ -3244,7 +3261,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>45341</v>
       </c>
@@ -3323,7 +3340,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>45341</v>
       </c>
@@ -3402,7 +3419,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>45341</v>
       </c>
@@ -3481,7 +3498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>45341</v>
       </c>
@@ -3560,7 +3577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>45359</v>
       </c>
@@ -3638,7 +3655,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>45359</v>
       </c>
@@ -3716,7 +3733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>45359</v>
       </c>
@@ -3794,7 +3811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>45359</v>
       </c>
@@ -3872,7 +3889,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>45334</v>
       </c>
@@ -3951,7 +3968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>45334</v>
       </c>
@@ -4030,7 +4047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>45334</v>
       </c>
@@ -4109,7 +4126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>45334</v>
       </c>
@@ -4188,7 +4205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>45334</v>
       </c>
@@ -4267,7 +4284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>45334</v>
       </c>
@@ -4346,7 +4363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>45334</v>
       </c>
@@ -4425,7 +4442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>45334</v>
       </c>
@@ -4504,7 +4521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>45334</v>
       </c>
@@ -4583,7 +4600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>45334</v>
       </c>
@@ -4662,7 +4679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75" thickBot="1">
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <v>45334</v>
       </c>
@@ -4741,7 +4758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>45343</v>
       </c>
@@ -4822,7 +4839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>45343</v>
       </c>
@@ -4903,7 +4920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>45343</v>
       </c>
@@ -4984,7 +5001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>45343</v>
       </c>
@@ -5065,7 +5082,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>45343</v>
       </c>
@@ -5146,7 +5163,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>45343</v>
       </c>
@@ -5227,7 +5244,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>45343</v>
       </c>
@@ -5308,7 +5325,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>45343</v>
       </c>
@@ -5389,7 +5406,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>45343</v>
       </c>
@@ -5470,7 +5487,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>45343</v>
       </c>
@@ -5551,7 +5568,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>45343</v>
       </c>
@@ -5632,7 +5649,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>45343</v>
       </c>
@@ -5713,7 +5730,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>45343</v>
       </c>
@@ -5794,7 +5811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>45343</v>
       </c>
@@ -5875,7 +5892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>45343</v>
       </c>
@@ -5956,7 +5973,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>45343</v>
       </c>
@@ -6037,7 +6054,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>45359</v>
       </c>
@@ -6118,7 +6135,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>45359</v>
       </c>
@@ -6199,7 +6216,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>45359</v>
       </c>
@@ -6280,7 +6297,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>45359</v>
       </c>
@@ -6361,7 +6378,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>45359</v>
       </c>
@@ -6442,7 +6459,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>45359</v>
       </c>
@@ -6523,7 +6540,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>45359</v>
       </c>
@@ -6604,7 +6621,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>45359</v>
       </c>
@@ -6685,7 +6702,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>45359</v>
       </c>
@@ -6766,7 +6783,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>45359</v>
       </c>
@@ -6847,7 +6864,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>45359</v>
       </c>
@@ -6928,7 +6945,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>45359</v>
       </c>
@@ -7009,7 +7026,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>45359</v>
       </c>
@@ -7090,7 +7107,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>45359</v>
       </c>
@@ -7171,7 +7188,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>45348</v>
       </c>
@@ -7252,7 +7269,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>45348</v>
       </c>
@@ -7333,7 +7350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>45348</v>
       </c>
@@ -7414,7 +7431,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>45348</v>
       </c>
@@ -7495,7 +7512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>45348</v>
       </c>
@@ -7576,7 +7593,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>45348</v>
       </c>
@@ -7657,7 +7674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>45348</v>
       </c>
@@ -7738,7 +7755,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>45348</v>
       </c>
@@ -7819,7 +7836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>45348</v>
       </c>
@@ -7900,7 +7917,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>45348</v>
       </c>
@@ -7981,7 +7998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>45348</v>
       </c>
@@ -8062,7 +8079,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>45348</v>
       </c>
@@ -8143,7 +8160,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>45348</v>
       </c>
@@ -8224,7 +8241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>45348</v>
       </c>
@@ -8305,7 +8322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45348</v>
       </c>
@@ -8386,7 +8403,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45348</v>
       </c>
@@ -8467,7 +8484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45348</v>
       </c>
@@ -8548,7 +8565,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45348</v>
       </c>
@@ -8629,7 +8646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45348</v>
       </c>
@@ -8710,7 +8727,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45348</v>
       </c>
@@ -8791,7 +8808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45348</v>
       </c>
@@ -8872,7 +8889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45348</v>
       </c>
@@ -8953,7 +8970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45348</v>
       </c>
@@ -9035,7 +9052,7 @@
       </c>
       <c r="AL88" s="29"/>
     </row>
-    <row r="89" spans="1:38" s="46" customFormat="1">
+    <row r="89" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>45348</v>
       </c>
@@ -9117,327 +9134,327 @@
       </c>
       <c r="AL89" s="47"/>
     </row>
-    <row r="90" spans="1:38">
-      <c r="A90" s="24">
+    <row r="90" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="48">
         <v>45356</v>
       </c>
-      <c r="B90" s="24">
+      <c r="B90" s="48">
         <v>45359</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="8">
         <v>1</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I90" s="16" t="s">
+      <c r="I90" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K90" s="15" t="s">
+      <c r="K90" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L90" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="N90" s="17"/>
+      <c r="N90" s="9"/>
       <c r="O90" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P90" s="2" t="s">
+      <c r="P90" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Q90" s="2" t="s">
+      <c r="Q90" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R90" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T90" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U90" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V90" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W90" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X90" s="16">
+      <c r="R90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U90" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="V90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X90" s="8">
         <v>455</v>
       </c>
-      <c r="Y90" s="16">
+      <c r="Y90" s="8">
         <v>2000</v>
       </c>
-      <c r="Z90" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL90" s="29"/>
-    </row>
-    <row r="91" spans="1:38">
-      <c r="A91" s="24">
+      <c r="Z90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL90" s="51"/>
+    </row>
+    <row r="91" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="52">
         <v>45356</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B91" s="52">
         <v>45359</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="54">
         <v>1</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="H91" s="2" t="str">
+      <c r="H91" s="53" t="str">
         <f t="shared" si="4"/>
         <v>12T_Triso_ T21_4_FMF_UK_A1a</v>
       </c>
-      <c r="I91" s="16" t="s">
+      <c r="I91" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="53" t="s">
         <v>32</v>
       </c>
       <c r="K91" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L91" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="53" t="s">
         <v>217</v>
       </c>
       <c r="N91" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="O91" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="P91" s="17" t="s">
+      <c r="P91" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="Q91" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R91" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S91" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T91" s="17" t="s">
+      <c r="Q91" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="R91" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="S91" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="T91" s="55" t="s">
         <v>35</v>
       </c>
       <c r="U91" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="V91" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W91" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X91" s="16">
+      <c r="V91" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="W91" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="X91" s="54">
         <v>455</v>
       </c>
-      <c r="Y91" s="16">
+      <c r="Y91" s="54">
         <v>2000</v>
       </c>
-      <c r="Z91" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:38">
-      <c r="A92" s="24">
+      <c r="Z91" s="55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="52">
         <v>45356</v>
       </c>
-      <c r="B92" s="24">
+      <c r="B92" s="52">
         <v>45359</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D92" s="54">
         <v>1</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="H92" s="2" t="str">
+      <c r="H92" s="53" t="str">
         <f t="shared" si="4"/>
         <v>12T_Triso_ T21_4_FMF_UK_A1b</v>
       </c>
-      <c r="I92" s="16" t="s">
+      <c r="I92" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="53" t="s">
         <v>32</v>
       </c>
       <c r="K92" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L92" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="N92" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O92" s="2" t="s">
+      <c r="N92" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="O92" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="P92" s="17" t="s">
+      <c r="P92" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="Q92" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R92" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S92" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T92" s="17" t="s">
+      <c r="Q92" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="R92" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="S92" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="T92" s="55" t="s">
         <v>35</v>
       </c>
       <c r="U92" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="V92" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W92" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X92" s="16">
+      <c r="V92" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="W92" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="X92" s="54">
         <v>455</v>
       </c>
-      <c r="Y92" s="16">
+      <c r="Y92" s="54">
         <v>2000</v>
       </c>
-      <c r="Z92" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:38">
-      <c r="A93" s="24">
+      <c r="Z92" s="55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
         <v>45356</v>
       </c>
-      <c r="B93" s="24">
+      <c r="B93" s="25">
         <v>45359</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="12">
         <v>1</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="I93" s="16" t="s">
+      <c r="I93" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K93" s="15" t="s">
+      <c r="K93" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L93" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N93" s="17"/>
-      <c r="O93" s="15" t="s">
+      <c r="N93" s="13"/>
+      <c r="O93" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="P93" s="2" t="s">
+      <c r="P93" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Q93" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R93" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S93" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T93" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U93" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V93" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W93" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X93" s="16">
+      <c r="Q93" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R93" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S93" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T93" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U93" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V93" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="W93" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X93" s="12">
         <v>455</v>
       </c>
-      <c r="Y93" s="16">
+      <c r="Y93" s="12">
         <v>2000</v>
       </c>
-      <c r="Z93" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL93" s="29"/>
-    </row>
-    <row r="94" spans="1:38">
+      <c r="Z93" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL93" s="47"/>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>45356</v>
       </c>
@@ -9518,7 +9535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>45356</v>
       </c>
@@ -9599,7 +9616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>45356</v>
       </c>
@@ -9680,7 +9697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>45356</v>
       </c>
@@ -9761,7 +9778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>45356</v>
       </c>
@@ -9842,7 +9859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>45356</v>
       </c>
@@ -9923,7 +9940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>45356</v>
       </c>
@@ -10004,7 +10021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>45356</v>
       </c>
@@ -10085,7 +10102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>45356</v>
       </c>
@@ -10166,7 +10183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>45356</v>
       </c>
@@ -10247,7 +10264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>45356</v>
       </c>
@@ -10328,7 +10345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>45356</v>
       </c>
@@ -10409,7 +10426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>45356</v>
       </c>
@@ -10490,7 +10507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>45356</v>
       </c>
@@ -10571,7 +10588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>45356</v>
       </c>
@@ -10652,7 +10669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>45356</v>
       </c>
@@ -10733,7 +10750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>45356</v>
       </c>
@@ -10814,7 +10831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>45356</v>
       </c>
@@ -10895,7 +10912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>45356</v>
       </c>
@@ -10976,7 +10993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>45356</v>
       </c>
@@ -11057,7 +11074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <v>45356</v>
       </c>
@@ -11138,7 +11155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>45356</v>
       </c>
@@ -11219,7 +11236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
         <v>45356</v>
       </c>
@@ -11300,7 +11317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>45356</v>
       </c>
@@ -11381,7 +11398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
         <v>45356</v>
       </c>
@@ -11462,7 +11479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>45356</v>
       </c>
@@ -11543,7 +11560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
         <v>45356</v>
       </c>
@@ -11624,7 +11641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>45356</v>
       </c>
@@ -11705,7 +11722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <v>45356</v>
       </c>
@@ -11786,7 +11803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>45356</v>
       </c>
@@ -11867,7 +11884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>45356</v>
       </c>
@@ -11948,7 +11965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>45356</v>
       </c>
@@ -12029,7 +12046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="24">
         <v>45356</v>
       </c>
@@ -12110,7 +12127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>45356</v>
       </c>
@@ -12191,7 +12208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="24">
         <v>45356</v>
       </c>
@@ -12272,7 +12289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>45356</v>
       </c>
@@ -12353,7 +12370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="24">
         <v>45356</v>
       </c>
@@ -12434,7 +12451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="24">
         <v>45356</v>
       </c>
@@ -12515,7 +12532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="24">
         <v>45356</v>
       </c>
@@ -12596,7 +12613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <v>45356</v>
       </c>
@@ -12677,7 +12694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="24">
         <v>45356</v>
       </c>
@@ -12758,7 +12775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <v>45356</v>
       </c>
@@ -12839,7 +12856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="24">
         <v>45356</v>
       </c>
@@ -12920,7 +12937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="24">
         <v>45356</v>
       </c>
@@ -13001,7 +13018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="24">
         <v>45356</v>
       </c>
@@ -13082,7 +13099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="24">
         <v>45356</v>
       </c>
@@ -13163,7 +13180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="24">
         <v>45356</v>
       </c>
@@ -13244,7 +13261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="24">
         <v>45356</v>
       </c>
@@ -13325,7 +13342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="24">
         <v>45356</v>
       </c>
@@ -13406,7 +13423,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="24">
         <v>45356</v>
       </c>
@@ -13487,7 +13504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="24">
         <v>45356</v>
       </c>
@@ -13568,7 +13585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>45356</v>
       </c>
@@ -13649,7 +13666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="24">
         <v>45356</v>
       </c>
@@ -13730,7 +13747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:26" s="46" customFormat="1">
+    <row r="147" spans="1:26" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25">
         <v>45356</v>
       </c>
@@ -13811,10 +13828,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="4:4">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="4:4">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="1"/>
     </row>
   </sheetData>
@@ -13837,14 +13854,14 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>399</v>
       </c>
@@ -13858,7 +13875,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>403</v>
       </c>
@@ -13872,7 +13889,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>406</v>
       </c>
@@ -13886,7 +13903,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>408</v>
       </c>
@@ -13900,7 +13917,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>410</v>
       </c>
@@ -13914,7 +13931,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>411</v>
       </c>
@@ -13928,7 +13945,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>413</v>
       </c>
@@ -13942,7 +13959,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>415</v>
       </c>
@@ -13956,7 +13973,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>417</v>
       </c>

--- a/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
+++ b/FSP_Exchange/data/Overview_Stat_Analyses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1402" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70650C92-9C64-47C0-BA42-A710E3D8C5A4}"/>
+  <xr:revisionPtr revIDLastSave="1444" documentId="8_{B71B119A-91B9-41B4-A31F-26ADBC8182F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF1271B6-2BCA-4424-AA00-8AEB50B48E35}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{DB58F8A3-982D-4375-901B-E1B15CF4D99D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="437">
   <si>
     <t>Analysis</t>
   </si>
@@ -1291,6 +1291,63 @@
   </si>
   <si>
     <t>See CPSP, page 6</t>
+  </si>
+  <si>
+    <t>DR &gt; 45%</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A1a</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A1b</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A2a</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A2b</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A3a</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A3b</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A4a</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A4b</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A5a</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A5b</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_MFs</t>
+  </si>
+  <si>
+    <t>3_FMF_UK_V2_A6</t>
+  </si>
+  <si>
+    <t>3_FMF_V2_cv__ds_3_FMF_UK_A1.xlsx</t>
+  </si>
+  <si>
+    <t>3_FMF_V2_cv__ds_3_FMF_UK_A2.xlsx</t>
+  </si>
+  <si>
+    <t>3_FMF_V2_cv__ds_3_FMF_UK_A3.xlsx</t>
+  </si>
+  <si>
+    <t>3_FMF_V2_cv__ds_3_FMF_UK_A4.xlsx</t>
+  </si>
+  <si>
+    <t>3_FMF_V2_cv__ds_3_FMF_UK_A5.xlsx</t>
+  </si>
+  <si>
+    <t>3_FMF_V2_cv__ds_3_FMF_UK_A6.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1614,12 +1671,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2004,13 +2060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D59CA7-78DE-483F-8DC5-D261426A3AA3}">
-  <dimension ref="A1:AL164"/>
+  <dimension ref="A1:AL176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T91" sqref="T91"/>
+      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,7 +5080,7 @@
         <v>142</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f t="shared" ref="H39:H146" si="4">F39&amp;"_"&amp;C39</f>
+        <f t="shared" ref="H39:H158" si="4">F39&amp;"_"&amp;C39</f>
         <v>1T_Triso_2_FMF_UK_A1</v>
       </c>
       <c r="I39" s="8">
@@ -9134,1810 +9190,1822 @@
       </c>
       <c r="AL89" s="47"/>
     </row>
-    <row r="90" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="48">
+    <row r="90" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B90" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D90" s="16">
+        <v>2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="H90" s="2" t="str">
+        <f t="shared" ref="H90:H101" si="13">F90&amp;"_"&amp;C90</f>
+        <v>2T_Triso_3_FMF_UK_V2_A1a</v>
+      </c>
+      <c r="I90" s="16">
+        <v>2</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L90" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N90" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O90" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q90" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R90" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T90" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="X90" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y90" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Z90" s="43">
+        <v>540</v>
+      </c>
+      <c r="AL90" s="55"/>
+    </row>
+    <row r="91" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B91" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D91" s="16">
+        <v>2</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="H91" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A1b</v>
+      </c>
+      <c r="I91" s="16">
+        <v>2</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L91" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N91" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O91" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P91" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q91" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R91" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S91" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T91" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U91" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V91" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W91" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X91" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y91" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z91" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL91" s="55"/>
+    </row>
+    <row r="92" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B92" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D92" s="16">
+        <v>3</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="H92" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A2a</v>
+      </c>
+      <c r="I92" s="16">
+        <v>2</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L92" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N92" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O92" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q92" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R92" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T92" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U92" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="V92" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="W92" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X92" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y92" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Z92" s="43">
+        <v>540</v>
+      </c>
+      <c r="AL92" s="55"/>
+    </row>
+    <row r="93" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B93" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D93" s="16">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G93" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="H93" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A2b</v>
+      </c>
+      <c r="I93" s="16">
+        <v>2</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R93" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S93" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="T93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U93" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X93" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y93" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Z93" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL93" s="55"/>
+    </row>
+    <row r="94" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B94" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D94" s="16">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="H94" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A3a</v>
+      </c>
+      <c r="I94" s="16">
+        <v>2</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L94" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N94" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O94" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q94" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R94" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T94" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U94" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="V94" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="W94" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X94" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y94" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Z94" s="43">
+        <v>540</v>
+      </c>
+      <c r="AL94" s="55"/>
+    </row>
+    <row r="95" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B95" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D95" s="16">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="H95" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A3b</v>
+      </c>
+      <c r="I95" s="16">
+        <v>2</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O95" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P95" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R95" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U95" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X95" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y95" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z95" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL95" s="55"/>
+    </row>
+    <row r="96" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B96" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D96" s="16">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="H96" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A4a</v>
+      </c>
+      <c r="I96" s="16">
+        <v>2</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L96" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N96" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O96" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q96" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R96" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T96" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U96" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="V96" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="W96" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X96" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y96" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Z96" s="43">
+        <v>540</v>
+      </c>
+      <c r="AL96" s="55"/>
+    </row>
+    <row r="97" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B97" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D97" s="16">
+        <v>7</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G97" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="H97" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A4b</v>
+      </c>
+      <c r="I97" s="16">
+        <v>2</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O97" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R97" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S97" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="T97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U97" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X97" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y97" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Z97" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL97" s="55"/>
+    </row>
+    <row r="98" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B98" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D98" s="16">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="H98" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A5a</v>
+      </c>
+      <c r="I98" s="16">
+        <v>2</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L98" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N98" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R98" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U98" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="V98" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="W98" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X98" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y98" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Z98" s="43">
+        <v>540</v>
+      </c>
+      <c r="AL98" s="55"/>
+    </row>
+    <row r="99" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B99" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D99" s="16">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="H99" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A5b</v>
+      </c>
+      <c r="I99" s="16">
+        <v>2</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K99" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L99" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N99" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P99" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q99" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R99" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S99" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T99" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U99" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V99" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W99" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X99" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y99" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z99" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL99" s="55"/>
+    </row>
+    <row r="100" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B100" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D100" s="16">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="H100" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_MFs</v>
+      </c>
+      <c r="I100" s="16">
+        <v>2</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K100" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N100" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q100" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R100" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T100" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U100" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="V100" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="W100" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X100" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y100" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Z100" s="43">
+        <v>540</v>
+      </c>
+      <c r="AL100" s="55"/>
+    </row>
+    <row r="101" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="52">
+        <v>45364</v>
+      </c>
+      <c r="B101" s="52">
+        <v>45366</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D101" s="16">
+        <v>5</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="H101" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>2T_Triso_3_FMF_UK_V2_A6</v>
+      </c>
+      <c r="I101" s="16">
+        <v>2</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K101" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N101" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O101" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R101" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U101" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="V101" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="W101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X101" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y101" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Z101" s="43">
+        <v>540</v>
+      </c>
+      <c r="AL101" s="55"/>
+    </row>
+    <row r="102" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="48">
         <v>45356</v>
       </c>
-      <c r="B90" s="48">
+      <c r="B102" s="48">
         <v>45359</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D102" s="8">
         <v>1</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F102" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G102" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H102" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I102" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="J90" s="5" t="s">
+      <c r="J102" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="K102" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L90" s="5" t="s">
+      <c r="L102" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M102" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="N90" s="9"/>
-      <c r="O90" s="7" t="s">
+      <c r="N102" s="9"/>
+      <c r="O102" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P90" s="5" t="s">
+      <c r="P102" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Q90" s="5" t="s">
+      <c r="Q102" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R90" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S90" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T90" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U90" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="V90" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="W90" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="X90" s="8">
+      <c r="R102" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S102" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T102" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U102" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="V102" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W102" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X102" s="8">
         <v>455</v>
       </c>
-      <c r="Y90" s="8">
+      <c r="Y102" s="8">
         <v>2000</v>
       </c>
-      <c r="Z90" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL90" s="51"/>
-    </row>
-    <row r="91" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="52">
+      <c r="Z102" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL102" s="51"/>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A103" s="24">
         <v>45356</v>
       </c>
-      <c r="B91" s="52">
+      <c r="B103" s="24">
         <v>45359</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C103" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D91" s="54">
+      <c r="D103" s="16">
         <v>1</v>
       </c>
-      <c r="E91" s="53" t="s">
+      <c r="E103" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="53" t="s">
+      <c r="F103" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G91" s="53" t="s">
+      <c r="G103" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H91" s="53" t="str">
+      <c r="H103" s="2" t="str">
         <f t="shared" si="4"/>
         <v>12T_Triso_ T21_4_FMF_UK_A1a</v>
       </c>
-      <c r="I91" s="54" t="s">
+      <c r="I103" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J91" s="53" t="s">
+      <c r="J103" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K91" s="15" t="s">
+      <c r="K103" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L91" s="53" t="s">
+      <c r="L103" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M91" s="53" t="s">
+      <c r="M103" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N91" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O91" s="53" t="s">
+      <c r="N103" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O103" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P91" s="55" t="s">
+      <c r="P103" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Q91" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="R91" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="S91" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="T91" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="U91" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V91" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="W91" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="X91" s="54">
+      <c r="Q103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U103" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X103" s="16">
         <v>455</v>
       </c>
-      <c r="Y91" s="54">
+      <c r="Y103" s="16">
         <v>2000</v>
       </c>
-      <c r="Z91" s="55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="52">
+      <c r="Z103" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A104" s="24">
         <v>45356</v>
       </c>
-      <c r="B92" s="52">
+      <c r="B104" s="24">
         <v>45359</v>
       </c>
-      <c r="C92" s="53" t="s">
+      <c r="C104" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D92" s="54">
+      <c r="D104" s="16">
         <v>1</v>
       </c>
-      <c r="E92" s="53" t="s">
+      <c r="E104" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F92" s="53" t="s">
+      <c r="F104" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G92" s="53" t="s">
+      <c r="G104" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H92" s="53" t="str">
+      <c r="H104" s="2" t="str">
         <f t="shared" si="4"/>
         <v>12T_Triso_ T21_4_FMF_UK_A1b</v>
       </c>
-      <c r="I92" s="54" t="s">
+      <c r="I104" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J92" s="53" t="s">
+      <c r="J104" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K92" s="15" t="s">
+      <c r="K104" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L92" s="53" t="s">
+      <c r="L104" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M92" s="53" t="s">
+      <c r="M104" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N92" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="O92" s="53" t="s">
+      <c r="N104" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P92" s="55" t="s">
+      <c r="P104" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Q92" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="R92" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="S92" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="T92" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="U92" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V92" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="W92" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="X92" s="54">
+      <c r="Q104" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R104" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S104" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T104" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U104" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V104" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W104" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X104" s="16">
         <v>455</v>
       </c>
-      <c r="Y92" s="54">
+      <c r="Y104" s="16">
         <v>2000</v>
       </c>
-      <c r="Z92" s="55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25">
+      <c r="Z104" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="25">
         <v>45356</v>
       </c>
-      <c r="B93" s="25">
+      <c r="B105" s="25">
         <v>45359</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D105" s="12">
         <v>1</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H105" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="I93" s="12" t="s">
+      <c r="I105" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J105" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K93" s="11" t="s">
+      <c r="K105" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="L105" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="M105" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N93" s="13"/>
-      <c r="O93" s="11" t="s">
+      <c r="N105" s="13"/>
+      <c r="O105" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="P93" s="4" t="s">
+      <c r="P105" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Q93" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R93" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S93" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T93" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U93" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="V93" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="W93" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="X93" s="12">
+      <c r="Q105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U105" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="W105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X105" s="12">
         <v>455</v>
       </c>
-      <c r="Y93" s="12">
+      <c r="Y105" s="12">
         <v>2000</v>
       </c>
-      <c r="Z93" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL93" s="47"/>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A94" s="24">
+      <c r="Z105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL105" s="47"/>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A106" s="24">
         <v>45356</v>
       </c>
-      <c r="B94" s="24">
+      <c r="B106" s="24">
         <v>45359</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D106" s="16">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G94" s="42" t="s">
+      <c r="G106" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="H94" s="2" t="str">
+      <c r="H106" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Triso_single_sim_4_FMF_UK_A2</v>
       </c>
-      <c r="I94" s="16" t="s">
+      <c r="I106" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K94" s="15" t="s">
+      <c r="K106" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M94" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N94" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O94" s="17" t="s">
+      <c r="N106" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O106" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="P94" s="17" t="s">
+      <c r="P106" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Q94" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R94" s="28" t="s">
+      <c r="Q106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R106" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="S94" s="2" t="s">
+      <c r="S106" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="T94" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U94" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V94" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W94" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X94" s="16">
+      <c r="T106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U106" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X106" s="16">
         <v>455</v>
       </c>
-      <c r="Y94" s="16">
+      <c r="Y106" s="16">
         <v>2000</v>
       </c>
-      <c r="Z94" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A95" s="24">
+      <c r="Z106" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A107" s="24">
         <v>45356</v>
       </c>
-      <c r="B95" s="24">
+      <c r="B107" s="24">
         <v>45359</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D107" s="16">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G95" s="42" t="s">
+      <c r="G107" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="H95" s="2" t="str">
+      <c r="H107" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Triso_single_sim_4_FMF_UK_A3</v>
       </c>
-      <c r="I95" s="16" t="s">
+      <c r="I107" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K95" s="15" t="s">
+      <c r="K107" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="M107" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N95" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O95" s="28" t="s">
+      <c r="N107" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O107" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="P95" s="17" t="s">
+      <c r="P107" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Q95" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R95" s="28" t="s">
+      <c r="Q107" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R107" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="S95" s="2" t="s">
+      <c r="S107" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="T95" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U95" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V95" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W95" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X95" s="16">
+      <c r="T107" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U107" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V107" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W107" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X107" s="16">
         <v>455</v>
       </c>
-      <c r="Y95" s="16">
+      <c r="Y107" s="16">
         <v>2000</v>
       </c>
-      <c r="Z95" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A96" s="24">
+      <c r="Z107" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A108" s="24">
         <v>45356</v>
       </c>
-      <c r="B96" s="24">
+      <c r="B108" s="24">
         <v>45359</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D108" s="16">
         <v>26</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G96" s="42" t="s">
+      <c r="G108" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H96" s="2" t="str">
+      <c r="H108" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Triso_single_sim_4_FMF_UK_A4</v>
       </c>
-      <c r="I96" s="16" t="s">
+      <c r="I108" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K96" s="15" t="s">
+      <c r="K108" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M96" s="2" t="s">
+      <c r="M108" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N96" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O96" s="15" t="s">
+      <c r="N108" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O108" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="P96" s="17" t="s">
+      <c r="P108" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Q96" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R96" s="28" t="s">
+      <c r="Q108" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R108" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="S96" s="2" t="s">
+      <c r="S108" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="T96" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U96" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V96" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W96" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X96" s="16">
+      <c r="T108" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U108" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V108" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W108" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X108" s="16">
         <v>455</v>
       </c>
-      <c r="Y96" s="16">
+      <c r="Y108" s="16">
         <v>2000</v>
       </c>
-      <c r="Z96" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="24">
+      <c r="Z108" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A109" s="24">
         <v>45356</v>
       </c>
-      <c r="B97" s="24">
+      <c r="B109" s="24">
         <v>45359</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D109" s="16">
         <v>27</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G97" s="42" t="s">
+      <c r="G109" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="H97" s="2" t="str">
+      <c r="H109" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Triso_single_sim_4_FMF_UK_A5</v>
       </c>
-      <c r="I97" s="16" t="s">
+      <c r="I109" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K97" s="15" t="s">
+      <c r="K109" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="L109" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M97" s="2" t="s">
+      <c r="M109" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="N97" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O97" s="28" t="s">
+      <c r="N109" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O109" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="P97" s="17" t="s">
+      <c r="P109" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Q97" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R97" s="28" t="s">
+      <c r="Q109" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R109" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="S97" s="2" t="s">
+      <c r="S109" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="T97" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U97" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V97" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W97" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X97" s="16">
+      <c r="T109" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U109" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V109" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W109" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X109" s="16">
         <v>455</v>
       </c>
-      <c r="Y97" s="16">
+      <c r="Y109" s="16">
         <v>2000</v>
       </c>
-      <c r="Z97" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A98" s="24">
+      <c r="Z109" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A110" s="24">
         <v>45356</v>
       </c>
-      <c r="B98" s="24">
+      <c r="B110" s="24">
         <v>45359</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D110" s="16">
         <v>6</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G98" s="42" t="s">
+      <c r="G110" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="H98" s="2" t="str">
+      <c r="H110" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Triso_single_sim_4_FMF_UK_A6</v>
       </c>
-      <c r="I98" s="16" t="s">
+      <c r="I110" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K98" s="15" t="s">
+      <c r="K110" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M98" s="2" t="s">
+      <c r="M110" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="N98" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O98" s="28" t="s">
+      <c r="N110" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O110" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="P98" s="17" t="s">
+      <c r="P110" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Q98" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R98" s="28" t="s">
+      <c r="Q110" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R110" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="S98" s="2" t="s">
+      <c r="S110" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="T98" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U98" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V98" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W98" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X98" s="16">
+      <c r="T110" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U110" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V110" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W110" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X110" s="16">
         <v>455</v>
       </c>
-      <c r="Y98" s="16">
+      <c r="Y110" s="16">
         <v>2000</v>
       </c>
-      <c r="Z98" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="24">
+      <c r="Z110" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A111" s="24">
         <v>45356</v>
       </c>
-      <c r="B99" s="24">
+      <c r="B111" s="24">
         <v>45359</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D111" s="16">
         <v>7</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G99" s="42" t="s">
+      <c r="G111" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="H99" s="2" t="str">
+      <c r="H111" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Triso_single_sim_4_FMF_UK_A7</v>
       </c>
-      <c r="I99" s="16" t="s">
+      <c r="I111" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K99" s="15" t="s">
+      <c r="K111" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="M111" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N99" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O99" s="15" t="s">
+      <c r="N111" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O111" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="P99" s="17" t="s">
+      <c r="P111" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="Q99" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R99" s="28" t="s">
+      <c r="Q111" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R111" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="S99" s="2" t="s">
+      <c r="S111" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="T99" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U99" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V99" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W99" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X99" s="16">
+      <c r="T111" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U111" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V111" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W111" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X111" s="16">
         <v>455</v>
       </c>
-      <c r="Y99" s="16">
+      <c r="Y111" s="16">
         <v>2000</v>
       </c>
-      <c r="Z99" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A100" s="24">
+      <c r="Z111" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A112" s="24">
         <v>45356</v>
       </c>
-      <c r="B100" s="24">
+      <c r="B112" s="24">
         <v>45359</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D112" s="16">
         <v>18</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G112" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="H100" s="2" t="str">
+      <c r="H112" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Triso_single_sim_4_FMF_UK_A8</v>
       </c>
-      <c r="I100" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K100" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="N100" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O100" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P100" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q100" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R100" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S100" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T100" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U100" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V100" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W100" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X100" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y100" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z100" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A101" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B101" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" s="16">
-        <v>19</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G101" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="H101" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A9</v>
-      </c>
-      <c r="I101" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K101" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="N101" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O101" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P101" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q101" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R101" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T101" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U101" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V101" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W101" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X101" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y101" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z101" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A102" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B102" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D102" s="16">
-        <v>30</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G102" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="H102" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A10</v>
-      </c>
-      <c r="I102" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K102" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="N102" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O102" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="P102" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q102" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R102" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S102" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T102" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U102" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V102" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W102" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X102" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y102" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z102" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A103" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B103" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D103" s="16">
-        <v>31</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G103" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="H103" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A11</v>
-      </c>
-      <c r="I103" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K103" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="N103" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O103" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P103" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q103" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R103" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S103" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T103" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U103" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V103" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W103" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X103" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y103" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z103" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A104" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B104" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D104" s="16">
-        <v>10</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G104" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="H104" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A12</v>
-      </c>
-      <c r="I104" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K104" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N104" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O104" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P104" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q104" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R104" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S104" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T104" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U104" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V104" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W104" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X104" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y104" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z104" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B105" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D105" s="16">
-        <v>11</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G105" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="H105" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A13</v>
-      </c>
-      <c r="I105" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K105" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N105" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O105" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="P105" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q105" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R105" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S105" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T105" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U105" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V105" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W105" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X105" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y105" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z105" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B106" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D106" s="16">
-        <v>22</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G106" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="H106" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A14</v>
-      </c>
-      <c r="I106" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K106" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="N106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O106" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P106" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R106" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U106" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X106" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y106" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z106" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A107" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B107" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D107" s="16">
-        <v>23</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G107" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="H107" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A15</v>
-      </c>
-      <c r="I107" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K107" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="N107" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O107" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P107" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q107" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R107" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S107" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T107" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U107" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V107" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W107" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X107" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y107" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z107" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A108" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B108" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D108" s="16">
-        <v>34</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G108" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="H108" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A16</v>
-      </c>
-      <c r="I108" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="N108" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O108" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="P108" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q108" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R108" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T108" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U108" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V108" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W108" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X108" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y108" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z108" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A109" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B109" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D109" s="16">
-        <v>35</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G109" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="H109" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A17</v>
-      </c>
-      <c r="I109" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="N109" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O109" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P109" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q109" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R109" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S109" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T109" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U109" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V109" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W109" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X109" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y109" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z109" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A110" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B110" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D110" s="16">
-        <v>14</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G110" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="H110" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A18</v>
-      </c>
-      <c r="I110" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K110" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N110" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O110" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P110" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q110" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R110" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S110" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T110" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U110" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V110" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W110" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X110" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y110" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z110" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B111" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D111" s="16">
-        <v>15</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G111" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="H111" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_single_sim_4_FMF_UK_A19</v>
-      </c>
-      <c r="I111" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K111" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N111" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O111" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="P111" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q111" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R111" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="T111" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="U111" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V111" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W111" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="X111" s="16">
-        <v>455</v>
-      </c>
-      <c r="Y111" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Z111" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A112" s="24">
-        <v>45356</v>
-      </c>
-      <c r="B112" s="24">
-        <v>45359</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D112" s="16">
-        <v>4</v>
-      </c>
-      <c r="E112" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G112" t="s">
-        <v>327</v>
-      </c>
-      <c r="H112" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A20_MC</v>
-      </c>
       <c r="I112" s="16" t="s">
         <v>276</v>
       </c>
@@ -10948,12 +11016,12 @@
         <v>277</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N112" s="18" t="s">
+      <c r="N112" s="17" t="s">
         <v>35</v>
       </c>
       <c r="O112" s="28" t="s">
@@ -10983,11 +11051,11 @@
       <c r="W112" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X112" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y112" s="21" t="s">
-        <v>52</v>
+      <c r="X112" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y112" s="16">
+        <v>2000</v>
       </c>
       <c r="Z112" s="17" t="s">
         <v>35</v>
@@ -11001,23 +11069,23 @@
         <v>45359</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="D113" s="16">
-        <v>4</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>181</v>
+        <v>19</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="H113" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A20_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A9</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>276</v>
@@ -11029,12 +11097,12 @@
         <v>277</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="N113" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="N113" s="17" t="s">
         <v>35</v>
       </c>
       <c r="O113" s="28" t="s">
@@ -11064,11 +11132,11 @@
       <c r="W113" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X113" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y113" s="21" t="s">
-        <v>52</v>
+      <c r="X113" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y113" s="16">
+        <v>2000</v>
       </c>
       <c r="Z113" s="17" t="s">
         <v>35</v>
@@ -11082,23 +11150,23 @@
         <v>45359</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="D114" s="16">
-        <v>5</v>
-      </c>
-      <c r="E114" s="42" t="s">
-        <v>177</v>
+        <v>30</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="H114" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A21_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A10</v>
       </c>
       <c r="I114" s="16" t="s">
         <v>276</v>
@@ -11110,15 +11178,15 @@
         <v>277</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="N114" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O114" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="N114" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O114" s="15" t="s">
         <v>132</v>
       </c>
       <c r="P114" s="17" t="s">
@@ -11145,11 +11213,11 @@
       <c r="W114" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X114" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y114" s="21" t="s">
-        <v>52</v>
+      <c r="X114" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y114" s="16">
+        <v>2000</v>
       </c>
       <c r="Z114" s="17" t="s">
         <v>35</v>
@@ -11163,23 +11231,23 @@
         <v>45359</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="D115" s="16">
-        <v>5</v>
-      </c>
-      <c r="E115" s="42" t="s">
-        <v>181</v>
+        <v>31</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="H115" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A21_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A11</v>
       </c>
       <c r="I115" s="16" t="s">
         <v>276</v>
@@ -11191,12 +11259,12 @@
         <v>277</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="N115" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="N115" s="17" t="s">
         <v>35</v>
       </c>
       <c r="O115" s="28" t="s">
@@ -11226,11 +11294,11 @@
       <c r="W115" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X115" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y115" s="21" t="s">
-        <v>52</v>
+      <c r="X115" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y115" s="16">
+        <v>2000</v>
       </c>
       <c r="Z115" s="17" t="s">
         <v>35</v>
@@ -11244,23 +11312,23 @@
         <v>45359</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="D116" s="16">
-        <v>28</v>
-      </c>
-      <c r="E116" s="42" t="s">
-        <v>177</v>
+        <v>10</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="H116" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A22_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A12</v>
       </c>
       <c r="I116" s="16" t="s">
         <v>276</v>
@@ -11272,15 +11340,15 @@
         <v>277</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="N116" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O116" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="N116" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O116" s="28" t="s">
         <v>132</v>
       </c>
       <c r="P116" s="17" t="s">
@@ -11307,11 +11375,11 @@
       <c r="W116" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X116" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y116" s="21" t="s">
-        <v>52</v>
+      <c r="X116" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y116" s="16">
+        <v>2000</v>
       </c>
       <c r="Z116" s="17" t="s">
         <v>35</v>
@@ -11325,23 +11393,23 @@
         <v>45359</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="D117" s="16">
-        <v>28</v>
-      </c>
-      <c r="E117" s="42" t="s">
-        <v>181</v>
+        <v>11</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="H117" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A22_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A13</v>
       </c>
       <c r="I117" s="16" t="s">
         <v>276</v>
@@ -11353,12 +11421,12 @@
         <v>277</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="N117" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="N117" s="17" t="s">
         <v>35</v>
       </c>
       <c r="O117" s="15" t="s">
@@ -11388,11 +11456,11 @@
       <c r="W117" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X117" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y117" s="21" t="s">
-        <v>52</v>
+      <c r="X117" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y117" s="16">
+        <v>2000</v>
       </c>
       <c r="Z117" s="17" t="s">
         <v>35</v>
@@ -11406,23 +11474,23 @@
         <v>45359</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="D118" s="16">
-        <v>29</v>
-      </c>
-      <c r="E118" s="42" t="s">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G118" s="42" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="H118" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A23_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A14</v>
       </c>
       <c r="I118" s="16" t="s">
         <v>276</v>
@@ -11434,12 +11502,12 @@
         <v>277</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="N118" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="N118" s="17" t="s">
         <v>35</v>
       </c>
       <c r="O118" s="28" t="s">
@@ -11469,11 +11537,11 @@
       <c r="W118" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X118" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y118" s="21" t="s">
-        <v>52</v>
+      <c r="X118" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y118" s="16">
+        <v>2000</v>
       </c>
       <c r="Z118" s="17" t="s">
         <v>35</v>
@@ -11487,23 +11555,23 @@
         <v>45359</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="D119" s="16">
-        <v>29</v>
-      </c>
-      <c r="E119" s="42" t="s">
-        <v>181</v>
+        <v>23</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="H119" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A23_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A15</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>276</v>
@@ -11515,12 +11583,12 @@
         <v>277</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="N119" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="N119" s="17" t="s">
         <v>35</v>
       </c>
       <c r="O119" s="28" t="s">
@@ -11550,11 +11618,11 @@
       <c r="W119" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X119" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y119" s="21" t="s">
-        <v>52</v>
+      <c r="X119" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y119" s="16">
+        <v>2000</v>
       </c>
       <c r="Z119" s="17" t="s">
         <v>35</v>
@@ -11568,23 +11636,23 @@
         <v>45359</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="D120" s="16">
-        <v>8</v>
-      </c>
-      <c r="E120" s="42" t="s">
-        <v>177</v>
+        <v>34</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H120" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A24_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A16</v>
       </c>
       <c r="I120" s="16" t="s">
         <v>276</v>
@@ -11596,15 +11664,15 @@
         <v>277</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N120" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O120" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="N120" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O120" s="15" t="s">
         <v>132</v>
       </c>
       <c r="P120" s="17" t="s">
@@ -11631,11 +11699,11 @@
       <c r="W120" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X120" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y120" s="21" t="s">
-        <v>52</v>
+      <c r="X120" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y120" s="16">
+        <v>2000</v>
       </c>
       <c r="Z120" s="17" t="s">
         <v>35</v>
@@ -11649,23 +11717,23 @@
         <v>45359</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="D121" s="16">
-        <v>8</v>
-      </c>
-      <c r="E121" s="42" t="s">
-        <v>181</v>
+        <v>35</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="H121" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A24_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A17</v>
       </c>
       <c r="I121" s="16" t="s">
         <v>276</v>
@@ -11677,12 +11745,12 @@
         <v>277</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="N121" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="N121" s="17" t="s">
         <v>35</v>
       </c>
       <c r="O121" s="28" t="s">
@@ -11712,11 +11780,11 @@
       <c r="W121" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X121" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y121" s="21" t="s">
-        <v>52</v>
+      <c r="X121" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y121" s="16">
+        <v>2000</v>
       </c>
       <c r="Z121" s="17" t="s">
         <v>35</v>
@@ -11730,23 +11798,23 @@
         <v>45359</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="D122" s="16">
-        <v>9</v>
-      </c>
-      <c r="E122" s="42" t="s">
-        <v>177</v>
+        <v>14</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G122" s="42" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="H122" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A25_MC</v>
+        <v>Triso_single_sim_4_FMF_UK_A18</v>
       </c>
       <c r="I122" s="16" t="s">
         <v>276</v>
@@ -11758,15 +11826,15 @@
         <v>277</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N122" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O122" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="N122" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O122" s="28" t="s">
         <v>132</v>
       </c>
       <c r="P122" s="17" t="s">
@@ -11793,11 +11861,11 @@
       <c r="W122" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X122" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y122" s="21" t="s">
-        <v>52</v>
+      <c r="X122" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y122" s="16">
+        <v>2000</v>
       </c>
       <c r="Z122" s="17" t="s">
         <v>35</v>
@@ -11811,23 +11879,23 @@
         <v>45359</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="D123" s="16">
-        <v>9</v>
-      </c>
-      <c r="E123" s="42" t="s">
-        <v>181</v>
+        <v>15</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="H123" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A25_DC</v>
+        <v>Triso_single_sim_4_FMF_UK_A19</v>
       </c>
       <c r="I123" s="16" t="s">
         <v>276</v>
@@ -11839,7 +11907,7 @@
         <v>277</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>246</v>
@@ -11874,11 +11942,11 @@
       <c r="W123" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X123" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y123" s="21" t="s">
-        <v>52</v>
+      <c r="X123" s="16">
+        <v>455</v>
+      </c>
+      <c r="Y123" s="16">
+        <v>2000</v>
       </c>
       <c r="Z123" s="17" t="s">
         <v>35</v>
@@ -11892,10 +11960,10 @@
         <v>45359</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D124" s="16">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E124" s="42" t="s">
         <v>177</v>
@@ -11903,12 +11971,12 @@
       <c r="F124" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G124" s="42" t="s">
-        <v>352</v>
+      <c r="G124" t="s">
+        <v>327</v>
       </c>
       <c r="H124" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A26_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A20_MC</v>
       </c>
       <c r="I124" s="16" t="s">
         <v>276</v>
@@ -11920,7 +11988,7 @@
         <v>277</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>217</v>
@@ -11973,10 +12041,10 @@
         <v>45359</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="D125" s="16">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E125" s="42" t="s">
         <v>181</v>
@@ -11985,11 +12053,11 @@
         <v>329</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="H125" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A26_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A20_DC</v>
       </c>
       <c r="I125" s="16" t="s">
         <v>276</v>
@@ -12001,7 +12069,7 @@
         <v>277</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>217</v>
@@ -12054,10 +12122,10 @@
         <v>45359</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="D126" s="16">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E126" s="42" t="s">
         <v>177</v>
@@ -12066,11 +12134,11 @@
         <v>326</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="H126" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A27_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A21_MC</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>276</v>
@@ -12082,7 +12150,7 @@
         <v>277</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>225</v>
@@ -12090,7 +12158,7 @@
       <c r="N126" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O126" s="15" t="s">
+      <c r="O126" s="28" t="s">
         <v>132</v>
       </c>
       <c r="P126" s="17" t="s">
@@ -12135,10 +12203,10 @@
         <v>45359</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D127" s="16">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E127" s="42" t="s">
         <v>181</v>
@@ -12147,11 +12215,11 @@
         <v>329</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="H127" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A27_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A21_DC</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>276</v>
@@ -12163,7 +12231,7 @@
         <v>277</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>225</v>
@@ -12171,7 +12239,7 @@
       <c r="N127" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O127" s="15" t="s">
+      <c r="O127" s="28" t="s">
         <v>132</v>
       </c>
       <c r="P127" s="17" t="s">
@@ -12216,10 +12284,10 @@
         <v>45359</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D128" s="16">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E128" s="42" t="s">
         <v>177</v>
@@ -12228,11 +12296,11 @@
         <v>326</v>
       </c>
       <c r="G128" s="42" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="H128" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A28_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A22_MC</v>
       </c>
       <c r="I128" s="16" t="s">
         <v>276</v>
@@ -12244,7 +12312,7 @@
         <v>277</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>230</v>
@@ -12252,7 +12320,7 @@
       <c r="N128" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O128" s="28" t="s">
+      <c r="O128" s="15" t="s">
         <v>132</v>
       </c>
       <c r="P128" s="17" t="s">
@@ -12297,10 +12365,10 @@
         <v>45359</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="D129" s="16">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E129" s="42" t="s">
         <v>181</v>
@@ -12309,11 +12377,11 @@
         <v>329</v>
       </c>
       <c r="G129" s="42" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="H129" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A28_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A22_DC</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>276</v>
@@ -12325,7 +12393,7 @@
         <v>277</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>230</v>
@@ -12333,7 +12401,7 @@
       <c r="N129" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O129" s="28" t="s">
+      <c r="O129" s="15" t="s">
         <v>132</v>
       </c>
       <c r="P129" s="17" t="s">
@@ -12378,10 +12446,10 @@
         <v>45359</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D130" s="16">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E130" s="42" t="s">
         <v>177</v>
@@ -12390,11 +12458,11 @@
         <v>326</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="H130" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A29_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A23_MC</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>276</v>
@@ -12406,7 +12474,7 @@
         <v>277</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>235</v>
@@ -12414,7 +12482,7 @@
       <c r="N130" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O130" s="15" t="s">
+      <c r="O130" s="28" t="s">
         <v>132</v>
       </c>
       <c r="P130" s="17" t="s">
@@ -12459,10 +12527,10 @@
         <v>45359</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D131" s="16">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E131" s="42" t="s">
         <v>181</v>
@@ -12471,11 +12539,11 @@
         <v>329</v>
       </c>
       <c r="G131" s="42" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="H131" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A29_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A23_DC</v>
       </c>
       <c r="I131" s="16" t="s">
         <v>276</v>
@@ -12487,7 +12555,7 @@
         <v>277</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>235</v>
@@ -12495,7 +12563,7 @@
       <c r="N131" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O131" s="15" t="s">
+      <c r="O131" s="28" t="s">
         <v>132</v>
       </c>
       <c r="P131" s="17" t="s">
@@ -12540,10 +12608,10 @@
         <v>45359</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="D132" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E132" s="42" t="s">
         <v>177</v>
@@ -12552,11 +12620,11 @@
         <v>326</v>
       </c>
       <c r="G132" s="42" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="H132" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A30_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A24_MC</v>
       </c>
       <c r="I132" s="16" t="s">
         <v>276</v>
@@ -12568,7 +12636,7 @@
         <v>277</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M132" s="2" t="s">
         <v>239</v>
@@ -12621,10 +12689,10 @@
         <v>45359</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D133" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E133" s="42" t="s">
         <v>181</v>
@@ -12633,11 +12701,11 @@
         <v>329</v>
       </c>
       <c r="G133" s="42" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H133" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A30_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A24_DC</v>
       </c>
       <c r="I133" s="16" t="s">
         <v>276</v>
@@ -12649,7 +12717,7 @@
         <v>277</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>239</v>
@@ -12702,10 +12770,10 @@
         <v>45359</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D134" s="16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E134" s="42" t="s">
         <v>177</v>
@@ -12714,11 +12782,11 @@
         <v>326</v>
       </c>
       <c r="G134" s="42" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="H134" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A31_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A25_MC</v>
       </c>
       <c r="I134" s="16" t="s">
         <v>276</v>
@@ -12730,7 +12798,7 @@
         <v>277</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>246</v>
@@ -12738,7 +12806,7 @@
       <c r="N134" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O134" s="28" t="s">
+      <c r="O134" s="15" t="s">
         <v>132</v>
       </c>
       <c r="P134" s="17" t="s">
@@ -12783,10 +12851,10 @@
         <v>45359</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="D135" s="16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E135" s="42" t="s">
         <v>181</v>
@@ -12795,11 +12863,11 @@
         <v>329</v>
       </c>
       <c r="G135" s="42" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="H135" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A31_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A25_DC</v>
       </c>
       <c r="I135" s="16" t="s">
         <v>276</v>
@@ -12811,7 +12879,7 @@
         <v>277</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>246</v>
@@ -12819,7 +12887,7 @@
       <c r="N135" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O135" s="28" t="s">
+      <c r="O135" s="15" t="s">
         <v>132</v>
       </c>
       <c r="P135" s="17" t="s">
@@ -12864,10 +12932,10 @@
         <v>45359</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="D136" s="16">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E136" s="42" t="s">
         <v>177</v>
@@ -12876,11 +12944,11 @@
         <v>326</v>
       </c>
       <c r="G136" s="42" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="H136" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A32_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A26_MC</v>
       </c>
       <c r="I136" s="16" t="s">
         <v>276</v>
@@ -12892,7 +12960,7 @@
         <v>277</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>217</v>
@@ -12900,7 +12968,7 @@
       <c r="N136" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O136" s="15" t="s">
+      <c r="O136" s="28" t="s">
         <v>132</v>
       </c>
       <c r="P136" s="17" t="s">
@@ -12945,10 +13013,10 @@
         <v>45359</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D137" s="16">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E137" s="42" t="s">
         <v>181</v>
@@ -12957,11 +13025,11 @@
         <v>329</v>
       </c>
       <c r="G137" s="42" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="H137" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A32_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A26_DC</v>
       </c>
       <c r="I137" s="16" t="s">
         <v>276</v>
@@ -12973,7 +13041,7 @@
         <v>277</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>217</v>
@@ -12981,7 +13049,7 @@
       <c r="N137" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O137" s="15" t="s">
+      <c r="O137" s="28" t="s">
         <v>132</v>
       </c>
       <c r="P137" s="17" t="s">
@@ -13026,10 +13094,10 @@
         <v>45359</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D138" s="16">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E138" s="42" t="s">
         <v>177</v>
@@ -13038,11 +13106,11 @@
         <v>326</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="H138" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A33_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A27_MC</v>
       </c>
       <c r="I138" s="16" t="s">
         <v>276</v>
@@ -13054,7 +13122,7 @@
         <v>277</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>225</v>
@@ -13062,7 +13130,7 @@
       <c r="N138" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O138" s="28" t="s">
+      <c r="O138" s="15" t="s">
         <v>132</v>
       </c>
       <c r="P138" s="17" t="s">
@@ -13107,10 +13175,10 @@
         <v>45359</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="D139" s="16">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E139" s="42" t="s">
         <v>181</v>
@@ -13119,11 +13187,11 @@
         <v>329</v>
       </c>
       <c r="G139" s="42" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="H139" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A33_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A27_DC</v>
       </c>
       <c r="I139" s="16" t="s">
         <v>276</v>
@@ -13135,7 +13203,7 @@
         <v>277</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M139" s="2" t="s">
         <v>225</v>
@@ -13143,7 +13211,7 @@
       <c r="N139" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O139" s="28" t="s">
+      <c r="O139" s="15" t="s">
         <v>132</v>
       </c>
       <c r="P139" s="17" t="s">
@@ -13188,10 +13256,10 @@
         <v>45359</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D140" s="16">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E140" s="42" t="s">
         <v>177</v>
@@ -13200,11 +13268,11 @@
         <v>326</v>
       </c>
       <c r="G140" s="42" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="H140" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A34_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A28_MC</v>
       </c>
       <c r="I140" s="16" t="s">
         <v>276</v>
@@ -13216,7 +13284,7 @@
         <v>277</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>230</v>
@@ -13269,10 +13337,10 @@
         <v>45359</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D141" s="16">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E141" s="42" t="s">
         <v>181</v>
@@ -13281,11 +13349,11 @@
         <v>329</v>
       </c>
       <c r="G141" s="42" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="H141" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A34_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A28_DC</v>
       </c>
       <c r="I141" s="16" t="s">
         <v>276</v>
@@ -13297,7 +13365,7 @@
         <v>277</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>230</v>
@@ -13350,10 +13418,10 @@
         <v>45359</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="D142" s="16">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E142" s="42" t="s">
         <v>177</v>
@@ -13362,11 +13430,11 @@
         <v>326</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="H142" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A35_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A29_MC</v>
       </c>
       <c r="I142" s="16" t="s">
         <v>276</v>
@@ -13378,7 +13446,7 @@
         <v>277</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>235</v>
@@ -13431,10 +13499,10 @@
         <v>45359</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D143" s="16">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E143" s="42" t="s">
         <v>181</v>
@@ -13443,11 +13511,11 @@
         <v>329</v>
       </c>
       <c r="G143" s="42" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="H143" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A35_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A29_DC</v>
       </c>
       <c r="I143" s="16" t="s">
         <v>276</v>
@@ -13459,7 +13527,7 @@
         <v>277</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M143" s="2" t="s">
         <v>235</v>
@@ -13512,10 +13580,10 @@
         <v>45359</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="D144" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E144" s="42" t="s">
         <v>177</v>
@@ -13524,11 +13592,11 @@
         <v>326</v>
       </c>
       <c r="G144" s="42" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="H144" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A36_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A30_MC</v>
       </c>
       <c r="I144" s="16" t="s">
         <v>276</v>
@@ -13540,7 +13608,7 @@
         <v>277</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M144" s="2" t="s">
         <v>239</v>
@@ -13593,10 +13661,10 @@
         <v>45359</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D145" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E145" s="42" t="s">
         <v>181</v>
@@ -13605,11 +13673,11 @@
         <v>329</v>
       </c>
       <c r="G145" s="42" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="H145" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_DC_4_FMF_UK_A36_DC</v>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A30_DC</v>
       </c>
       <c r="I145" s="16" t="s">
         <v>276</v>
@@ -13621,7 +13689,7 @@
         <v>277</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>239</v>
@@ -13674,10 +13742,10 @@
         <v>45359</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="D146" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E146" s="42" t="s">
         <v>177</v>
@@ -13686,11 +13754,11 @@
         <v>326</v>
       </c>
       <c r="G146" s="42" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="H146" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Triso_twin_sim_MC_4_FMF_UK_A37_MC</v>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A31_MC</v>
       </c>
       <c r="I146" s="16" t="s">
         <v>276</v>
@@ -13698,16 +13766,16 @@
       <c r="J146" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="15" t="s">
         <v>277</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N146" s="17" t="s">
+      <c r="N146" s="18" t="s">
         <v>35</v>
       </c>
       <c r="O146" s="28" t="s">
@@ -13747,96 +13815,1068 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:26" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A147" s="24">
         <v>45356</v>
       </c>
-      <c r="B147" s="25">
+      <c r="B147" s="24">
         <v>45359</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D147" s="16">
+        <v>13</v>
+      </c>
+      <c r="E147" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G147" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="H147" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A31_DC</v>
+      </c>
+      <c r="I147" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K147" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N147" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O147" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P147" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q147" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R147" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T147" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U147" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V147" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W147" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X147" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y147" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z147" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A148" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B148" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D148" s="16">
+        <v>24</v>
+      </c>
+      <c r="E148" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G148" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="H148" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A32_MC</v>
+      </c>
+      <c r="I148" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K148" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N148" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O148" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P148" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q148" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R148" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T148" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U148" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V148" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W148" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X148" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y148" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z148" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A149" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B149" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D149" s="16">
+        <v>24</v>
+      </c>
+      <c r="E149" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G149" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="H149" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A32_DC</v>
+      </c>
+      <c r="I149" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K149" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N149" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O149" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P149" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q149" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R149" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T149" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U149" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V149" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W149" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X149" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y149" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z149" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A150" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B150" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D150" s="16">
+        <v>25</v>
+      </c>
+      <c r="E150" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G150" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="H150" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A33_MC</v>
+      </c>
+      <c r="I150" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K150" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N150" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O150" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P150" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q150" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R150" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T150" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U150" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V150" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W150" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X150" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y150" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z150" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A151" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B151" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D151" s="16">
+        <v>25</v>
+      </c>
+      <c r="E151" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G151" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="H151" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A33_DC</v>
+      </c>
+      <c r="I151" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K151" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N151" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O151" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P151" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q151" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R151" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S151" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T151" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U151" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V151" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W151" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X151" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y151" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z151" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A152" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B152" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D152" s="16">
+        <v>36</v>
+      </c>
+      <c r="E152" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G152" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="H152" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A34_MC</v>
+      </c>
+      <c r="I152" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K152" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N152" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O152" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P152" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q152" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R152" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T152" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U152" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V152" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W152" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X152" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y152" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z152" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A153" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B153" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D153" s="16">
+        <v>36</v>
+      </c>
+      <c r="E153" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G153" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="H153" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A34_DC</v>
+      </c>
+      <c r="I153" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K153" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N153" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O153" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P153" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q153" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R153" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T153" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U153" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V153" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W153" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X153" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y153" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z153" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A154" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B154" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D154" s="16">
+        <v>37</v>
+      </c>
+      <c r="E154" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G154" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="H154" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A35_MC</v>
+      </c>
+      <c r="I154" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K154" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N154" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O154" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P154" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q154" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R154" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T154" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U154" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V154" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W154" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X154" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y154" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z154" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A155" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B155" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D155" s="16">
+        <v>37</v>
+      </c>
+      <c r="E155" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G155" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="H155" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A35_DC</v>
+      </c>
+      <c r="I155" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K155" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N155" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O155" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P155" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q155" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R155" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T155" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U155" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V155" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W155" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X155" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y155" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z155" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A156" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B156" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D156" s="16">
+        <v>16</v>
+      </c>
+      <c r="E156" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G156" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="H156" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A36_MC</v>
+      </c>
+      <c r="I156" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K156" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N156" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O156" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P156" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q156" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R156" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T156" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U156" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V156" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W156" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X156" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y156" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z156" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A157" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B157" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D157" s="16">
+        <v>16</v>
+      </c>
+      <c r="E157" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G157" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="H157" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_DC_4_FMF_UK_A36_DC</v>
+      </c>
+      <c r="I157" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K157" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N157" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O157" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P157" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q157" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R157" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T157" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U157" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V157" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W157" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X157" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y157" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z157" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A158" s="24">
+        <v>45356</v>
+      </c>
+      <c r="B158" s="24">
+        <v>45359</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D158" s="16">
+        <v>17</v>
+      </c>
+      <c r="E158" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G158" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="H158" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Triso_twin_sim_MC_4_FMF_UK_A37_MC</v>
+      </c>
+      <c r="I158" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N158" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O158" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P158" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q158" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R158" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T158" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U158" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V158" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W158" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X158" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y158" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z158" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="25">
+        <v>45356</v>
+      </c>
+      <c r="B159" s="25">
+        <v>45359</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D159" s="12">
         <v>17</v>
       </c>
-      <c r="E147" s="45" t="s">
+      <c r="E159" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F159" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G147" s="45" t="s">
+      <c r="G159" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="H147" s="4" t="str">
-        <f t="shared" ref="H147" si="13">F147&amp;"_"&amp;C147</f>
+      <c r="H159" s="4" t="str">
+        <f t="shared" ref="H159" si="14">F159&amp;"_"&amp;C159</f>
         <v>Triso_twin_sim_DC_4_FMF_UK_A37_DC</v>
       </c>
-      <c r="I147" s="12" t="s">
+      <c r="I159" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="J147" s="4" t="s">
+      <c r="J159" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="K159" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="L147" s="4" t="s">
+      <c r="L159" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="M147" s="4" t="s">
+      <c r="M159" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="N147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O147" s="27" t="s">
+      <c r="N159" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O159" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="P147" s="13" t="s">
+      <c r="P159" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="Q147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R147" s="27" t="s">
+      <c r="Q159" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R159" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="S147" s="4" t="s">
+      <c r="S159" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="T147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U147" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="V147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="W147" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="X147" s="19" t="s">
+      <c r="T159" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U159" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V159" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="W159" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X159" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Y147" s="19" t="s">
+      <c r="Y159" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Z147" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="1"/>
+      <c r="Z159" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C157:C1048576 C1:C147">
+  <conditionalFormatting sqref="C169:C1048576 C1:C159">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H24">
